--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1452" uniqueCount="309">
   <si>
     <t>app_id</t>
   </si>
@@ -118,6 +118,12 @@
     <t>form.commcare_usercase.case.@xmlns</t>
   </si>
   <si>
+    <t>form.commcare_usercase.case.update.facilityName</t>
+  </si>
+  <si>
+    <t>form.commcare_usercase.case.update.recordingMonth</t>
+  </si>
+  <si>
     <t>form.commcare_usercase.case.update.savedFacilities</t>
   </si>
   <si>
@@ -151,6 +157,234 @@
     <t>form.copy-1-of-location_details.savedFacilities</t>
   </si>
   <si>
+    <t>form.copy-2-of-grpHTS.totalHIVPositiveNC</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.totalhivNegativeNC</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.uncircumcisedClientsForHTS</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_negativeList.hivNegative15-19</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_negativeList.hivNegative20-24</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_negativeList.total_surgicalDisposable</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total15-19HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total20-24HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total25-29HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total30-34HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total35-39HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total40-44HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total45-49HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total50HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total_surgicalReusable</t>
+  </si>
+  <si>
+    <t>form.grpHTS.totalHIVPositive</t>
+  </si>
+  <si>
+    <t>form.grpHTS.totalHIVUntested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.totalhivNegative</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.TotalMCsBYMethod</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable15-19</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable20-24</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.total_surgicalDisposable</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sgReusable15-19</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sgReusable20-24</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.total_surgicalReusable</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.total50ByMethod</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.totalShangringMCs</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.totalSurgicalDisposableMCs</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.totalSurgicalReusableMCs</t>
+  </si>
+  <si>
+    <t>form.location_details.District</t>
+  </si>
+  <si>
+    <t>form.location_details.DistrictLabelDisplay</t>
+  </si>
+  <si>
+    <t>form.location_details.Province</t>
+  </si>
+  <si>
+    <t>form.location_details.ProvinceLabelDisplay</t>
+  </si>
+  <si>
+    <t>form.location_details.SiteLabelDisplay</t>
+  </si>
+  <si>
+    <t>form.location_details.Site_Name</t>
+  </si>
+  <si>
+    <t>form.location_details.countryID</t>
+  </si>
+  <si>
+    <t>form.location_details.districtName</t>
+  </si>
+  <si>
+    <t>form.location_details.provinceName</t>
+  </si>
+  <si>
+    <t>form.location_details.siteName</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.copy-1-of-mcs_by_age_disaggregations</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc15-19</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc20-24</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc25-29</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc30-34</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc35-39</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc40-44</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc45-49</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc50</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.totalMCs</t>
+  </si>
+  <si>
+    <t>form.meta.@xmlns</t>
+  </si>
+  <si>
+    <t>form.meta.appVersion</t>
+  </si>
+  <si>
+    <t>form.meta.app_build_version</t>
+  </si>
+  <si>
+    <t>form.meta.commcare_version</t>
+  </si>
+  <si>
+    <t>form.meta.deviceID</t>
+  </si>
+  <si>
+    <t>form.meta.drift</t>
+  </si>
+  <si>
+    <t>form.meta.geo_point</t>
+  </si>
+  <si>
+    <t>form.meta.instanceID</t>
+  </si>
+  <si>
+    <t>form.meta.timeEnd</t>
+  </si>
+  <si>
+    <t>form.meta.timeStart</t>
+  </si>
+  <si>
+    <t>form.meta.userID</t>
+  </si>
+  <si>
+    <t>form.meta.username</t>
+  </si>
+  <si>
+    <t>form.recordingPeriodList.recordingMonth</t>
+  </si>
+  <si>
+    <t>form.recordingPeriodList.year</t>
+  </si>
+  <si>
+    <t>form.totalAES</t>
+  </si>
+  <si>
+    <t>metadata.appVersion</t>
+  </si>
+  <si>
+    <t>metadata.app_build_version</t>
+  </si>
+  <si>
+    <t>metadata.commcare_version</t>
+  </si>
+  <si>
+    <t>metadata.deviceID</t>
+  </si>
+  <si>
+    <t>metadata.drift</t>
+  </si>
+  <si>
+    <t>metadata.geo_point</t>
+  </si>
+  <si>
+    <t>metadata.instanceID</t>
+  </si>
+  <si>
+    <t>metadata.location</t>
+  </si>
+  <si>
+    <t>metadata.timeEnd</t>
+  </si>
+  <si>
+    <t>metadata.timeStart</t>
+  </si>
+  <si>
+    <t>metadata.userID</t>
+  </si>
+  <si>
+    <t>metadata.username</t>
+  </si>
+  <si>
     <t>form.copy-2-of-grpHTS.hiv_negativeList.hivNegativeNC15-19</t>
   </si>
   <si>
@@ -229,225 +463,6 @@
     <t>form.copy-2-of-grpHTS.hiv_positiveList.total_surgicalReusable</t>
   </si>
   <si>
-    <t>form.copy-2-of-grpHTS.totalHIVPositiveNC</t>
-  </si>
-  <si>
-    <t>form.copy-2-of-grpHTS.totalhivNegativeNC</t>
-  </si>
-  <si>
-    <t>form.copy-2-of-grpHTS.uncircumcisedClientsForHTS</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_negativeList.hivNegative15-19</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_negativeList.hivNegative20-24</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_negativeList.total_surgicalDisposable</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total15-19HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total20-24HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total25-29HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total30-34HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total35-39HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total40-44HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total45-49HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total50HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total_surgicalReusable</t>
-  </si>
-  <si>
-    <t>form.grpHTS.totalHIVPositive</t>
-  </si>
-  <si>
-    <t>form.grpHTS.totalHIVUntested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.totalhivNegative</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.TotalMCsBYMethod</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable15-19</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable20-24</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.surgical_disposable.total_surgicalDisposable</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.total50ByMethod</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.totalShangringMCs</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.totalSurgicalDisposableMCs</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.totalSurgicalReusableMCs</t>
-  </si>
-  <si>
-    <t>form.location_details.District</t>
-  </si>
-  <si>
-    <t>form.location_details.DistrictLabelDisplay</t>
-  </si>
-  <si>
-    <t>form.location_details.Province</t>
-  </si>
-  <si>
-    <t>form.location_details.ProvinceLabelDisplay</t>
-  </si>
-  <si>
-    <t>form.location_details.SiteLabelDisplay</t>
-  </si>
-  <si>
-    <t>form.location_details.Site_Name</t>
-  </si>
-  <si>
-    <t>form.location_details.countryID</t>
-  </si>
-  <si>
-    <t>form.location_details.districtName</t>
-  </si>
-  <si>
-    <t>form.location_details.provinceName</t>
-  </si>
-  <si>
-    <t>form.location_details.siteName</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.copy-1-of-mcs_by_age_disaggregations</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc15-19</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc20-24</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc25-29</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc30-34</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc35-39</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc40-44</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc45-49</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc50</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.totalMCs</t>
-  </si>
-  <si>
-    <t>form.meta.@xmlns</t>
-  </si>
-  <si>
-    <t>form.meta.appVersion</t>
-  </si>
-  <si>
-    <t>form.meta.app_build_version</t>
-  </si>
-  <si>
-    <t>form.meta.commcare_version</t>
-  </si>
-  <si>
-    <t>form.meta.deviceID</t>
-  </si>
-  <si>
-    <t>form.meta.drift</t>
-  </si>
-  <si>
-    <t>form.meta.geo_point</t>
-  </si>
-  <si>
-    <t>form.meta.instanceID</t>
-  </si>
-  <si>
-    <t>form.meta.timeEnd</t>
-  </si>
-  <si>
-    <t>form.meta.timeStart</t>
-  </si>
-  <si>
-    <t>form.meta.userID</t>
-  </si>
-  <si>
-    <t>form.meta.username</t>
-  </si>
-  <si>
-    <t>form.recordingPeriodList.recordingMonth</t>
-  </si>
-  <si>
-    <t>form.recordingPeriodList.year</t>
-  </si>
-  <si>
-    <t>form.totalAES</t>
-  </si>
-  <si>
-    <t>metadata.appVersion</t>
-  </si>
-  <si>
-    <t>metadata.app_build_version</t>
-  </si>
-  <si>
-    <t>metadata.commcare_version</t>
-  </si>
-  <si>
-    <t>metadata.deviceID</t>
-  </si>
-  <si>
-    <t>metadata.drift</t>
-  </si>
-  <si>
-    <t>metadata.geo_point</t>
-  </si>
-  <si>
-    <t>metadata.instanceID</t>
-  </si>
-  <si>
-    <t>metadata.location</t>
-  </si>
-  <si>
-    <t>metadata.timeEnd</t>
-  </si>
-  <si>
-    <t>metadata.timeStart</t>
-  </si>
-  <si>
-    <t>metadata.userID</t>
-  </si>
-  <si>
-    <t>metadata.username</t>
-  </si>
-  <si>
     <t>form.copy-1-of-grpHTS.other_referrals_in_detail.ReferrelRecordingMonth</t>
   </si>
   <si>
@@ -514,6 +529,9 @@
     <t>829256a8e54a410eb4c2f3eeca4e65e5</t>
   </si>
   <si>
+    <t>7672086516504e1e8519fd0e3c60ec95</t>
+  </si>
+  <si>
     <t>abfa5bace6b540149ed7e4a42476530e</t>
   </si>
   <si>
@@ -526,6 +544,9 @@
     <t>zdip-qa</t>
   </si>
   <si>
+    <t>d217ec5e-0c5c-489f-8818-01812d136451</t>
+  </si>
+  <si>
     <t>1de597e5-d599-49d1-958d-005b8c78a29e</t>
   </si>
   <si>
@@ -544,6 +565,9 @@
     <t>e0aa41df-6a0c-4b60-a230-43517440398b</t>
   </si>
   <si>
+    <t>2025-02-20T11:02:49.651994Z</t>
+  </si>
+  <si>
     <t>2025-02-20T10:35:05.110990Z</t>
   </si>
   <si>
@@ -562,6 +586,9 @@
     <t>2025-02-20T09:36:20.387384Z</t>
   </si>
   <si>
+    <t>2025-02-20T11:02:49.542595Z</t>
+  </si>
+  <si>
     <t>2025-02-20T10:35:04.990137Z</t>
   </si>
   <si>
@@ -580,6 +607,9 @@
     <t>2025-02-20T09:36:20.280428Z</t>
   </si>
   <si>
+    <t>2025-02-20T11:02:49.612199Z</t>
+  </si>
+  <si>
     <t>2025-02-20T10:35:05.066175Z</t>
   </si>
   <si>
@@ -607,6 +637,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>26</t>
   </si>
   <si>
@@ -619,6 +652,9 @@
     <t>text/xml</t>
   </si>
   <si>
+    <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/d217ec5e-0c5c-489f-8818-01812d136451/form.xml</t>
+  </si>
+  <si>
     <t>https://zdip.zimttech.org/a/zdip-qa/api/form_attachment/v1/1de597e5-d599-49d1-958d-005b8c78a29e/form.xml</t>
   </si>
   <si>
@@ -649,6 +685,9 @@
     <t>OK</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
@@ -661,18 +700,27 @@
     <t>13</t>
   </si>
   <si>
+    <t>ca49120396a0451b8dbf8f92d8fa2727</t>
+  </si>
+  <si>
     <t>bb29df93297446d99460cc39ccfc527e</t>
   </si>
   <si>
     <t>a80c46d3231640fd8c55f749973adc25</t>
   </si>
   <si>
+    <t>2025-02-20T11:02:49.283000Z</t>
+  </si>
+  <si>
     <t>2025-02-20T10:35:04.520000Z</t>
   </si>
   <si>
     <t>2025-02-20T10:27:11.237000Z</t>
   </si>
   <si>
+    <t>795425db0401401aa86e063ea34792e8</t>
+  </si>
+  <si>
     <t>148b582ced074b30a11c93abdad751e5</t>
   </si>
   <si>
@@ -682,6 +730,15 @@
     <t>http://commcarehq.org/case/transaction/v2</t>
   </si>
   <si>
+    <t>Musume Hospital</t>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>Musume HospitalJanuary2025</t>
+  </si>
+  <si>
     <t>Kezi,MbembeswanaNatisaBeula,SankonjanaOct2024NatisaOct2024KeziOct2024Maphisa HospitalOctober2024BeulaOctober2024SankonjanaOctober2024BeulaNovember2024BeulaSeptember2024BeulaMay2024MbembeswanaSeptember2024NatisaSeptember2024Maphisa HospitalSeptember2024KeziSeptember2024SankonjanaSeptember2024KeziOctober2024MbembeswanaOctober2024MbembeswanaNovember2024KeziDecember2024SankonjanaDecember2024BeulaJanuary2025MbembeswanaJanuary2025Guruve District HospitalJanuary2025Mnene HospitalJanuary2025</t>
   </si>
   <si>
@@ -742,6 +799,9 @@
     <t>15</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>24</t>
   </si>
   <si>
@@ -766,12 +826,18 @@
     <t>Province :      MIDLANDS</t>
   </si>
   <si>
+    <t>Site  :      MUSUME - 101157 - MISSION HOSPITAL</t>
+  </si>
+  <si>
     <t>Site  :      MNENE - 101029 - MISSION HOSPITAL</t>
   </si>
   <si>
     <t>Site  :      GOKWE - 100513 - DISTRICT HOSPITAL</t>
   </si>
   <si>
+    <t>MUSUME - 101157 - MISSION HOSPITAL</t>
+  </si>
+  <si>
     <t>MNENE - 101029 - MISSION HOSPITAL</t>
   </si>
   <si>
@@ -784,6 +850,9 @@
     <t>http://openrosa.org/jr/xforms</t>
   </si>
   <si>
+    <t>CommCare Android, version "2.55.0"(467579). App v28. CommCare Version 2.55.0. Build 467579, built on: 2025-01-15</t>
+  </si>
+  <si>
     <t>CommCare Android, version "2.55.0"(467579). App v26. CommCare Version 2.55.0. Build 467579, built on: 2025-01-15</t>
   </si>
   <si>
@@ -811,6 +880,9 @@
     <t>2025-02-20T09:36:19.937000Z</t>
   </si>
   <si>
+    <t>2025-02-20T11:01:03.138000Z</t>
+  </si>
+  <si>
     <t>2025-02-20T10:32:59.625000Z</t>
   </si>
   <si>
@@ -829,13 +901,13 @@
     <t>2025-02-20T09:33:24.734000Z</t>
   </si>
   <si>
+    <t>tmutenha</t>
+  </si>
+  <si>
     <t>amutenha</t>
   </si>
   <si>
     <t>tinatenzi</t>
-  </si>
-  <si>
-    <t>January</t>
   </si>
   <si>
     <t>2025</t>
@@ -1239,13 +1311,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FJ13"/>
+  <dimension ref="A1:FO15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:166">
+    <row r="1" spans="1:171">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1741,28 +1813,43 @@
       <c r="FJ1" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="FK1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="FN1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="FO1" s="1" t="s">
+        <v>169</v>
+      </c>
     </row>
-    <row r="2" spans="1:166">
+    <row r="2" spans="1:171">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H2" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -1771,384 +1858,321 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="O2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="P2" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="R2" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="S2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="T2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="U2">
-        <v>6529</v>
+        <v>4649</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="W2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="X2" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z2" t="s">
         <v>207</v>
       </c>
-      <c r="Y2" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>197</v>
-      </c>
       <c r="AA2" s="2" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AB2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AD2" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="AE2" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AF2" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="AG2" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="AH2" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="AJ2" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="AK2" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="AL2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AR2" t="s">
         <v>225</v>
       </c>
-      <c r="AM2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>228</v>
-      </c>
       <c r="AS2" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="AT2" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="AU2" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="AV2" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="AW2" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AX2" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AY2" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AZ2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BA2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="BB2" t="s">
-        <v>224</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>210</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>224</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>224</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>212</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>224</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>224</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>224</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="BK2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="BL2" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="BM2" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="BN2" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="BO2" t="s">
-        <v>224</v>
+        <v>261</v>
       </c>
       <c r="BP2" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="BQ2" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="BR2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="BS2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BT2" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="BU2" t="s">
-        <v>212</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="BW2" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="BX2" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="BY2" t="s">
-        <v>213</v>
+        <v>261</v>
       </c>
       <c r="BZ2" t="s">
-        <v>210</v>
+        <v>264</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>266</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>268</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>270</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>273</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>276</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>222</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>222</v>
       </c>
       <c r="CI2" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="CJ2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="CK2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="CL2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="CM2" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="CN2" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="CO2" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="CP2" t="s">
-        <v>210</v>
+        <v>243</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>243</v>
       </c>
       <c r="CR2" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="CS2" t="s">
-        <v>226</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>224</v>
+        <v>261</v>
+      </c>
+      <c r="CT2" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="CU2" t="s">
-        <v>244</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>246</v>
+        <v>278</v>
+      </c>
+      <c r="CV2">
+        <v>28</v>
       </c>
       <c r="CW2" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="CX2" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="CY2" t="s">
-        <v>250</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="DA2" t="s">
-        <v>254</v>
+        <v>176</v>
       </c>
       <c r="DB2" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="DC2" t="s">
-        <v>210</v>
+        <v>288</v>
       </c>
       <c r="DD2" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="DE2" t="s">
-        <v>210</v>
+        <v>295</v>
       </c>
       <c r="DF2" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="DG2" t="s">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="DH2" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="DI2" t="s">
-        <v>224</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>224</v>
+        <v>278</v>
+      </c>
+      <c r="DJ2">
+        <v>28</v>
       </c>
       <c r="DK2" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="DL2" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="DM2" t="s">
-        <v>224</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>226</v>
-      </c>
-      <c r="DO2" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>256</v>
-      </c>
-      <c r="DQ2">
-        <v>26</v>
+        <v>243</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>176</v>
+      </c>
+      <c r="DQ2" t="s">
+        <v>231</v>
       </c>
       <c r="DR2" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="DS2" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="DT2" t="s">
-        <v>224</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>170</v>
-      </c>
-      <c r="DW2" t="s">
-        <v>217</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>265</v>
-      </c>
-      <c r="DY2" t="s">
-        <v>219</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>271</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>273</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>274</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>224</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>256</v>
-      </c>
-      <c r="EE2">
-        <v>26</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>259</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>260</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>224</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>170</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>217</v>
-      </c>
-      <c r="EM2" t="s">
-        <v>265</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>219</v>
-      </c>
-      <c r="EO2" t="s">
-        <v>271</v>
+        <v>295</v>
       </c>
     </row>
-    <row r="3" spans="1:166">
+    <row r="3" spans="1:171">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I3" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -2157,225 +2181,384 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="O3" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="P3" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q3" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="R3" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="S3" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="T3" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="U3">
-        <v>2859</v>
+        <v>6529</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="W3" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="X3" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="Y3" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Z3" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>209</v>
+        <v>221</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>226</v>
       </c>
       <c r="AF3" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="AG3" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="AH3" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>223</v>
+        <v>237</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>244</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>243</v>
       </c>
       <c r="AQ3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>247</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>241</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>243</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ3" t="s">
         <v>224</v>
       </c>
-      <c r="AR3" t="s">
-        <v>229</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>234</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>223</v>
+      <c r="BA3" t="s">
+        <v>226</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>243</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>243</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>245</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>245</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>224</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>226</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>222</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>243</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>245</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>243</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>266</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>268</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>274</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>276</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>222</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>222</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>222</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>222</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>224</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>226</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>243</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>243</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>243</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>243</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>243</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>243</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>245</v>
+      </c>
+      <c r="CT3" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="CU3" t="s">
-        <v>245</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>247</v>
+        <v>279</v>
+      </c>
+      <c r="CV3">
+        <v>26</v>
       </c>
       <c r="CW3" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="CX3" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="CY3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="DA3" t="s">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="DB3" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="DC3" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="DD3" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="DE3" t="s">
-        <v>210</v>
+        <v>296</v>
       </c>
       <c r="DF3" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="DG3" t="s">
-        <v>224</v>
+        <v>298</v>
       </c>
       <c r="DH3" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="DI3" t="s">
-        <v>224</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>224</v>
+        <v>279</v>
+      </c>
+      <c r="DJ3">
+        <v>26</v>
       </c>
       <c r="DK3" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="DL3" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="DM3" t="s">
-        <v>224</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>224</v>
-      </c>
-      <c r="DO3" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>256</v>
-      </c>
-      <c r="DQ3">
-        <v>26</v>
+        <v>243</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>177</v>
+      </c>
+      <c r="DQ3" t="s">
+        <v>232</v>
       </c>
       <c r="DR3" t="s">
-        <v>259</v>
+        <v>289</v>
       </c>
       <c r="DS3" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="DT3" t="s">
-        <v>224</v>
+        <v>296</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>243</v>
       </c>
       <c r="DV3" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="DW3" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="DX3" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="DY3" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="DZ3" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="EA3" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="EB3" t="s">
-        <v>274</v>
+        <v>243</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>222</v>
       </c>
       <c r="ED3" t="s">
-        <v>256</v>
-      </c>
-      <c r="EE3">
-        <v>26</v>
+        <v>243</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>243</v>
       </c>
       <c r="EF3" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="EG3" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="EH3" t="s">
-        <v>224</v>
+        <v>243</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>243</v>
       </c>
       <c r="EJ3" t="s">
-        <v>171</v>
+        <v>243</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>243</v>
       </c>
       <c r="EL3" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="EM3" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="EN3" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="EO3" t="s">
-        <v>272</v>
+        <v>243</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>243</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>243</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>243</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>243</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:166">
+    <row r="4" spans="1:171">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="I4" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -2384,282 +2567,225 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="O4" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q4" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="R4" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="S4" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="T4" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="U4">
-        <v>4206</v>
+        <v>2859</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="W4" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="X4" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="Y4" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Z4" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>224</v>
+        <v>221</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="AL4" t="s">
-        <v>224</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>224</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>224</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>224</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>224</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>224</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="AS4" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AT4" t="s">
-        <v>238</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>224</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>224</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>224</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>212</v>
+        <v>248</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>242</v>
       </c>
       <c r="BZ4" t="s">
-        <v>210</v>
+        <v>265</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>268</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>272</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>275</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>276</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>222</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>222</v>
       </c>
       <c r="CI4" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="CJ4" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="CK4" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="CL4" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="CM4" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="CN4" t="s">
-        <v>212</v>
+        <v>243</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>243</v>
       </c>
       <c r="CP4" t="s">
-        <v>210</v>
+        <v>243</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>243</v>
       </c>
       <c r="CR4" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="CS4" t="s">
-        <v>212</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>224</v>
+        <v>243</v>
+      </c>
+      <c r="CT4" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="CU4" t="s">
-        <v>245</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>247</v>
+        <v>279</v>
+      </c>
+      <c r="CV4">
+        <v>26</v>
       </c>
       <c r="CW4" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="CX4" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="CY4" t="s">
-        <v>251</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="DA4" t="s">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="DB4" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="DC4" t="s">
-        <v>210</v>
+        <v>290</v>
       </c>
       <c r="DD4" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="DE4" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="DF4" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="DG4" t="s">
-        <v>224</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>224</v>
+        <v>298</v>
       </c>
       <c r="DI4" t="s">
-        <v>224</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>224</v>
+        <v>279</v>
+      </c>
+      <c r="DJ4">
+        <v>26</v>
       </c>
       <c r="DK4" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="DL4" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="DM4" t="s">
-        <v>224</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>212</v>
-      </c>
-      <c r="DO4" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="DP4" t="s">
-        <v>257</v>
-      </c>
-      <c r="DQ4">
-        <v>25</v>
+        <v>243</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>178</v>
+      </c>
+      <c r="DQ4" t="s">
+        <v>233</v>
       </c>
       <c r="DR4" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="DS4" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="DT4" t="s">
-        <v>224</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>172</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>261</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>267</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>220</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>272</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>273</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>274</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>224</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>257</v>
-      </c>
-      <c r="EE4">
-        <v>25</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>259</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>260</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>224</v>
-      </c>
-      <c r="EJ4" t="s">
-        <v>172</v>
-      </c>
-      <c r="EL4" t="s">
-        <v>261</v>
-      </c>
-      <c r="EM4" t="s">
-        <v>267</v>
-      </c>
-      <c r="EN4" t="s">
-        <v>220</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="5" spans="1:166">
+    <row r="5" spans="1:171">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="I5" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -2668,210 +2794,282 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="O5" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="P5" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q5" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="R5" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="S5" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="T5" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="U5">
-        <v>2264</v>
+        <v>4206</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="W5" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="X5" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="Y5" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Z5" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>209</v>
+        <v>221</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>243</v>
       </c>
       <c r="AQ5" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AR5" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="AS5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>257</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>225</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>243</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>243</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>225</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>225</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>225</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>222</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>243</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>225</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>243</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>265</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>268</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>272</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>275</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>276</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>222</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>222</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>222</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>222</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>225</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>243</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>243</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>243</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>243</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>243</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>243</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>243</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>225</v>
+      </c>
+      <c r="CT5" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>280</v>
+      </c>
+      <c r="CV5">
+        <v>25</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>282</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>283</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>243</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>179</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>284</v>
+      </c>
+      <c r="DC5" t="s">
+        <v>291</v>
+      </c>
+      <c r="DD5" t="s">
         <v>236</v>
       </c>
-      <c r="AT5" t="s">
+      <c r="DE5" t="s">
+        <v>297</v>
+      </c>
+      <c r="DF5" t="s">
         <v>239</v>
       </c>
-      <c r="CU5" t="s">
-        <v>245</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>247</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>248</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>249</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>251</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>253</v>
-      </c>
-      <c r="DA5" t="s">
-        <v>254</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>210</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>210</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>210</v>
-      </c>
-      <c r="DE5" t="s">
-        <v>210</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>224</v>
-      </c>
       <c r="DG5" t="s">
-        <v>224</v>
+        <v>298</v>
       </c>
       <c r="DH5" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="DI5" t="s">
-        <v>224</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>224</v>
+        <v>280</v>
+      </c>
+      <c r="DJ5">
+        <v>25</v>
       </c>
       <c r="DK5" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="DL5" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="DM5" t="s">
-        <v>224</v>
-      </c>
-      <c r="DN5" t="s">
-        <v>224</v>
-      </c>
-      <c r="DO5" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="DP5" t="s">
-        <v>257</v>
-      </c>
-      <c r="DQ5">
-        <v>25</v>
+        <v>243</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>179</v>
+      </c>
+      <c r="DQ5" t="s">
+        <v>284</v>
       </c>
       <c r="DR5" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="DS5" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="DT5" t="s">
-        <v>224</v>
-      </c>
-      <c r="DV5" t="s">
-        <v>173</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>262</v>
-      </c>
-      <c r="DX5" t="s">
-        <v>268</v>
-      </c>
-      <c r="DY5" t="s">
-        <v>220</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>272</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>273</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>274</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>257</v>
-      </c>
-      <c r="EE5">
-        <v>25</v>
-      </c>
-      <c r="EF5" t="s">
-        <v>259</v>
-      </c>
-      <c r="EG5" t="s">
-        <v>260</v>
-      </c>
-      <c r="EH5" t="s">
-        <v>224</v>
-      </c>
-      <c r="EJ5" t="s">
-        <v>173</v>
-      </c>
-      <c r="EL5" t="s">
-        <v>262</v>
-      </c>
-      <c r="EM5" t="s">
-        <v>268</v>
-      </c>
-      <c r="EN5" t="s">
-        <v>220</v>
-      </c>
-      <c r="EO5" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="6" spans="1:166">
+    <row r="6" spans="1:171">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H6" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="I6" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -2880,297 +3078,210 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="O6" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q6" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="R6" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="S6" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="T6" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="U6">
-        <v>4599</v>
+        <v>2264</v>
       </c>
       <c r="V6" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="W6" t="s">
         <v>205</v>
       </c>
-      <c r="W6" t="s">
-        <v>195</v>
-      </c>
       <c r="X6" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="Y6" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Z6" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>211</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>224</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>212</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>224</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>196</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>224</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="AS6" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AT6" t="s">
-        <v>240</v>
-      </c>
-      <c r="BU6" t="s">
-        <v>224</v>
-      </c>
-      <c r="BV6" t="s">
-        <v>224</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>224</v>
-      </c>
-      <c r="BX6" t="s">
-        <v>211</v>
+        <v>250</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>255</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>258</v>
       </c>
       <c r="BZ6" t="s">
-        <v>210</v>
+        <v>265</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>268</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>272</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>275</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>276</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>222</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>222</v>
       </c>
       <c r="CI6" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="CJ6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="CK6" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="CL6" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="CM6" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="CN6" t="s">
-        <v>211</v>
+        <v>243</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>243</v>
       </c>
       <c r="CP6" t="s">
-        <v>210</v>
+        <v>243</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>243</v>
       </c>
       <c r="CR6" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="CS6" t="s">
-        <v>211</v>
-      </c>
-      <c r="CT6" t="s">
-        <v>224</v>
+        <v>243</v>
+      </c>
+      <c r="CT6" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="CU6" t="s">
-        <v>245</v>
-      </c>
-      <c r="CV6" t="s">
-        <v>247</v>
+        <v>280</v>
+      </c>
+      <c r="CV6">
+        <v>25</v>
       </c>
       <c r="CW6" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="CX6" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="CY6" t="s">
-        <v>251</v>
-      </c>
-      <c r="CZ6" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="DA6" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="DB6" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="DC6" t="s">
-        <v>210</v>
+        <v>292</v>
       </c>
       <c r="DD6" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="DE6" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="DF6" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="DG6" t="s">
-        <v>224</v>
-      </c>
-      <c r="DH6" t="s">
-        <v>224</v>
+        <v>298</v>
       </c>
       <c r="DI6" t="s">
-        <v>224</v>
-      </c>
-      <c r="DJ6" t="s">
-        <v>224</v>
+        <v>280</v>
+      </c>
+      <c r="DJ6">
+        <v>25</v>
       </c>
       <c r="DK6" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="DL6" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="DM6" t="s">
-        <v>224</v>
-      </c>
-      <c r="DN6" t="s">
-        <v>211</v>
-      </c>
-      <c r="DO6" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="DP6" t="s">
-        <v>257</v>
-      </c>
-      <c r="DQ6">
-        <v>25</v>
+        <v>243</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>180</v>
+      </c>
+      <c r="DQ6" t="s">
+        <v>285</v>
       </c>
       <c r="DR6" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="DS6" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="DT6" t="s">
-        <v>224</v>
-      </c>
-      <c r="DV6" t="s">
-        <v>174</v>
-      </c>
-      <c r="DW6" t="s">
-        <v>263</v>
-      </c>
-      <c r="DX6" t="s">
-        <v>269</v>
-      </c>
-      <c r="DY6" t="s">
-        <v>220</v>
-      </c>
-      <c r="DZ6" t="s">
-        <v>272</v>
-      </c>
-      <c r="EA6" t="s">
-        <v>273</v>
-      </c>
-      <c r="EB6" t="s">
-        <v>274</v>
-      </c>
-      <c r="EC6" t="s">
-        <v>224</v>
-      </c>
-      <c r="ED6" t="s">
-        <v>257</v>
-      </c>
-      <c r="EE6">
-        <v>25</v>
-      </c>
-      <c r="EF6" t="s">
-        <v>259</v>
-      </c>
-      <c r="EG6" t="s">
-        <v>260</v>
-      </c>
-      <c r="EH6" t="s">
-        <v>224</v>
-      </c>
-      <c r="EJ6" t="s">
-        <v>174</v>
-      </c>
-      <c r="EL6" t="s">
-        <v>263</v>
-      </c>
-      <c r="EM6" t="s">
-        <v>269</v>
-      </c>
-      <c r="EN6" t="s">
-        <v>220</v>
-      </c>
-      <c r="EO6" t="s">
-        <v>272</v>
-      </c>
-      <c r="EP6" t="s">
-        <v>273</v>
-      </c>
-      <c r="EQ6" t="s">
-        <v>237</v>
-      </c>
-      <c r="ER6" t="s">
-        <v>274</v>
-      </c>
-      <c r="ET6" t="s">
-        <v>275</v>
-      </c>
-      <c r="EU6" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="7" spans="1:166">
+    <row r="7" spans="1:171">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C7" t="b">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="I7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -3179,351 +3290,297 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="O7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q7" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="R7" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="S7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="T7" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="U7">
-        <v>5408</v>
+        <v>4599</v>
       </c>
       <c r="V7" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="W7" t="s">
+        <v>205</v>
+      </c>
+      <c r="X7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y7" t="s">
         <v>206</v>
       </c>
-      <c r="W7" t="s">
-        <v>195</v>
-      </c>
-      <c r="X7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>196</v>
-      </c>
       <c r="Z7" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AB7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AD7" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>214</v>
-      </c>
-      <c r="AK7" t="s">
         <v>224</v>
       </c>
-      <c r="AL7" t="s">
-        <v>226</v>
-      </c>
       <c r="AM7" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="AN7" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="AO7" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="AP7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AQ7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>256</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>243</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>243</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ7" t="s">
         <v>224</v>
       </c>
-      <c r="AR7" t="s">
-        <v>232</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>237</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>240</v>
-      </c>
-      <c r="BU7" t="s">
+      <c r="BB7" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>243</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>243</v>
+      </c>
+      <c r="BN7" t="s">
         <v>224</v>
       </c>
-      <c r="BV7" t="s">
+      <c r="BO7" t="s">
         <v>224</v>
       </c>
+      <c r="BP7" t="s">
+        <v>224</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>222</v>
+      </c>
       <c r="BW7" t="s">
+        <v>243</v>
+      </c>
+      <c r="BX7" t="s">
         <v>224</v>
       </c>
-      <c r="BX7" t="s">
-        <v>211</v>
-      </c>
       <c r="BY7" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="BZ7" t="s">
-        <v>210</v>
+        <v>265</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>267</v>
       </c>
       <c r="CB7" t="s">
-        <v>241</v>
+        <v>268</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>272</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>275</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>276</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>222</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>222</v>
       </c>
       <c r="CI7" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="CJ7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="CK7" t="s">
         <v>224</v>
       </c>
       <c r="CL7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="CM7" t="s">
         <v>243</v>
       </c>
       <c r="CN7" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="CO7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="CP7" t="s">
-        <v>210</v>
+        <v>243</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>243</v>
       </c>
       <c r="CR7" t="s">
+        <v>243</v>
+      </c>
+      <c r="CS7" t="s">
         <v>224</v>
       </c>
-      <c r="CS7" t="s">
-        <v>243</v>
-      </c>
-      <c r="CT7" t="s">
-        <v>224</v>
+      <c r="CT7" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="CU7" t="s">
-        <v>245</v>
-      </c>
-      <c r="CV7" t="s">
-        <v>247</v>
+        <v>280</v>
+      </c>
+      <c r="CV7">
+        <v>25</v>
       </c>
       <c r="CW7" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="CX7" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="CY7" t="s">
-        <v>251</v>
-      </c>
-      <c r="CZ7" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="DA7" t="s">
-        <v>254</v>
+        <v>181</v>
       </c>
       <c r="DB7" t="s">
-        <v>210</v>
+        <v>286</v>
       </c>
       <c r="DC7" t="s">
-        <v>210</v>
+        <v>293</v>
       </c>
       <c r="DD7" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="DE7" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="DF7" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="DG7" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="DH7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="DI7" t="s">
-        <v>224</v>
-      </c>
-      <c r="DJ7" t="s">
-        <v>224</v>
+        <v>280</v>
+      </c>
+      <c r="DJ7">
+        <v>25</v>
       </c>
       <c r="DK7" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="DL7" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="DM7" t="s">
-        <v>224</v>
-      </c>
-      <c r="DN7" t="s">
-        <v>243</v>
-      </c>
-      <c r="DO7" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="DP7" t="s">
-        <v>258</v>
-      </c>
-      <c r="DQ7">
-        <v>23</v>
+        <v>243</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>181</v>
+      </c>
+      <c r="DQ7" t="s">
+        <v>286</v>
       </c>
       <c r="DR7" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="DS7" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="DT7" t="s">
-        <v>224</v>
-      </c>
-      <c r="DV7" t="s">
-        <v>175</v>
-      </c>
-      <c r="DW7" t="s">
-        <v>264</v>
-      </c>
-      <c r="DX7" t="s">
-        <v>270</v>
-      </c>
-      <c r="DY7" t="s">
-        <v>220</v>
-      </c>
-      <c r="DZ7" t="s">
-        <v>272</v>
-      </c>
-      <c r="EA7" t="s">
-        <v>273</v>
-      </c>
-      <c r="EB7" t="s">
-        <v>274</v>
-      </c>
-      <c r="EC7" t="s">
-        <v>196</v>
-      </c>
-      <c r="ED7" t="s">
-        <v>258</v>
-      </c>
-      <c r="EE7">
-        <v>23</v>
-      </c>
-      <c r="EF7" t="s">
-        <v>259</v>
-      </c>
-      <c r="EG7" t="s">
-        <v>260</v>
-      </c>
-      <c r="EH7" t="s">
-        <v>224</v>
-      </c>
-      <c r="EJ7" t="s">
-        <v>175</v>
-      </c>
-      <c r="EL7" t="s">
-        <v>264</v>
-      </c>
-      <c r="EM7" t="s">
-        <v>270</v>
-      </c>
-      <c r="EN7" t="s">
-        <v>220</v>
-      </c>
-      <c r="EO7" t="s">
-        <v>272</v>
-      </c>
-      <c r="EP7" t="s">
-        <v>273</v>
-      </c>
-      <c r="EQ7" t="s">
-        <v>237</v>
-      </c>
-      <c r="ER7" t="s">
-        <v>274</v>
-      </c>
-      <c r="ET7" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="EU7" t="s">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="EV7" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="EW7" t="s">
-        <v>237</v>
-      </c>
-      <c r="EX7" t="s">
-        <v>274</v>
+        <v>298</v>
+      </c>
+      <c r="EY7" t="s">
+        <v>299</v>
       </c>
       <c r="EZ7" t="s">
-        <v>278</v>
-      </c>
-      <c r="FA7" t="s">
-        <v>279</v>
-      </c>
-      <c r="FB7" t="s">
-        <v>280</v>
-      </c>
-      <c r="FC7" t="s">
-        <v>196</v>
-      </c>
-      <c r="FD7" t="s">
-        <v>196</v>
-      </c>
-      <c r="FE7" t="s">
-        <v>281</v>
-      </c>
-      <c r="FF7" t="s">
-        <v>241</v>
-      </c>
-      <c r="FG7" t="s">
-        <v>282</v>
-      </c>
-      <c r="FH7" t="s">
-        <v>283</v>
-      </c>
-      <c r="FI7" t="s">
-        <v>284</v>
-      </c>
-      <c r="FJ7" t="s">
-        <v>227</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="8" spans="1:166">
+    <row r="8" spans="1:171">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H8" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="I8" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -3532,351 +3589,351 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="O8" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q8" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="R8" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="S8" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="T8" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="U8">
         <v>5408</v>
       </c>
       <c r="V8" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W8" t="s">
+        <v>205</v>
+      </c>
+      <c r="X8" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y8" t="s">
         <v>206</v>
       </c>
-      <c r="W8" t="s">
-        <v>195</v>
-      </c>
-      <c r="X8" t="s">
-        <v>208</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>196</v>
-      </c>
       <c r="Z8" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AB8" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AD8" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="AE8" t="s">
-        <v>214</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>224</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM8" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="AN8" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="AO8" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="AP8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AQ8" t="s">
         <v>224</v>
       </c>
       <c r="AR8" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AS8" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AT8" t="s">
-        <v>240</v>
-      </c>
-      <c r="BU8" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>256</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>243</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>243</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ8" t="s">
         <v>224</v>
       </c>
-      <c r="BV8" t="s">
+      <c r="BA8" t="s">
         <v>224</v>
       </c>
+      <c r="BB8" t="s">
+        <v>222</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>260</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>246</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>243</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>262</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>263</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>224</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>260</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>222</v>
+      </c>
       <c r="BW8" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="BX8" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="BY8" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="BZ8" t="s">
-        <v>210</v>
+        <v>265</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>267</v>
       </c>
       <c r="CB8" t="s">
-        <v>241</v>
+        <v>268</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>272</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>275</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>276</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>222</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>222</v>
       </c>
       <c r="CI8" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="CJ8" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="CK8" t="s">
         <v>224</v>
       </c>
       <c r="CL8" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="CM8" t="s">
         <v>243</v>
       </c>
       <c r="CN8" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="CO8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="CP8" t="s">
-        <v>210</v>
+        <v>243</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>243</v>
       </c>
       <c r="CR8" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="CS8" t="s">
-        <v>243</v>
-      </c>
-      <c r="CT8" t="s">
-        <v>224</v>
+        <v>263</v>
+      </c>
+      <c r="CT8" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="CU8" t="s">
-        <v>245</v>
-      </c>
-      <c r="CV8" t="s">
-        <v>247</v>
+        <v>281</v>
+      </c>
+      <c r="CV8">
+        <v>23</v>
       </c>
       <c r="CW8" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="CX8" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="CY8" t="s">
-        <v>251</v>
-      </c>
-      <c r="CZ8" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="DA8" t="s">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="DB8" t="s">
-        <v>210</v>
+        <v>287</v>
       </c>
       <c r="DC8" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="DD8" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="DE8" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="DF8" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="DG8" t="s">
-        <v>241</v>
+        <v>298</v>
       </c>
       <c r="DH8" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="DI8" t="s">
-        <v>224</v>
-      </c>
-      <c r="DJ8" t="s">
-        <v>224</v>
+        <v>281</v>
+      </c>
+      <c r="DJ8">
+        <v>23</v>
       </c>
       <c r="DK8" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="DL8" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="DM8" t="s">
-        <v>224</v>
-      </c>
-      <c r="DN8" t="s">
-        <v>243</v>
-      </c>
-      <c r="DO8" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="DP8" t="s">
-        <v>258</v>
-      </c>
-      <c r="DQ8">
-        <v>23</v>
+        <v>243</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>182</v>
+      </c>
+      <c r="DQ8" t="s">
+        <v>287</v>
       </c>
       <c r="DR8" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="DS8" t="s">
+        <v>236</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>297</v>
+      </c>
+      <c r="EU8" t="s">
+        <v>239</v>
+      </c>
+      <c r="EV8" t="s">
+        <v>256</v>
+      </c>
+      <c r="EW8" t="s">
+        <v>298</v>
+      </c>
+      <c r="EY8" t="s">
+        <v>300</v>
+      </c>
+      <c r="EZ8" t="s">
+        <v>301</v>
+      </c>
+      <c r="FA8" t="s">
+        <v>239</v>
+      </c>
+      <c r="FB8" t="s">
+        <v>256</v>
+      </c>
+      <c r="FC8" t="s">
+        <v>298</v>
+      </c>
+      <c r="FE8" t="s">
+        <v>302</v>
+      </c>
+      <c r="FF8" t="s">
+        <v>303</v>
+      </c>
+      <c r="FG8" t="s">
+        <v>304</v>
+      </c>
+      <c r="FH8" t="s">
+        <v>206</v>
+      </c>
+      <c r="FI8" t="s">
+        <v>206</v>
+      </c>
+      <c r="FJ8" t="s">
+        <v>305</v>
+      </c>
+      <c r="FK8" t="s">
         <v>260</v>
       </c>
-      <c r="DT8" t="s">
-        <v>224</v>
-      </c>
-      <c r="DV8" t="s">
-        <v>175</v>
-      </c>
-      <c r="DW8" t="s">
-        <v>264</v>
-      </c>
-      <c r="DX8" t="s">
-        <v>270</v>
-      </c>
-      <c r="DY8" t="s">
-        <v>220</v>
-      </c>
-      <c r="DZ8" t="s">
-        <v>272</v>
-      </c>
-      <c r="EA8" t="s">
-        <v>273</v>
-      </c>
-      <c r="EB8" t="s">
-        <v>274</v>
-      </c>
-      <c r="EC8" t="s">
-        <v>196</v>
-      </c>
-      <c r="ED8" t="s">
-        <v>258</v>
-      </c>
-      <c r="EE8">
-        <v>23</v>
-      </c>
-      <c r="EF8" t="s">
-        <v>259</v>
-      </c>
-      <c r="EG8" t="s">
-        <v>260</v>
-      </c>
-      <c r="EH8" t="s">
-        <v>224</v>
-      </c>
-      <c r="EJ8" t="s">
-        <v>175</v>
-      </c>
-      <c r="EL8" t="s">
-        <v>264</v>
-      </c>
-      <c r="EM8" t="s">
-        <v>270</v>
-      </c>
-      <c r="EN8" t="s">
-        <v>220</v>
-      </c>
-      <c r="EO8" t="s">
-        <v>272</v>
-      </c>
-      <c r="EP8" t="s">
-        <v>273</v>
-      </c>
-      <c r="EQ8" t="s">
-        <v>237</v>
-      </c>
-      <c r="ER8" t="s">
-        <v>274</v>
-      </c>
-      <c r="ET8" t="s">
-        <v>276</v>
-      </c>
-      <c r="EU8" t="s">
-        <v>277</v>
-      </c>
-      <c r="EV8" t="s">
-        <v>273</v>
-      </c>
-      <c r="EW8" t="s">
-        <v>237</v>
-      </c>
-      <c r="EX8" t="s">
-        <v>274</v>
-      </c>
-      <c r="EZ8" t="s">
-        <v>278</v>
-      </c>
-      <c r="FA8" t="s">
-        <v>279</v>
-      </c>
-      <c r="FB8" t="s">
-        <v>280</v>
-      </c>
-      <c r="FC8" t="s">
-        <v>196</v>
-      </c>
-      <c r="FD8" t="s">
-        <v>196</v>
-      </c>
-      <c r="FE8" t="s">
-        <v>281</v>
-      </c>
-      <c r="FF8" t="s">
-        <v>241</v>
-      </c>
-      <c r="FG8" t="s">
-        <v>282</v>
-      </c>
-      <c r="FH8" t="s">
-        <v>283</v>
-      </c>
-      <c r="FI8" t="s">
-        <v>284</v>
-      </c>
-      <c r="FJ8" t="s">
-        <v>227</v>
+      <c r="FL8" t="s">
+        <v>306</v>
+      </c>
+      <c r="FM8" t="s">
+        <v>307</v>
+      </c>
+      <c r="FN8" t="s">
+        <v>308</v>
+      </c>
+      <c r="FO8" t="s">
+        <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:166">
+    <row r="9" spans="1:171">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H9" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="I9" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -3885,297 +3942,351 @@
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="O9" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q9" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="R9" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="S9" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="T9" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="U9">
-        <v>4599</v>
+        <v>5408</v>
       </c>
       <c r="V9" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="W9" t="s">
         <v>205</v>
       </c>
-      <c r="W9" t="s">
-        <v>195</v>
-      </c>
       <c r="X9" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="Y9" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Z9" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="AB9" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="AD9" t="s">
-        <v>211</v>
-      </c>
-      <c r="AK9" t="s">
         <v>224</v>
       </c>
-      <c r="AL9" t="s">
-        <v>212</v>
+      <c r="AE9" t="s">
+        <v>227</v>
       </c>
       <c r="AM9" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AN9" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="AO9" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="AP9" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AQ9" t="s">
         <v>224</v>
       </c>
       <c r="AR9" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="AS9" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="AT9" t="s">
-        <v>240</v>
-      </c>
-      <c r="BU9" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>256</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>243</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>243</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ9" t="s">
         <v>224</v>
       </c>
-      <c r="BV9" t="s">
+      <c r="BA9" t="s">
         <v>224</v>
       </c>
+      <c r="BB9" t="s">
+        <v>222</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>260</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>246</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>243</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>262</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>263</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>224</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>260</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>222</v>
+      </c>
       <c r="BW9" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="BX9" t="s">
-        <v>211</v>
+        <v>263</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>243</v>
       </c>
       <c r="BZ9" t="s">
-        <v>210</v>
+        <v>265</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>268</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>272</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>275</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>276</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>222</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>222</v>
       </c>
       <c r="CI9" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="CJ9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="CK9" t="s">
         <v>224</v>
       </c>
       <c r="CL9" t="s">
-        <v>211</v>
+        <v>260</v>
       </c>
       <c r="CM9" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="CN9" t="s">
-        <v>211</v>
+        <v>243</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>243</v>
       </c>
       <c r="CP9" t="s">
-        <v>210</v>
+        <v>243</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>243</v>
       </c>
       <c r="CR9" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="CS9" t="s">
-        <v>211</v>
-      </c>
-      <c r="CT9" t="s">
-        <v>224</v>
+        <v>263</v>
+      </c>
+      <c r="CT9" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="CU9" t="s">
-        <v>245</v>
-      </c>
-      <c r="CV9" t="s">
-        <v>247</v>
+        <v>281</v>
+      </c>
+      <c r="CV9">
+        <v>23</v>
       </c>
       <c r="CW9" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="CX9" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="CY9" t="s">
-        <v>251</v>
-      </c>
-      <c r="CZ9" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="DA9" t="s">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="DB9" t="s">
-        <v>210</v>
+        <v>287</v>
       </c>
       <c r="DC9" t="s">
-        <v>210</v>
+        <v>294</v>
       </c>
       <c r="DD9" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="DE9" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="DF9" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="DG9" t="s">
-        <v>224</v>
+        <v>298</v>
       </c>
       <c r="DH9" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="DI9" t="s">
-        <v>224</v>
-      </c>
-      <c r="DJ9" t="s">
-        <v>224</v>
+        <v>281</v>
+      </c>
+      <c r="DJ9">
+        <v>23</v>
       </c>
       <c r="DK9" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="DL9" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="DM9" t="s">
-        <v>224</v>
-      </c>
-      <c r="DN9" t="s">
-        <v>211</v>
-      </c>
-      <c r="DO9" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="DP9" t="s">
-        <v>257</v>
-      </c>
-      <c r="DQ9">
-        <v>25</v>
+        <v>243</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>182</v>
+      </c>
+      <c r="DQ9" t="s">
+        <v>287</v>
       </c>
       <c r="DR9" t="s">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="DS9" t="s">
+        <v>236</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>297</v>
+      </c>
+      <c r="EU9" t="s">
+        <v>239</v>
+      </c>
+      <c r="EV9" t="s">
+        <v>256</v>
+      </c>
+      <c r="EW9" t="s">
+        <v>298</v>
+      </c>
+      <c r="EY9" t="s">
+        <v>300</v>
+      </c>
+      <c r="EZ9" t="s">
+        <v>301</v>
+      </c>
+      <c r="FA9" t="s">
+        <v>239</v>
+      </c>
+      <c r="FB9" t="s">
+        <v>256</v>
+      </c>
+      <c r="FC9" t="s">
+        <v>298</v>
+      </c>
+      <c r="FE9" t="s">
+        <v>302</v>
+      </c>
+      <c r="FF9" t="s">
+        <v>303</v>
+      </c>
+      <c r="FG9" t="s">
+        <v>304</v>
+      </c>
+      <c r="FH9" t="s">
+        <v>206</v>
+      </c>
+      <c r="FI9" t="s">
+        <v>206</v>
+      </c>
+      <c r="FJ9" t="s">
+        <v>305</v>
+      </c>
+      <c r="FK9" t="s">
         <v>260</v>
       </c>
-      <c r="DT9" t="s">
-        <v>224</v>
-      </c>
-      <c r="DV9" t="s">
-        <v>174</v>
-      </c>
-      <c r="DW9" t="s">
-        <v>263</v>
-      </c>
-      <c r="DX9" t="s">
-        <v>269</v>
-      </c>
-      <c r="DY9" t="s">
-        <v>220</v>
-      </c>
-      <c r="DZ9" t="s">
-        <v>272</v>
-      </c>
-      <c r="EA9" t="s">
-        <v>273</v>
-      </c>
-      <c r="EB9" t="s">
-        <v>274</v>
-      </c>
-      <c r="EC9" t="s">
-        <v>224</v>
-      </c>
-      <c r="ED9" t="s">
-        <v>257</v>
-      </c>
-      <c r="EE9">
-        <v>25</v>
-      </c>
-      <c r="EF9" t="s">
-        <v>259</v>
-      </c>
-      <c r="EG9" t="s">
-        <v>260</v>
-      </c>
-      <c r="EH9" t="s">
-        <v>224</v>
-      </c>
-      <c r="EJ9" t="s">
-        <v>174</v>
-      </c>
-      <c r="EL9" t="s">
-        <v>263</v>
-      </c>
-      <c r="EM9" t="s">
-        <v>269</v>
-      </c>
-      <c r="EN9" t="s">
-        <v>220</v>
-      </c>
-      <c r="EO9" t="s">
-        <v>272</v>
-      </c>
-      <c r="EP9" t="s">
-        <v>273</v>
-      </c>
-      <c r="EQ9" t="s">
-        <v>237</v>
-      </c>
-      <c r="ER9" t="s">
-        <v>274</v>
-      </c>
-      <c r="ET9" t="s">
-        <v>275</v>
-      </c>
-      <c r="EU9" t="s">
-        <v>277</v>
+      <c r="FL9" t="s">
+        <v>306</v>
+      </c>
+      <c r="FM9" t="s">
+        <v>307</v>
+      </c>
+      <c r="FN9" t="s">
+        <v>308</v>
+      </c>
+      <c r="FO9" t="s">
+        <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:166">
+    <row r="10" spans="1:171">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H10" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="I10" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -4184,210 +4295,297 @@
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="O10" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="P10" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q10" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="R10" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="S10" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="T10" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="U10">
-        <v>2264</v>
+        <v>4599</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="W10" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="X10" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="Y10" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Z10" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>209</v>
+        <v>221</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>206</v>
       </c>
       <c r="AQ10" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>225</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>259</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ10" t="s">
         <v>224</v>
       </c>
-      <c r="AR10" t="s">
-        <v>231</v>
-      </c>
-      <c r="AS10" t="s">
+      <c r="BB10" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>243</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>243</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>224</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>224</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>224</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>222</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>243</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>224</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>243</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>265</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>268</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>272</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>275</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>276</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>222</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>222</v>
+      </c>
+      <c r="CI10" t="s">
+        <v>222</v>
+      </c>
+      <c r="CJ10" t="s">
+        <v>222</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>224</v>
+      </c>
+      <c r="CL10" t="s">
+        <v>243</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>243</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>243</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>243</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>243</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>243</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>243</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>224</v>
+      </c>
+      <c r="CT10" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>280</v>
+      </c>
+      <c r="CV10">
+        <v>25</v>
+      </c>
+      <c r="CW10" t="s">
+        <v>282</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>283</v>
+      </c>
+      <c r="CY10" t="s">
+        <v>243</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>181</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>286</v>
+      </c>
+      <c r="DC10" t="s">
+        <v>293</v>
+      </c>
+      <c r="DD10" t="s">
         <v>236</v>
       </c>
-      <c r="AT10" t="s">
+      <c r="DE10" t="s">
+        <v>297</v>
+      </c>
+      <c r="DF10" t="s">
         <v>239</v>
       </c>
-      <c r="CU10" t="s">
-        <v>245</v>
-      </c>
-      <c r="CV10" t="s">
-        <v>247</v>
-      </c>
-      <c r="CW10" t="s">
-        <v>248</v>
-      </c>
-      <c r="CX10" t="s">
-        <v>249</v>
-      </c>
-      <c r="CY10" t="s">
-        <v>251</v>
-      </c>
-      <c r="CZ10" t="s">
-        <v>253</v>
-      </c>
-      <c r="DA10" t="s">
-        <v>254</v>
-      </c>
-      <c r="DB10" t="s">
-        <v>210</v>
-      </c>
-      <c r="DC10" t="s">
-        <v>210</v>
-      </c>
-      <c r="DD10" t="s">
-        <v>210</v>
-      </c>
-      <c r="DE10" t="s">
-        <v>210</v>
-      </c>
-      <c r="DF10" t="s">
-        <v>224</v>
-      </c>
       <c r="DG10" t="s">
-        <v>224</v>
+        <v>298</v>
       </c>
       <c r="DH10" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="DI10" t="s">
-        <v>224</v>
-      </c>
-      <c r="DJ10" t="s">
-        <v>224</v>
+        <v>280</v>
+      </c>
+      <c r="DJ10">
+        <v>25</v>
       </c>
       <c r="DK10" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="DL10" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="DM10" t="s">
-        <v>224</v>
-      </c>
-      <c r="DN10" t="s">
-        <v>224</v>
-      </c>
-      <c r="DO10" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="DP10" t="s">
-        <v>257</v>
-      </c>
-      <c r="DQ10">
-        <v>25</v>
+        <v>243</v>
+      </c>
+      <c r="DO10" t="s">
+        <v>181</v>
+      </c>
+      <c r="DQ10" t="s">
+        <v>286</v>
       </c>
       <c r="DR10" t="s">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="DS10" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="DT10" t="s">
-        <v>224</v>
-      </c>
-      <c r="DV10" t="s">
-        <v>173</v>
-      </c>
-      <c r="DW10" t="s">
-        <v>262</v>
-      </c>
-      <c r="DX10" t="s">
-        <v>268</v>
-      </c>
-      <c r="DY10" t="s">
-        <v>220</v>
-      </c>
-      <c r="DZ10" t="s">
-        <v>272</v>
-      </c>
-      <c r="EA10" t="s">
-        <v>273</v>
-      </c>
-      <c r="EB10" t="s">
-        <v>274</v>
-      </c>
-      <c r="ED10" t="s">
-        <v>257</v>
-      </c>
-      <c r="EE10">
-        <v>25</v>
-      </c>
-      <c r="EF10" t="s">
-        <v>259</v>
-      </c>
-      <c r="EG10" t="s">
-        <v>260</v>
-      </c>
-      <c r="EH10" t="s">
-        <v>224</v>
-      </c>
-      <c r="EJ10" t="s">
-        <v>173</v>
-      </c>
-      <c r="EL10" t="s">
-        <v>262</v>
-      </c>
-      <c r="EM10" t="s">
-        <v>268</v>
-      </c>
-      <c r="EN10" t="s">
-        <v>220</v>
-      </c>
-      <c r="EO10" t="s">
-        <v>272</v>
+        <v>297</v>
+      </c>
+      <c r="EU10" t="s">
+        <v>239</v>
+      </c>
+      <c r="EV10" t="s">
+        <v>256</v>
+      </c>
+      <c r="EW10" t="s">
+        <v>298</v>
+      </c>
+      <c r="EY10" t="s">
+        <v>299</v>
+      </c>
+      <c r="EZ10" t="s">
+        <v>301</v>
       </c>
     </row>
-    <row r="11" spans="1:166">
+    <row r="11" spans="1:171">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C11" t="b">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H11" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="I11" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -4396,282 +4594,210 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="O11" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="P11" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q11" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="R11" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="S11" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="T11" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="U11">
-        <v>4206</v>
+        <v>2264</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="W11" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="X11" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="Y11" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Z11" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>212</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>224</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>224</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>224</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>224</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>224</v>
-      </c>
-      <c r="AP11" t="s">
-        <v>224</v>
-      </c>
-      <c r="AQ11" t="s">
-        <v>224</v>
-      </c>
-      <c r="AR11" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="AS11" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="AT11" t="s">
-        <v>238</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>224</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>224</v>
-      </c>
-      <c r="BW11" t="s">
-        <v>224</v>
-      </c>
-      <c r="BX11" t="s">
-        <v>212</v>
+        <v>250</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>258</v>
       </c>
       <c r="BZ11" t="s">
-        <v>210</v>
+        <v>265</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>268</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>272</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>275</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>276</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>222</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>222</v>
       </c>
       <c r="CI11" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="CJ11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="CK11" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="CL11" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="CM11" t="s">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c r="CN11" t="s">
-        <v>212</v>
+        <v>243</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>243</v>
       </c>
       <c r="CP11" t="s">
-        <v>210</v>
+        <v>243</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>243</v>
       </c>
       <c r="CR11" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="CS11" t="s">
-        <v>212</v>
-      </c>
-      <c r="CT11" t="s">
-        <v>224</v>
+        <v>243</v>
+      </c>
+      <c r="CT11" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="CU11" t="s">
-        <v>245</v>
-      </c>
-      <c r="CV11" t="s">
-        <v>247</v>
+        <v>280</v>
+      </c>
+      <c r="CV11">
+        <v>25</v>
       </c>
       <c r="CW11" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="CX11" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="CY11" t="s">
-        <v>251</v>
-      </c>
-      <c r="CZ11" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="DA11" t="s">
-        <v>254</v>
+        <v>180</v>
       </c>
       <c r="DB11" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="DC11" t="s">
-        <v>210</v>
+        <v>292</v>
       </c>
       <c r="DD11" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="DE11" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="DF11" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="DG11" t="s">
-        <v>224</v>
-      </c>
-      <c r="DH11" t="s">
-        <v>224</v>
+        <v>298</v>
       </c>
       <c r="DI11" t="s">
-        <v>224</v>
-      </c>
-      <c r="DJ11" t="s">
-        <v>224</v>
+        <v>280</v>
+      </c>
+      <c r="DJ11">
+        <v>25</v>
       </c>
       <c r="DK11" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="DL11" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="DM11" t="s">
-        <v>224</v>
-      </c>
-      <c r="DN11" t="s">
-        <v>212</v>
-      </c>
-      <c r="DO11" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="DP11" t="s">
-        <v>257</v>
-      </c>
-      <c r="DQ11">
-        <v>25</v>
+        <v>243</v>
+      </c>
+      <c r="DO11" t="s">
+        <v>180</v>
+      </c>
+      <c r="DQ11" t="s">
+        <v>285</v>
       </c>
       <c r="DR11" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="DS11" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="DT11" t="s">
-        <v>224</v>
-      </c>
-      <c r="DV11" t="s">
-        <v>172</v>
-      </c>
-      <c r="DW11" t="s">
-        <v>261</v>
-      </c>
-      <c r="DX11" t="s">
-        <v>267</v>
-      </c>
-      <c r="DY11" t="s">
-        <v>220</v>
-      </c>
-      <c r="DZ11" t="s">
-        <v>272</v>
-      </c>
-      <c r="EA11" t="s">
-        <v>273</v>
-      </c>
-      <c r="EB11" t="s">
-        <v>274</v>
-      </c>
-      <c r="EC11" t="s">
-        <v>224</v>
-      </c>
-      <c r="ED11" t="s">
-        <v>257</v>
-      </c>
-      <c r="EE11">
-        <v>25</v>
-      </c>
-      <c r="EF11" t="s">
-        <v>259</v>
-      </c>
-      <c r="EG11" t="s">
-        <v>260</v>
-      </c>
-      <c r="EH11" t="s">
-        <v>224</v>
-      </c>
-      <c r="EJ11" t="s">
-        <v>172</v>
-      </c>
-      <c r="EL11" t="s">
-        <v>261</v>
-      </c>
-      <c r="EM11" t="s">
-        <v>267</v>
-      </c>
-      <c r="EN11" t="s">
-        <v>220</v>
-      </c>
-      <c r="EO11" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="12" spans="1:166">
+    <row r="12" spans="1:171">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C12" t="b">
         <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H12" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="I12" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -4680,225 +4806,282 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="O12" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q12" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="R12" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="S12" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="T12" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="U12">
-        <v>2859</v>
+        <v>4206</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="W12" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="X12" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="Y12" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Z12" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>216</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>220</v>
-      </c>
-      <c r="AI12" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>223</v>
+      <c r="AB12" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>225</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>243</v>
       </c>
       <c r="AQ12" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="AR12" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="AS12" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="AT12" t="s">
-        <v>223</v>
+        <v>249</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>254</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>257</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>225</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>243</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>243</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>225</v>
+      </c>
+      <c r="BO12" t="s">
+        <v>225</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>225</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>222</v>
+      </c>
+      <c r="BW12" t="s">
+        <v>243</v>
+      </c>
+      <c r="BX12" t="s">
+        <v>225</v>
+      </c>
+      <c r="BY12" t="s">
+        <v>243</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>265</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>268</v>
+      </c>
+      <c r="CC12" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>272</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>275</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>276</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>222</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>222</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>222</v>
+      </c>
+      <c r="CJ12" t="s">
+        <v>222</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>225</v>
+      </c>
+      <c r="CL12" t="s">
+        <v>243</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>243</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>243</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>243</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>243</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>243</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>243</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>225</v>
+      </c>
+      <c r="CT12" s="2" t="s">
+        <v>277</v>
       </c>
       <c r="CU12" t="s">
-        <v>245</v>
-      </c>
-      <c r="CV12" t="s">
-        <v>247</v>
+        <v>280</v>
+      </c>
+      <c r="CV12">
+        <v>25</v>
       </c>
       <c r="CW12" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="CX12" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="CY12" t="s">
-        <v>251</v>
-      </c>
-      <c r="CZ12" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="DA12" t="s">
-        <v>254</v>
+        <v>179</v>
       </c>
       <c r="DB12" t="s">
-        <v>210</v>
+        <v>284</v>
       </c>
       <c r="DC12" t="s">
-        <v>210</v>
+        <v>291</v>
       </c>
       <c r="DD12" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="DE12" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="DF12" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="DG12" t="s">
-        <v>224</v>
+        <v>298</v>
       </c>
       <c r="DH12" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="DI12" t="s">
-        <v>224</v>
-      </c>
-      <c r="DJ12" t="s">
-        <v>224</v>
+        <v>280</v>
+      </c>
+      <c r="DJ12">
+        <v>25</v>
       </c>
       <c r="DK12" t="s">
-        <v>224</v>
+        <v>282</v>
       </c>
       <c r="DL12" t="s">
-        <v>224</v>
+        <v>283</v>
       </c>
       <c r="DM12" t="s">
-        <v>224</v>
-      </c>
-      <c r="DN12" t="s">
-        <v>224</v>
-      </c>
-      <c r="DO12" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="DP12" t="s">
-        <v>256</v>
-      </c>
-      <c r="DQ12">
-        <v>26</v>
+        <v>243</v>
+      </c>
+      <c r="DO12" t="s">
+        <v>179</v>
+      </c>
+      <c r="DQ12" t="s">
+        <v>284</v>
       </c>
       <c r="DR12" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="DS12" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="DT12" t="s">
-        <v>224</v>
-      </c>
-      <c r="DV12" t="s">
-        <v>171</v>
-      </c>
-      <c r="DW12" t="s">
-        <v>218</v>
-      </c>
-      <c r="DX12" t="s">
-        <v>266</v>
-      </c>
-      <c r="DY12" t="s">
-        <v>220</v>
-      </c>
-      <c r="DZ12" t="s">
-        <v>272</v>
-      </c>
-      <c r="EA12" t="s">
-        <v>273</v>
-      </c>
-      <c r="EB12" t="s">
-        <v>274</v>
-      </c>
-      <c r="ED12" t="s">
-        <v>256</v>
-      </c>
-      <c r="EE12">
-        <v>26</v>
-      </c>
-      <c r="EF12" t="s">
-        <v>259</v>
-      </c>
-      <c r="EG12" t="s">
-        <v>260</v>
-      </c>
-      <c r="EH12" t="s">
-        <v>224</v>
-      </c>
-      <c r="EJ12" t="s">
-        <v>171</v>
-      </c>
-      <c r="EL12" t="s">
-        <v>218</v>
-      </c>
-      <c r="EM12" t="s">
-        <v>266</v>
-      </c>
-      <c r="EN12" t="s">
-        <v>220</v>
-      </c>
-      <c r="EO12" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
     </row>
-    <row r="13" spans="1:166">
+    <row r="13" spans="1:171">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C13" t="b">
         <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H13" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="I13" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -4907,361 +5090,911 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="O13" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q13" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="R13" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="S13" t="s">
+        <v>208</v>
+      </c>
+      <c r="T13" t="s">
+        <v>211</v>
+      </c>
+      <c r="U13">
+        <v>2859</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="W13" t="s">
+        <v>205</v>
+      </c>
+      <c r="X13" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>242</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>248</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>253</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>242</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>265</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>267</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>268</v>
+      </c>
+      <c r="CC13" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>272</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>275</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>276</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>222</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>222</v>
+      </c>
+      <c r="CI13" t="s">
+        <v>222</v>
+      </c>
+      <c r="CJ13" t="s">
+        <v>222</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>243</v>
+      </c>
+      <c r="CL13" t="s">
+        <v>243</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>243</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>243</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>243</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>243</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>243</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>243</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>243</v>
+      </c>
+      <c r="CT13" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>279</v>
+      </c>
+      <c r="CV13">
+        <v>26</v>
+      </c>
+      <c r="CW13" t="s">
+        <v>282</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>283</v>
+      </c>
+      <c r="CY13" t="s">
+        <v>243</v>
+      </c>
+      <c r="DA13" t="s">
+        <v>178</v>
+      </c>
+      <c r="DB13" t="s">
+        <v>233</v>
+      </c>
+      <c r="DC13" t="s">
+        <v>290</v>
+      </c>
+      <c r="DD13" t="s">
+        <v>236</v>
+      </c>
+      <c r="DE13" t="s">
+        <v>297</v>
+      </c>
+      <c r="DF13" t="s">
+        <v>239</v>
+      </c>
+      <c r="DG13" t="s">
+        <v>298</v>
+      </c>
+      <c r="DI13" t="s">
+        <v>279</v>
+      </c>
+      <c r="DJ13">
+        <v>26</v>
+      </c>
+      <c r="DK13" t="s">
+        <v>282</v>
+      </c>
+      <c r="DL13" t="s">
+        <v>283</v>
+      </c>
+      <c r="DM13" t="s">
+        <v>243</v>
+      </c>
+      <c r="DO13" t="s">
+        <v>178</v>
+      </c>
+      <c r="DQ13" t="s">
+        <v>233</v>
+      </c>
+      <c r="DR13" t="s">
+        <v>290</v>
+      </c>
+      <c r="DS13" t="s">
+        <v>236</v>
+      </c>
+      <c r="DT13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:171">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" t="s">
+        <v>177</v>
+      </c>
+      <c r="I14" t="s">
+        <v>184</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="s">
+        <v>191</v>
+      </c>
+      <c r="O14" t="s">
+        <v>198</v>
+      </c>
+      <c r="P14" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>205</v>
+      </c>
+      <c r="R14" t="s">
+        <v>206</v>
+      </c>
+      <c r="S14" t="s">
+        <v>208</v>
+      </c>
+      <c r="T14" t="s">
+        <v>211</v>
+      </c>
+      <c r="U14">
+        <v>6529</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="W14" t="s">
+        <v>205</v>
+      </c>
+      <c r="X14" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>229</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>232</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>235</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>241</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>244</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>243</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>247</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>252</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>241</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>225</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>243</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>206</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>224</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>226</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL14" t="s">
+        <v>243</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>243</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>245</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>245</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>224</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>226</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>222</v>
+      </c>
+      <c r="BW14" t="s">
+        <v>243</v>
+      </c>
+      <c r="BX14" t="s">
+        <v>245</v>
+      </c>
+      <c r="BY14" t="s">
+        <v>243</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>266</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>268</v>
+      </c>
+      <c r="CC14" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>271</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>274</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>276</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>222</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>222</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>222</v>
+      </c>
+      <c r="CJ14" t="s">
+        <v>222</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>224</v>
+      </c>
+      <c r="CL14" t="s">
+        <v>226</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>243</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>243</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>243</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>243</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>243</v>
+      </c>
+      <c r="CR14" t="s">
+        <v>243</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>245</v>
+      </c>
+      <c r="CT14" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="CU14" t="s">
+        <v>279</v>
+      </c>
+      <c r="CV14">
+        <v>26</v>
+      </c>
+      <c r="CW14" t="s">
+        <v>282</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>283</v>
+      </c>
+      <c r="CY14" t="s">
+        <v>243</v>
+      </c>
+      <c r="DA14" t="s">
+        <v>177</v>
+      </c>
+      <c r="DB14" t="s">
+        <v>232</v>
+      </c>
+      <c r="DC14" t="s">
+        <v>289</v>
+      </c>
+      <c r="DD14" t="s">
+        <v>235</v>
+      </c>
+      <c r="DE14" t="s">
+        <v>296</v>
+      </c>
+      <c r="DF14" t="s">
+        <v>239</v>
+      </c>
+      <c r="DG14" t="s">
+        <v>298</v>
+      </c>
+      <c r="DH14" t="s">
+        <v>243</v>
+      </c>
+      <c r="DI14" t="s">
+        <v>279</v>
+      </c>
+      <c r="DJ14">
+        <v>26</v>
+      </c>
+      <c r="DK14" t="s">
+        <v>282</v>
+      </c>
+      <c r="DL14" t="s">
+        <v>283</v>
+      </c>
+      <c r="DM14" t="s">
+        <v>243</v>
+      </c>
+      <c r="DO14" t="s">
+        <v>177</v>
+      </c>
+      <c r="DQ14" t="s">
+        <v>232</v>
+      </c>
+      <c r="DR14" t="s">
+        <v>289</v>
+      </c>
+      <c r="DS14" t="s">
+        <v>235</v>
+      </c>
+      <c r="DT14" t="s">
+        <v>296</v>
+      </c>
+      <c r="DU14" t="s">
+        <v>243</v>
+      </c>
+      <c r="DV14" t="s">
+        <v>243</v>
+      </c>
+      <c r="DW14" t="s">
+        <v>243</v>
+      </c>
+      <c r="DX14" t="s">
+        <v>243</v>
+      </c>
+      <c r="DY14" t="s">
+        <v>243</v>
+      </c>
+      <c r="DZ14" t="s">
+        <v>243</v>
+      </c>
+      <c r="EA14" t="s">
+        <v>243</v>
+      </c>
+      <c r="EB14" t="s">
+        <v>243</v>
+      </c>
+      <c r="EC14" t="s">
+        <v>222</v>
+      </c>
+      <c r="ED14" t="s">
+        <v>243</v>
+      </c>
+      <c r="EE14" t="s">
+        <v>243</v>
+      </c>
+      <c r="EF14" t="s">
+        <v>225</v>
+      </c>
+      <c r="EG14" t="s">
+        <v>243</v>
+      </c>
+      <c r="EH14" t="s">
+        <v>243</v>
+      </c>
+      <c r="EI14" t="s">
+        <v>243</v>
+      </c>
+      <c r="EJ14" t="s">
+        <v>243</v>
+      </c>
+      <c r="EK14" t="s">
+        <v>243</v>
+      </c>
+      <c r="EL14" t="s">
+        <v>243</v>
+      </c>
+      <c r="EM14" t="s">
+        <v>225</v>
+      </c>
+      <c r="EN14" t="s">
+        <v>243</v>
+      </c>
+      <c r="EO14" t="s">
+        <v>243</v>
+      </c>
+      <c r="EP14" t="s">
+        <v>243</v>
+      </c>
+      <c r="EQ14" t="s">
+        <v>243</v>
+      </c>
+      <c r="ER14" t="s">
+        <v>243</v>
+      </c>
+      <c r="ES14" t="s">
+        <v>243</v>
+      </c>
+      <c r="ET14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:171">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15" t="s">
+        <v>183</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>190</v>
+      </c>
+      <c r="O15" t="s">
         <v>197</v>
       </c>
-      <c r="T13" t="s">
-        <v>200</v>
-      </c>
-      <c r="U13">
-        <v>6529</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="W13" t="s">
-        <v>195</v>
-      </c>
-      <c r="X13" t="s">
+      <c r="P15" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>205</v>
+      </c>
+      <c r="R15" t="s">
+        <v>206</v>
+      </c>
+      <c r="S15" t="s">
         <v>207</v>
       </c>
-      <c r="Y13" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA13" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD13" t="s">
+      <c r="T15" t="s">
         <v>211</v>
       </c>
-      <c r="AE13" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>215</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>217</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="U15">
+        <v>4649</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="W15" t="s">
+        <v>205</v>
+      </c>
+      <c r="X15" t="s">
         <v>219</v>
       </c>
-      <c r="AI13" s="2" t="s">
+      <c r="Y15" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA15" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>222</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>224</v>
-      </c>
-      <c r="AL13" t="s">
+      <c r="AB15" t="s">
+        <v>222</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE15" t="s">
         <v>225</v>
       </c>
-      <c r="AM13" t="s">
-        <v>212</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>224</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP13" t="s">
-        <v>196</v>
-      </c>
-      <c r="AQ13" t="s">
-        <v>224</v>
-      </c>
-      <c r="AR13" t="s">
+      <c r="AF15" t="s">
         <v>228</v>
       </c>
-      <c r="AS13" t="s">
-        <v>233</v>
-      </c>
-      <c r="AT13" t="s">
-        <v>222</v>
-      </c>
-      <c r="AU13" t="s">
-        <v>224</v>
-      </c>
-      <c r="AV13" t="s">
-        <v>224</v>
-      </c>
-      <c r="AW13" t="s">
-        <v>224</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>224</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>224</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>224</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>224</v>
-      </c>
-      <c r="BB13" t="s">
-        <v>224</v>
-      </c>
-      <c r="BC13" t="s">
-        <v>210</v>
-      </c>
-      <c r="BD13" t="s">
-        <v>224</v>
-      </c>
-      <c r="BE13" t="s">
-        <v>224</v>
-      </c>
-      <c r="BF13" t="s">
-        <v>212</v>
-      </c>
-      <c r="BG13" t="s">
-        <v>224</v>
-      </c>
-      <c r="BH13" t="s">
-        <v>224</v>
-      </c>
-      <c r="BI13" t="s">
-        <v>224</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>224</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>224</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>224</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>212</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>224</v>
-      </c>
-      <c r="BO13" t="s">
-        <v>224</v>
-      </c>
-      <c r="BP13" t="s">
-        <v>224</v>
-      </c>
-      <c r="BQ13" t="s">
-        <v>224</v>
-      </c>
-      <c r="BR13" t="s">
-        <v>224</v>
-      </c>
-      <c r="BS13" t="s">
-        <v>224</v>
-      </c>
-      <c r="BT13" t="s">
-        <v>210</v>
-      </c>
-      <c r="BU13" t="s">
-        <v>212</v>
-      </c>
-      <c r="BV13" t="s">
-        <v>224</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>196</v>
-      </c>
-      <c r="BX13" t="s">
-        <v>211</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>213</v>
-      </c>
-      <c r="BZ13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CI13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CJ13" t="s">
-        <v>224</v>
-      </c>
-      <c r="CK13" t="s">
-        <v>224</v>
-      </c>
-      <c r="CL13" t="s">
-        <v>226</v>
-      </c>
-      <c r="CM13" t="s">
-        <v>226</v>
-      </c>
-      <c r="CN13" t="s">
-        <v>211</v>
-      </c>
-      <c r="CO13" t="s">
-        <v>213</v>
-      </c>
-      <c r="CP13" t="s">
-        <v>210</v>
-      </c>
-      <c r="CR13" t="s">
-        <v>224</v>
-      </c>
-      <c r="CS13" t="s">
-        <v>226</v>
-      </c>
-      <c r="CT13" t="s">
-        <v>224</v>
-      </c>
-      <c r="CU13" t="s">
-        <v>244</v>
-      </c>
-      <c r="CV13" t="s">
-        <v>246</v>
-      </c>
-      <c r="CW13" t="s">
-        <v>248</v>
-      </c>
-      <c r="CX13" t="s">
-        <v>249</v>
-      </c>
-      <c r="CY13" t="s">
-        <v>250</v>
-      </c>
-      <c r="CZ13" t="s">
-        <v>252</v>
-      </c>
-      <c r="DA13" t="s">
-        <v>254</v>
-      </c>
-      <c r="DB13" t="s">
-        <v>210</v>
-      </c>
-      <c r="DC13" t="s">
-        <v>210</v>
-      </c>
-      <c r="DD13" t="s">
-        <v>210</v>
-      </c>
-      <c r="DE13" t="s">
-        <v>210</v>
-      </c>
-      <c r="DF13" t="s">
-        <v>211</v>
-      </c>
-      <c r="DG13" t="s">
-        <v>213</v>
-      </c>
-      <c r="DH13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DI13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DJ13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DK13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DL13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DM13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DN13" t="s">
-        <v>226</v>
-      </c>
-      <c r="DO13" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="DP13" t="s">
-        <v>256</v>
-      </c>
-      <c r="DQ13">
-        <v>26</v>
-      </c>
-      <c r="DR13" t="s">
-        <v>259</v>
-      </c>
-      <c r="DS13" t="s">
-        <v>260</v>
-      </c>
-      <c r="DT13" t="s">
-        <v>224</v>
-      </c>
-      <c r="DV13" t="s">
-        <v>170</v>
-      </c>
-      <c r="DW13" t="s">
-        <v>217</v>
-      </c>
-      <c r="DX13" t="s">
-        <v>265</v>
-      </c>
-      <c r="DY13" t="s">
-        <v>219</v>
-      </c>
-      <c r="DZ13" t="s">
-        <v>271</v>
-      </c>
-      <c r="EA13" t="s">
+      <c r="AG15" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>234</v>
+      </c>
+      <c r="AI15" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>240</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>243</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>243</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>243</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>243</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>225</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>243</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>240</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>238</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>240</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>243</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>243</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>243</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>223</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>225</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>222</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>222</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>243</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>243</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>261</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>261</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>243</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>243</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>222</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>223</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>225</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>222</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>243</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>243</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>261</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>264</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>266</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>268</v>
+      </c>
+      <c r="CC15" t="s">
+        <v>269</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>270</v>
+      </c>
+      <c r="CE15" t="s">
         <v>273</v>
       </c>
-      <c r="EB13" t="s">
-        <v>274</v>
-      </c>
-      <c r="EC13" t="s">
-        <v>224</v>
-      </c>
-      <c r="ED13" t="s">
-        <v>256</v>
-      </c>
-      <c r="EE13">
-        <v>26</v>
-      </c>
-      <c r="EF13" t="s">
-        <v>259</v>
-      </c>
-      <c r="EG13" t="s">
-        <v>260</v>
-      </c>
-      <c r="EH13" t="s">
-        <v>224</v>
-      </c>
-      <c r="EJ13" t="s">
-        <v>170</v>
-      </c>
-      <c r="EL13" t="s">
-        <v>217</v>
-      </c>
-      <c r="EM13" t="s">
-        <v>265</v>
-      </c>
-      <c r="EN13" t="s">
-        <v>219</v>
-      </c>
-      <c r="EO13" t="s">
-        <v>271</v>
+      <c r="CF15" t="s">
+        <v>276</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>222</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>222</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>222</v>
+      </c>
+      <c r="CJ15" t="s">
+        <v>222</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>223</v>
+      </c>
+      <c r="CL15" t="s">
+        <v>225</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>243</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>243</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>243</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>243</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>243</v>
+      </c>
+      <c r="CR15" t="s">
+        <v>243</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>261</v>
+      </c>
+      <c r="CT15" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>278</v>
+      </c>
+      <c r="CV15">
+        <v>28</v>
+      </c>
+      <c r="CW15" t="s">
+        <v>282</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>283</v>
+      </c>
+      <c r="CY15" t="s">
+        <v>243</v>
+      </c>
+      <c r="DA15" t="s">
+        <v>176</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>231</v>
+      </c>
+      <c r="DC15" t="s">
+        <v>288</v>
+      </c>
+      <c r="DD15" t="s">
+        <v>234</v>
+      </c>
+      <c r="DE15" t="s">
+        <v>295</v>
+      </c>
+      <c r="DF15" t="s">
+        <v>239</v>
+      </c>
+      <c r="DG15" t="s">
+        <v>298</v>
+      </c>
+      <c r="DH15" t="s">
+        <v>243</v>
+      </c>
+      <c r="DI15" t="s">
+        <v>278</v>
+      </c>
+      <c r="DJ15">
+        <v>28</v>
+      </c>
+      <c r="DK15" t="s">
+        <v>282</v>
+      </c>
+      <c r="DL15" t="s">
+        <v>283</v>
+      </c>
+      <c r="DM15" t="s">
+        <v>243</v>
+      </c>
+      <c r="DO15" t="s">
+        <v>176</v>
+      </c>
+      <c r="DQ15" t="s">
+        <v>231</v>
+      </c>
+      <c r="DR15" t="s">
+        <v>288</v>
+      </c>
+      <c r="DS15" t="s">
+        <v>234</v>
+      </c>
+      <c r="DT15" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -5269,43 +6002,51 @@
     <hyperlink ref="V2" r:id="rId1"/>
     <hyperlink ref="AA2" r:id="rId2"/>
     <hyperlink ref="AI2" r:id="rId3"/>
-    <hyperlink ref="DO2" r:id="rId4"/>
+    <hyperlink ref="CT2" r:id="rId4"/>
     <hyperlink ref="V3" r:id="rId5"/>
     <hyperlink ref="AA3" r:id="rId6"/>
     <hyperlink ref="AI3" r:id="rId7"/>
-    <hyperlink ref="DO3" r:id="rId8"/>
+    <hyperlink ref="CT3" r:id="rId8"/>
     <hyperlink ref="V4" r:id="rId9"/>
     <hyperlink ref="AA4" r:id="rId10"/>
-    <hyperlink ref="DO4" r:id="rId11"/>
-    <hyperlink ref="V5" r:id="rId12"/>
-    <hyperlink ref="AA5" r:id="rId13"/>
-    <hyperlink ref="DO5" r:id="rId14"/>
-    <hyperlink ref="V6" r:id="rId15"/>
-    <hyperlink ref="AA6" r:id="rId16"/>
-    <hyperlink ref="DO6" r:id="rId17"/>
-    <hyperlink ref="V7" r:id="rId18"/>
-    <hyperlink ref="AA7" r:id="rId19"/>
-    <hyperlink ref="DO7" r:id="rId20"/>
-    <hyperlink ref="V8" r:id="rId21"/>
-    <hyperlink ref="AA8" r:id="rId22"/>
-    <hyperlink ref="DO8" r:id="rId23"/>
-    <hyperlink ref="V9" r:id="rId24"/>
-    <hyperlink ref="AA9" r:id="rId25"/>
-    <hyperlink ref="DO9" r:id="rId26"/>
-    <hyperlink ref="V10" r:id="rId27"/>
-    <hyperlink ref="AA10" r:id="rId28"/>
-    <hyperlink ref="DO10" r:id="rId29"/>
-    <hyperlink ref="V11" r:id="rId30"/>
-    <hyperlink ref="AA11" r:id="rId31"/>
-    <hyperlink ref="DO11" r:id="rId32"/>
-    <hyperlink ref="V12" r:id="rId33"/>
-    <hyperlink ref="AA12" r:id="rId34"/>
-    <hyperlink ref="AI12" r:id="rId35"/>
-    <hyperlink ref="DO12" r:id="rId36"/>
+    <hyperlink ref="AI4" r:id="rId11"/>
+    <hyperlink ref="CT4" r:id="rId12"/>
+    <hyperlink ref="V5" r:id="rId13"/>
+    <hyperlink ref="AA5" r:id="rId14"/>
+    <hyperlink ref="CT5" r:id="rId15"/>
+    <hyperlink ref="V6" r:id="rId16"/>
+    <hyperlink ref="AA6" r:id="rId17"/>
+    <hyperlink ref="CT6" r:id="rId18"/>
+    <hyperlink ref="V7" r:id="rId19"/>
+    <hyperlink ref="AA7" r:id="rId20"/>
+    <hyperlink ref="CT7" r:id="rId21"/>
+    <hyperlink ref="V8" r:id="rId22"/>
+    <hyperlink ref="AA8" r:id="rId23"/>
+    <hyperlink ref="CT8" r:id="rId24"/>
+    <hyperlink ref="V9" r:id="rId25"/>
+    <hyperlink ref="AA9" r:id="rId26"/>
+    <hyperlink ref="CT9" r:id="rId27"/>
+    <hyperlink ref="V10" r:id="rId28"/>
+    <hyperlink ref="AA10" r:id="rId29"/>
+    <hyperlink ref="CT10" r:id="rId30"/>
+    <hyperlink ref="V11" r:id="rId31"/>
+    <hyperlink ref="AA11" r:id="rId32"/>
+    <hyperlink ref="CT11" r:id="rId33"/>
+    <hyperlink ref="V12" r:id="rId34"/>
+    <hyperlink ref="AA12" r:id="rId35"/>
+    <hyperlink ref="CT12" r:id="rId36"/>
     <hyperlink ref="V13" r:id="rId37"/>
     <hyperlink ref="AA13" r:id="rId38"/>
     <hyperlink ref="AI13" r:id="rId39"/>
-    <hyperlink ref="DO13" r:id="rId40"/>
+    <hyperlink ref="CT13" r:id="rId40"/>
+    <hyperlink ref="V14" r:id="rId41"/>
+    <hyperlink ref="AA14" r:id="rId42"/>
+    <hyperlink ref="AI14" r:id="rId43"/>
+    <hyperlink ref="CT14" r:id="rId44"/>
+    <hyperlink ref="V15" r:id="rId45"/>
+    <hyperlink ref="AA15" r:id="rId46"/>
+    <hyperlink ref="AI15" r:id="rId47"/>
+    <hyperlink ref="CT15" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -529,10 +529,10 @@
     <t>65aa7fbc-d3ab-46b3-9e8e-7472a7211cfe</t>
   </si>
   <si>
-    <t>2025-02-24T13:22:14.138837Z</t>
-  </si>
-  <si>
-    <t>2025-02-24T13:07:01.897454Z</t>
+    <t>2025-02-25T04:52:54.073744Z</t>
+  </si>
+  <si>
+    <t>2025-02-25T04:52:54.072980Z</t>
   </si>
   <si>
     <t>2025-02-24T13:22:13.984798Z</t>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="253">
   <si>
     <t>app_id</t>
   </si>
@@ -157,6 +157,243 @@
     <t>form.copy-1-of-location_details.savedFacilities</t>
   </si>
   <si>
+    <t>form.copy-2-of-grpHTS.totalHIVPositiveNC</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.totalhivNegativeNC</t>
+  </si>
+  <si>
+    <t>form.copy-2-of-grpHTS.uncircumcisedClientsForHTS</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_negativeList.hivNegative15-19</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_negativeList.hivNegative20-24</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_negativeList.total_surgicalDisposable</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive15-19</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive20-24</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total15-19HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total20-24HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total25-29HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total30-34HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total35-39HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total40-44HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total45-49HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total50HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total_surgicalReusable</t>
+  </si>
+  <si>
+    <t>form.grpHTS.totalHIVPositive</t>
+  </si>
+  <si>
+    <t>form.grpHTS.totalHIVUntested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.totalhivNegative</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.TotalMCsBYMethod</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.shangring15-19</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.shangring_by_age.total_shangringMCs</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable15-19</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable20-24</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.total_surgicalDisposable</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.sgReusable15-19</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_reusable.total_surgicalReusable</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.total50ByMethod</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.totalShangringMCs</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.totalSurgicalDisposableMCs</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.totalSurgicalReusableMCs</t>
+  </si>
+  <si>
+    <t>form.location_details.District</t>
+  </si>
+  <si>
+    <t>form.location_details.DistrictLabelDisplay</t>
+  </si>
+  <si>
+    <t>form.location_details.Province</t>
+  </si>
+  <si>
+    <t>form.location_details.ProvinceLabelDisplay</t>
+  </si>
+  <si>
+    <t>form.location_details.SiteLabelDisplay</t>
+  </si>
+  <si>
+    <t>form.location_details.Site_Name</t>
+  </si>
+  <si>
+    <t>form.location_details.countryID</t>
+  </si>
+  <si>
+    <t>form.location_details.districtName</t>
+  </si>
+  <si>
+    <t>form.location_details.provinceName</t>
+  </si>
+  <si>
+    <t>form.location_details.siteName</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.copy-1-of-mcs_by_age_disaggregations</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc15-19</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc20-24</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc25-29</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc30-34</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc35-39</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc40-44</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc45-49</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc50</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.totalMCs</t>
+  </si>
+  <si>
+    <t>form.meta.@xmlns</t>
+  </si>
+  <si>
+    <t>form.meta.appVersion</t>
+  </si>
+  <si>
+    <t>form.meta.app_build_version</t>
+  </si>
+  <si>
+    <t>form.meta.commcare_version</t>
+  </si>
+  <si>
+    <t>form.meta.deviceID</t>
+  </si>
+  <si>
+    <t>form.meta.drift</t>
+  </si>
+  <si>
+    <t>form.meta.geo_point</t>
+  </si>
+  <si>
+    <t>form.meta.instanceID</t>
+  </si>
+  <si>
+    <t>form.meta.timeEnd</t>
+  </si>
+  <si>
+    <t>form.meta.timeStart</t>
+  </si>
+  <si>
+    <t>form.meta.userID</t>
+  </si>
+  <si>
+    <t>form.meta.username</t>
+  </si>
+  <si>
+    <t>form.recordingPeriodList.recordingMonth</t>
+  </si>
+  <si>
+    <t>form.recordingPeriodList.year</t>
+  </si>
+  <si>
+    <t>form.totalAES</t>
+  </si>
+  <si>
+    <t>metadata.appVersion</t>
+  </si>
+  <si>
+    <t>metadata.app_build_version</t>
+  </si>
+  <si>
+    <t>metadata.commcare_version</t>
+  </si>
+  <si>
+    <t>metadata.deviceID</t>
+  </si>
+  <si>
+    <t>metadata.drift</t>
+  </si>
+  <si>
+    <t>metadata.geo_point</t>
+  </si>
+  <si>
+    <t>metadata.instanceID</t>
+  </si>
+  <si>
+    <t>metadata.location</t>
+  </si>
+  <si>
+    <t>metadata.timeEnd</t>
+  </si>
+  <si>
+    <t>metadata.timeStart</t>
+  </si>
+  <si>
+    <t>metadata.userID</t>
+  </si>
+  <si>
+    <t>metadata.username</t>
+  </si>
+  <si>
     <t>form.copy-2-of-grpHTS.hiv_negativeList.hivNegativeNC15-19</t>
   </si>
   <si>
@@ -235,231 +472,9 @@
     <t>form.copy-2-of-grpHTS.hiv_positiveList.total_surgicalReusable</t>
   </si>
   <si>
-    <t>form.copy-2-of-grpHTS.totalHIVPositiveNC</t>
-  </si>
-  <si>
-    <t>form.copy-2-of-grpHTS.totalhivNegativeNC</t>
-  </si>
-  <si>
-    <t>form.copy-2-of-grpHTS.uncircumcisedClientsForHTS</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_negativeList.hivNegative15-19</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_negativeList.hivNegative20-24</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_negativeList.total_surgicalDisposable</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total15-19HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total20-24HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total25-29HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total30-34HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total35-39HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total40-44HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total45-49HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total50HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total_surgicalReusable</t>
-  </si>
-  <si>
-    <t>form.grpHTS.totalHIVPositive</t>
-  </si>
-  <si>
-    <t>form.grpHTS.totalHIVUntested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.totalhivNegative</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.TotalMCsBYMethod</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable15-19</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable20-24</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.surgical_disposable.total_surgicalDisposable</t>
-  </si>
-  <si>
     <t>form.grpMCBYMethod.surgical_reusable.sgReusable20-24</t>
   </si>
   <si>
-    <t>form.grpMCBYMethod.surgical_reusable.total_surgicalReusable</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.total50ByMethod</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.totalShangringMCs</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.totalSurgicalDisposableMCs</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.totalSurgicalReusableMCs</t>
-  </si>
-  <si>
-    <t>form.location_details.District</t>
-  </si>
-  <si>
-    <t>form.location_details.DistrictLabelDisplay</t>
-  </si>
-  <si>
-    <t>form.location_details.Province</t>
-  </si>
-  <si>
-    <t>form.location_details.ProvinceLabelDisplay</t>
-  </si>
-  <si>
-    <t>form.location_details.SiteLabelDisplay</t>
-  </si>
-  <si>
-    <t>form.location_details.Site_Name</t>
-  </si>
-  <si>
-    <t>form.location_details.countryID</t>
-  </si>
-  <si>
-    <t>form.location_details.districtName</t>
-  </si>
-  <si>
-    <t>form.location_details.provinceName</t>
-  </si>
-  <si>
-    <t>form.location_details.siteName</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.copy-1-of-mcs_by_age_disaggregations</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc15-19</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc20-24</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc25-29</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc30-34</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc35-39</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc40-44</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc45-49</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc50</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.totalMCs</t>
-  </si>
-  <si>
-    <t>form.meta.@xmlns</t>
-  </si>
-  <si>
-    <t>form.meta.appVersion</t>
-  </si>
-  <si>
-    <t>form.meta.app_build_version</t>
-  </si>
-  <si>
-    <t>form.meta.commcare_version</t>
-  </si>
-  <si>
-    <t>form.meta.deviceID</t>
-  </si>
-  <si>
-    <t>form.meta.drift</t>
-  </si>
-  <si>
-    <t>form.meta.geo_point</t>
-  </si>
-  <si>
-    <t>form.meta.instanceID</t>
-  </si>
-  <si>
-    <t>form.meta.timeEnd</t>
-  </si>
-  <si>
-    <t>form.meta.timeStart</t>
-  </si>
-  <si>
-    <t>form.meta.userID</t>
-  </si>
-  <si>
-    <t>form.meta.username</t>
-  </si>
-  <si>
-    <t>form.recordingPeriodList.recordingMonth</t>
-  </si>
-  <si>
-    <t>form.recordingPeriodList.year</t>
-  </si>
-  <si>
-    <t>form.totalAES</t>
-  </si>
-  <si>
-    <t>metadata.appVersion</t>
-  </si>
-  <si>
-    <t>metadata.app_build_version</t>
-  </si>
-  <si>
-    <t>metadata.commcare_version</t>
-  </si>
-  <si>
-    <t>metadata.deviceID</t>
-  </si>
-  <si>
-    <t>metadata.drift</t>
-  </si>
-  <si>
-    <t>metadata.geo_point</t>
-  </si>
-  <si>
-    <t>metadata.instanceID</t>
-  </si>
-  <si>
-    <t>metadata.location</t>
-  </si>
-  <si>
-    <t>metadata.timeEnd</t>
-  </si>
-  <si>
-    <t>metadata.timeStart</t>
-  </si>
-  <si>
-    <t>metadata.userID</t>
-  </si>
-  <si>
-    <t>metadata.username</t>
-  </si>
-  <si>
     <t>form.adverse_events.question3.AERecordingMonth</t>
   </si>
   <si>
@@ -505,12 +520,6 @@
     <t>form.copy-1-of-grpHTS.other_referrals_in_detail</t>
   </si>
   <si>
-    <t>form.grpHTS.hiv_positiveList.hivPositive20-24</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.surgical_reusable.sgReusable15-19</t>
-  </si>
-  <si>
     <t>4e6668dfd6adb19fe71beb316114b48f</t>
   </si>
   <si>
@@ -523,30 +532,45 @@
     <t>zdip</t>
   </si>
   <si>
+    <t>86c12d90-7f07-4a72-9e3e-cf87f36fcae2</t>
+  </si>
+  <si>
     <t>ebb110ba-4e00-4be4-83eb-26e1de7cccbc</t>
   </si>
   <si>
     <t>65aa7fbc-d3ab-46b3-9e8e-7472a7211cfe</t>
   </si>
   <si>
+    <t>2025-02-25T07:07:24.327624Z</t>
+  </si>
+  <si>
     <t>2025-02-25T04:52:54.073744Z</t>
   </si>
   <si>
     <t>2025-02-25T04:52:54.072980Z</t>
   </si>
   <si>
+    <t>2025-02-25T07:06:07.065901Z</t>
+  </si>
+  <si>
     <t>2025-02-24T13:22:13.984798Z</t>
   </si>
   <si>
     <t>2025-02-24T13:07:01.797399Z</t>
   </si>
   <si>
+    <t>2025-02-25T07:06:07.135040Z</t>
+  </si>
+  <si>
     <t>2025-02-24T13:22:14.068691Z</t>
   </si>
   <si>
     <t>2025-02-24T13:07:01.860188Z</t>
   </si>
   <si>
+    <t>77.246.50.239</t>
+  </si>
+  <si>
     <t>197.211.218.219</t>
   </si>
   <si>
@@ -565,6 +589,9 @@
     <t>text/xml</t>
   </si>
   <si>
+    <t>https://zdip.zimttech.org/a/zdip/api/form_attachment/v1/86c12d90-7f07-4a72-9e3e-cf87f36fcae2/form.xml</t>
+  </si>
+  <si>
     <t>https://zdip.zimttech.org/a/zdip/api/form_attachment/v1/ebb110ba-4e00-4be4-83eb-26e1de7cccbc/form.xml</t>
   </si>
   <si>
@@ -583,18 +610,21 @@
     <t>OK</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
     <t>0bf05ea5d1864951ba888b9e36edcbae</t>
   </si>
   <si>
+    <t>2025-02-25T07:06:06.173000Z</t>
+  </si>
+  <si>
     <t>2025-02-24T13:22:13.493000Z</t>
   </si>
   <si>
@@ -604,12 +634,18 @@
     <t>http://commcarehq.org/case/transaction/v2</t>
   </si>
   <si>
+    <t>Mponjani Clinic</t>
+  </si>
+  <si>
     <t>Mazivofa Clinic</t>
   </si>
   <si>
     <t>January</t>
   </si>
   <si>
+    <t>Mazivofa ClinicJanuary2025Mponjani ClinicJanuary2025</t>
+  </si>
+  <si>
     <t>Mazivofa ClinicJanuary2025</t>
   </si>
   <si>
@@ -631,6 +667,9 @@
     <t>10</t>
   </si>
   <si>
+    <t>Mponjani ClinicJanuary2025</t>
+  </si>
+  <si>
     <t>Chidembeko ClinicJanuary2025</t>
   </si>
   <si>
@@ -649,6 +688,9 @@
     <t>36</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
@@ -673,6 +715,9 @@
     <t>Zimbabwe</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>http://openrosa.org/jr/xforms</t>
   </si>
   <si>
@@ -689,6 +734,9 @@
   </si>
   <si>
     <t>2025-02-24T13:07:01.211000Z</t>
+  </si>
+  <si>
+    <t>2025-02-25T07:03:56.578000Z</t>
   </si>
   <si>
     <t>2025-02-24T13:19:59.133000Z</t>
@@ -1095,13 +1143,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:FJ5"/>
+  <dimension ref="A1:FM7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:166">
+    <row r="1" spans="1:169">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1597,28 +1645,37 @@
       <c r="FJ1" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="FK1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="FL1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="FM1" s="1" t="s">
+        <v>167</v>
+      </c>
     </row>
-    <row r="2" spans="1:166">
+    <row r="2" spans="1:169">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -1627,396 +1684,336 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="O2" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="R2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="S2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="T2" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="U2">
-        <v>5831</v>
+        <v>4893</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="W2" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="X2" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="Y2" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Z2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AA2" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE2" t="s">
         <v>187</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI2" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN2" t="s">
         <v>188</v>
       </c>
-      <c r="AD2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>200</v>
-      </c>
       <c r="AO2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="AP2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="AQ2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AR2" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AS2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="AT2" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="AU2" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="AV2" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="AW2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="AX2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="AY2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="AZ2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="BA2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="BB2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BC2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="BD2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="BE2" t="s">
         <v>188</v>
       </c>
       <c r="BF2" t="s">
-        <v>199</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>199</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>202</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>199</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>199</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>199</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="BM2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BN2" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="BO2" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="BP2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="BQ2" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="BR2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="BS2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BT2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="BU2" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="BV2" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="BW2" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="BX2" t="s">
-        <v>199</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="BZ2" t="s">
         <v>189</v>
       </c>
       <c r="CA2" t="s">
+        <v>224</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>211</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>226</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>227</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>228</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>229</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>230</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>231</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>232</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>197</v>
+      </c>
+      <c r="CK2" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL2" t="s">
+        <v>197</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>233</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>187</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>211</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>211</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>211</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>211</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>211</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>211</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>216</v>
+      </c>
+      <c r="CW2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>235</v>
+      </c>
+      <c r="CY2">
+        <v>5</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>237</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>238</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>211</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>172</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>202</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>240</v>
+      </c>
+      <c r="DG2" t="s">
         <v>204</v>
       </c>
-      <c r="CB2" t="s">
-        <v>188</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>188</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>199</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>199</v>
-      </c>
-      <c r="CN2" t="s">
+      <c r="DH2" t="s">
+        <v>243</v>
+      </c>
+      <c r="DI2" t="s">
         <v>208</v>
       </c>
-      <c r="CO2" t="s">
-        <v>208</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>189</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>190</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>188</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>200</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>188</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>199</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>211</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>200</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>212</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>213</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>214</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>215</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>216</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>217</v>
-      </c>
-      <c r="DE2" t="s">
-        <v>218</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>188</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>188</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>188</v>
-      </c>
-      <c r="DI2" t="s">
-        <v>188</v>
-      </c>
       <c r="DJ2" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="DK2" t="s">
+        <v>211</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>235</v>
+      </c>
+      <c r="DM2">
+        <v>5</v>
+      </c>
+      <c r="DN2" t="s">
+        <v>237</v>
+      </c>
+      <c r="DO2" t="s">
+        <v>238</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>211</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>172</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>202</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>240</v>
+      </c>
+      <c r="DV2" t="s">
         <v>204</v>
       </c>
-      <c r="DL2" t="s">
-        <v>199</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>199</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>199</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>199</v>
-      </c>
-      <c r="DP2" t="s">
-        <v>199</v>
-      </c>
-      <c r="DQ2" t="s">
-        <v>199</v>
-      </c>
-      <c r="DR2" t="s">
-        <v>208</v>
-      </c>
-      <c r="DS2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>220</v>
-      </c>
-      <c r="DU2">
-        <v>5</v>
-      </c>
-      <c r="DV2" t="s">
-        <v>222</v>
-      </c>
       <c r="DW2" t="s">
-        <v>223</v>
-      </c>
-      <c r="DX2" t="s">
-        <v>199</v>
-      </c>
-      <c r="DZ2" t="s">
-        <v>169</v>
-      </c>
-      <c r="EA2" t="s">
-        <v>193</v>
-      </c>
-      <c r="EB2" t="s">
-        <v>225</v>
-      </c>
-      <c r="EC2" t="s">
-        <v>194</v>
-      </c>
-      <c r="ED2" t="s">
-        <v>227</v>
-      </c>
-      <c r="EE2" t="s">
-        <v>197</v>
-      </c>
-      <c r="EF2" t="s">
-        <v>228</v>
-      </c>
-      <c r="EG2" t="s">
-        <v>199</v>
-      </c>
-      <c r="EH2" t="s">
-        <v>220</v>
-      </c>
-      <c r="EI2">
-        <v>5</v>
-      </c>
-      <c r="EJ2" t="s">
-        <v>222</v>
-      </c>
-      <c r="EK2" t="s">
-        <v>223</v>
-      </c>
-      <c r="EL2" t="s">
-        <v>199</v>
-      </c>
-      <c r="EN2" t="s">
-        <v>169</v>
-      </c>
-      <c r="EP2" t="s">
-        <v>193</v>
-      </c>
-      <c r="EQ2" t="s">
-        <v>225</v>
-      </c>
-      <c r="ER2" t="s">
-        <v>194</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
     </row>
-    <row r="3" spans="1:166">
+    <row r="3" spans="1:169">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -2025,426 +2022,396 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="O3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="Q3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="R3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="S3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="T3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="U3">
-        <v>6897</v>
+        <v>5831</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="W3" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="X3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="Y3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Z3" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="AA3" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY3" t="s">
         <v>187</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>191</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>199</v>
       </c>
       <c r="AZ3" t="s">
         <v>199</v>
       </c>
       <c r="BA3" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="BB3" t="s">
-        <v>199</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>199</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>199</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>188</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>199</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>199</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>200</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>199</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>199</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>199</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BM3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="BN3" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="BO3" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="BP3" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="BQ3" t="s">
-        <v>199</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>199</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="BT3" t="s">
         <v>199</v>
       </c>
       <c r="BU3" t="s">
+        <v>198</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>197</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>211</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>225</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>212</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>226</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>227</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>228</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>229</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>230</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>231</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>232</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>197</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>197</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN3" t="s">
         <v>199</v>
       </c>
-      <c r="BV3" t="s">
-        <v>188</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>200</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>199</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>179</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>189</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>207</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>188</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>191</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>188</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>179</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>199</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>209</v>
-      </c>
       <c r="CO3" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="CP3" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="CQ3" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="CR3" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="CS3" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="CT3" t="s">
-        <v>188</v>
+        <v>211</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>211</v>
       </c>
       <c r="CV3" t="s">
-        <v>199</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>199</v>
+        <v>221</v>
+      </c>
+      <c r="CW3" s="2" t="s">
+        <v>234</v>
       </c>
       <c r="CX3" t="s">
-        <v>210</v>
-      </c>
-      <c r="CY3" t="s">
+        <v>235</v>
+      </c>
+      <c r="CY3">
+        <v>5</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>237</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>238</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>211</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>173</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>203</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>241</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>204</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>243</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>208</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>244</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>211</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>235</v>
+      </c>
+      <c r="DM3">
+        <v>5</v>
+      </c>
+      <c r="DN3" t="s">
+        <v>237</v>
+      </c>
+      <c r="DO3" t="s">
+        <v>238</v>
+      </c>
+      <c r="DP3" t="s">
+        <v>211</v>
+      </c>
+      <c r="DR3" t="s">
+        <v>173</v>
+      </c>
+      <c r="DT3" t="s">
+        <v>203</v>
+      </c>
+      <c r="DU3" t="s">
+        <v>241</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>204</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>243</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>211</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>211</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>211</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>211</v>
+      </c>
+      <c r="EB3" t="s">
+        <v>211</v>
+      </c>
+      <c r="EC3" t="s">
+        <v>211</v>
+      </c>
+      <c r="ED3" t="s">
+        <v>211</v>
+      </c>
+      <c r="EE3" t="s">
+        <v>211</v>
+      </c>
+      <c r="EF3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EG3" t="s">
+        <v>211</v>
+      </c>
+      <c r="EH3" t="s">
+        <v>211</v>
+      </c>
+      <c r="EI3" t="s">
+        <v>214</v>
+      </c>
+      <c r="EJ3" t="s">
+        <v>211</v>
+      </c>
+      <c r="EK3" t="s">
+        <v>211</v>
+      </c>
+      <c r="EL3" t="s">
+        <v>211</v>
+      </c>
+      <c r="EM3" t="s">
+        <v>211</v>
+      </c>
+      <c r="EN3" t="s">
+        <v>211</v>
+      </c>
+      <c r="EO3" t="s">
+        <v>211</v>
+      </c>
+      <c r="EP3" t="s">
+        <v>214</v>
+      </c>
+      <c r="EQ3" t="s">
+        <v>211</v>
+      </c>
+      <c r="ER3" t="s">
+        <v>211</v>
+      </c>
+      <c r="ES3" t="s">
+        <v>211</v>
+      </c>
+      <c r="ET3" t="s">
+        <v>211</v>
+      </c>
+      <c r="EU3" t="s">
+        <v>211</v>
+      </c>
+      <c r="EV3" t="s">
+        <v>211</v>
+      </c>
+      <c r="EW3" t="s">
+        <v>197</v>
+      </c>
+      <c r="EX3" t="s">
         <v>212</v>
       </c>
-      <c r="CZ3" t="s">
-        <v>213</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>214</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>215</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>216</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>217</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>218</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>188</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>188</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>188</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>188</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>189</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>191</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>199</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>199</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>199</v>
-      </c>
-      <c r="DO3" t="s">
-        <v>199</v>
-      </c>
-      <c r="DP3" t="s">
-        <v>199</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>199</v>
-      </c>
-      <c r="DR3" t="s">
-        <v>210</v>
-      </c>
-      <c r="DS3" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="DT3" t="s">
-        <v>221</v>
-      </c>
-      <c r="DU3">
-        <v>4</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>222</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>223</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>199</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>170</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>224</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>226</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>194</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>227</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>197</v>
-      </c>
-      <c r="EF3" t="s">
-        <v>228</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>179</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>221</v>
-      </c>
-      <c r="EI3">
-        <v>4</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>222</v>
-      </c>
-      <c r="EK3" t="s">
-        <v>223</v>
-      </c>
-      <c r="EL3" t="s">
-        <v>199</v>
-      </c>
-      <c r="EN3" t="s">
-        <v>170</v>
-      </c>
-      <c r="EP3" t="s">
-        <v>224</v>
-      </c>
-      <c r="EQ3" t="s">
-        <v>226</v>
-      </c>
-      <c r="ER3" t="s">
-        <v>194</v>
-      </c>
-      <c r="ES3" t="s">
-        <v>227</v>
-      </c>
-      <c r="ET3" t="s">
-        <v>197</v>
-      </c>
-      <c r="EU3" t="s">
-        <v>206</v>
-      </c>
-      <c r="EV3" t="s">
-        <v>228</v>
-      </c>
-      <c r="EX3" t="s">
-        <v>229</v>
-      </c>
-      <c r="EY3" t="s">
-        <v>230</v>
-      </c>
-      <c r="EZ3" t="s">
-        <v>231</v>
-      </c>
-      <c r="FA3" t="s">
-        <v>179</v>
-      </c>
-      <c r="FB3" t="s">
-        <v>179</v>
-      </c>
-      <c r="FC3" t="s">
-        <v>232</v>
-      </c>
-      <c r="FD3" t="s">
-        <v>201</v>
-      </c>
-      <c r="FE3" t="s">
-        <v>233</v>
-      </c>
-      <c r="FF3" t="s">
-        <v>234</v>
-      </c>
-      <c r="FG3" t="s">
-        <v>235</v>
-      </c>
-      <c r="FH3" t="s">
-        <v>236</v>
-      </c>
-      <c r="FI3" t="s">
-        <v>179</v>
-      </c>
-      <c r="FJ3" t="s">
-        <v>189</v>
-      </c>
     </row>
-    <row r="4" spans="1:166">
+    <row r="4" spans="1:169">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -2453,426 +2420,426 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="O4" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="P4" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="Q4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="R4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="S4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="T4" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="U4">
         <v>6897</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="W4" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="X4" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="Y4" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Z4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="AA4" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY4" t="s">
         <v>187</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>191</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>201</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>203</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>200</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>200</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>199</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>205</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>205</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>199</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>199</v>
       </c>
       <c r="AZ4" t="s">
         <v>199</v>
       </c>
       <c r="BA4" t="s">
+        <v>220</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>197</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>187</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>200</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>197</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>187</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>222</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>223</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>197</v>
+      </c>
+      <c r="BW4" t="s">
         <v>199</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BX4" t="s">
+        <v>197</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>223</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>226</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>227</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>228</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>229</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>230</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>231</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>232</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>197</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>197</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN4" t="s">
         <v>199</v>
       </c>
-      <c r="BC4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>188</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BH4" t="s">
+      <c r="CO4" t="s">
         <v>200</v>
       </c>
-      <c r="BI4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BO4" t="s">
+      <c r="CP4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>211</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>223</v>
+      </c>
+      <c r="CW4" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>236</v>
+      </c>
+      <c r="CY4">
+        <v>4</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>237</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>238</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>239</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>242</v>
+      </c>
+      <c r="DG4" t="s">
+        <v>204</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>243</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>208</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>244</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>187</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>236</v>
+      </c>
+      <c r="DM4">
+        <v>4</v>
+      </c>
+      <c r="DN4" t="s">
+        <v>237</v>
+      </c>
+      <c r="DO4" t="s">
+        <v>238</v>
+      </c>
+      <c r="DP4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DR4" t="s">
+        <v>174</v>
+      </c>
+      <c r="DT4" t="s">
+        <v>239</v>
+      </c>
+      <c r="DU4" t="s">
+        <v>242</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>204</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>243</v>
+      </c>
+      <c r="DX4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>211</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EA4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EB4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EC4" t="s">
+        <v>211</v>
+      </c>
+      <c r="ED4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EE4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EF4" t="s">
+        <v>197</v>
+      </c>
+      <c r="EG4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EH4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EI4" t="s">
+        <v>212</v>
+      </c>
+      <c r="EJ4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EK4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EL4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EM4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EN4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EO4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>212</v>
+      </c>
+      <c r="EQ4" t="s">
+        <v>211</v>
+      </c>
+      <c r="ER4" t="s">
+        <v>211</v>
+      </c>
+      <c r="ES4" t="s">
+        <v>211</v>
+      </c>
+      <c r="ET4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EU4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EV4" t="s">
+        <v>211</v>
+      </c>
+      <c r="EW4" t="s">
+        <v>197</v>
+      </c>
+      <c r="EX4" t="s">
         <v>200</v>
       </c>
-      <c r="BP4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>188</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>200</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>179</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>189</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>207</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>188</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>191</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>188</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>179</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>199</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>209</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>210</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>199</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>199</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>188</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>191</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>188</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>199</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>199</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>210</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>212</v>
-      </c>
-      <c r="CZ4" t="s">
+      <c r="EY4" t="s">
+        <v>208</v>
+      </c>
+      <c r="EZ4" t="s">
+        <v>219</v>
+      </c>
+      <c r="FA4" t="s">
+        <v>244</v>
+      </c>
+      <c r="FC4" t="s">
+        <v>245</v>
+      </c>
+      <c r="FD4" t="s">
+        <v>246</v>
+      </c>
+      <c r="FE4" t="s">
+        <v>247</v>
+      </c>
+      <c r="FF4" t="s">
+        <v>187</v>
+      </c>
+      <c r="FG4" t="s">
+        <v>187</v>
+      </c>
+      <c r="FH4" t="s">
+        <v>248</v>
+      </c>
+      <c r="FI4" t="s">
         <v>213</v>
       </c>
-      <c r="DA4" t="s">
-        <v>214</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>215</v>
-      </c>
-      <c r="DC4" t="s">
-        <v>216</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>217</v>
-      </c>
-      <c r="DE4" t="s">
-        <v>218</v>
-      </c>
-      <c r="DF4" t="s">
-        <v>188</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>188</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>188</v>
-      </c>
-      <c r="DI4" t="s">
-        <v>188</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>189</v>
-      </c>
-      <c r="DK4" t="s">
-        <v>191</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>199</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>199</v>
-      </c>
-      <c r="DN4" t="s">
-        <v>199</v>
-      </c>
-      <c r="DO4" t="s">
-        <v>199</v>
-      </c>
-      <c r="DP4" t="s">
-        <v>199</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>199</v>
-      </c>
-      <c r="DR4" t="s">
-        <v>210</v>
-      </c>
-      <c r="DS4" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="DT4" t="s">
-        <v>221</v>
-      </c>
-      <c r="DU4">
-        <v>4</v>
-      </c>
-      <c r="DV4" t="s">
-        <v>222</v>
-      </c>
-      <c r="DW4" t="s">
-        <v>223</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>199</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>170</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>224</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>226</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>194</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>227</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>197</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>228</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>179</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>221</v>
-      </c>
-      <c r="EI4">
-        <v>4</v>
-      </c>
-      <c r="EJ4" t="s">
-        <v>222</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>223</v>
-      </c>
-      <c r="EL4" t="s">
-        <v>199</v>
-      </c>
-      <c r="EN4" t="s">
-        <v>170</v>
-      </c>
-      <c r="EP4" t="s">
-        <v>224</v>
-      </c>
-      <c r="EQ4" t="s">
-        <v>226</v>
-      </c>
-      <c r="ER4" t="s">
-        <v>194</v>
-      </c>
-      <c r="ES4" t="s">
-        <v>227</v>
-      </c>
-      <c r="ET4" t="s">
-        <v>197</v>
-      </c>
-      <c r="EU4" t="s">
-        <v>206</v>
-      </c>
-      <c r="EV4" t="s">
-        <v>228</v>
-      </c>
-      <c r="EX4" t="s">
-        <v>229</v>
-      </c>
-      <c r="EY4" t="s">
-        <v>230</v>
-      </c>
-      <c r="EZ4" t="s">
-        <v>231</v>
-      </c>
-      <c r="FA4" t="s">
-        <v>179</v>
-      </c>
-      <c r="FB4" t="s">
-        <v>179</v>
-      </c>
-      <c r="FC4" t="s">
-        <v>232</v>
-      </c>
-      <c r="FD4" t="s">
-        <v>201</v>
-      </c>
-      <c r="FE4" t="s">
-        <v>233</v>
-      </c>
-      <c r="FF4" t="s">
-        <v>234</v>
-      </c>
-      <c r="FG4" t="s">
-        <v>235</v>
-      </c>
-      <c r="FH4" t="s">
-        <v>236</v>
-      </c>
-      <c r="FI4" t="s">
-        <v>179</v>
-      </c>
       <c r="FJ4" t="s">
-        <v>189</v>
+        <v>249</v>
+      </c>
+      <c r="FK4" t="s">
+        <v>250</v>
+      </c>
+      <c r="FL4" t="s">
+        <v>251</v>
+      </c>
+      <c r="FM4" t="s">
+        <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:166">
+    <row r="5" spans="1:169">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H5" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -2881,373 +2848,1139 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="O5" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="P5" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="Q5" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="R5" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="S5" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="T5" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="U5">
-        <v>5831</v>
+        <v>6897</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="W5" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="X5" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="Y5" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="Z5" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="AA5" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>200</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>216</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY5" t="s">
         <v>187</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI5" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>200</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>202</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>180</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AT5" t="s">
-        <v>198</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>198</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>199</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>199</v>
       </c>
       <c r="AZ5" t="s">
         <v>199</v>
       </c>
       <c r="BA5" t="s">
+        <v>220</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>197</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>187</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>200</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>197</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>187</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>222</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>223</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>211</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>197</v>
+      </c>
+      <c r="BW5" t="s">
         <v>199</v>
       </c>
-      <c r="BB5" t="s">
+      <c r="BX5" t="s">
+        <v>197</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>211</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>211</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>223</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>226</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>227</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>228</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>229</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>230</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>231</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>232</v>
+      </c>
+      <c r="CJ5" t="s">
+        <v>197</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>197</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN5" t="s">
         <v>199</v>
       </c>
-      <c r="BC5" t="s">
+      <c r="CO5" t="s">
+        <v>200</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>211</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>211</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>211</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>211</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>211</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>211</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>223</v>
+      </c>
+      <c r="CW5" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>236</v>
+      </c>
+      <c r="CY5">
+        <v>4</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>237</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>238</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>211</v>
+      </c>
+      <c r="DD5" t="s">
+        <v>174</v>
+      </c>
+      <c r="DE5" t="s">
+        <v>239</v>
+      </c>
+      <c r="DF5" t="s">
+        <v>242</v>
+      </c>
+      <c r="DG5" t="s">
+        <v>204</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>243</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>208</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>244</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>187</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>236</v>
+      </c>
+      <c r="DM5">
+        <v>4</v>
+      </c>
+      <c r="DN5" t="s">
+        <v>237</v>
+      </c>
+      <c r="DO5" t="s">
+        <v>238</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>211</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>174</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>239</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>242</v>
+      </c>
+      <c r="DV5" t="s">
+        <v>204</v>
+      </c>
+      <c r="DW5" t="s">
+        <v>243</v>
+      </c>
+      <c r="DX5" t="s">
+        <v>211</v>
+      </c>
+      <c r="DY5" t="s">
+        <v>211</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>211</v>
+      </c>
+      <c r="EA5" t="s">
+        <v>211</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>211</v>
+      </c>
+      <c r="EC5" t="s">
+        <v>211</v>
+      </c>
+      <c r="ED5" t="s">
+        <v>211</v>
+      </c>
+      <c r="EE5" t="s">
+        <v>211</v>
+      </c>
+      <c r="EF5" t="s">
+        <v>197</v>
+      </c>
+      <c r="EG5" t="s">
+        <v>211</v>
+      </c>
+      <c r="EH5" t="s">
+        <v>211</v>
+      </c>
+      <c r="EI5" t="s">
+        <v>212</v>
+      </c>
+      <c r="EJ5" t="s">
+        <v>211</v>
+      </c>
+      <c r="EK5" t="s">
+        <v>211</v>
+      </c>
+      <c r="EL5" t="s">
+        <v>211</v>
+      </c>
+      <c r="EM5" t="s">
+        <v>211</v>
+      </c>
+      <c r="EN5" t="s">
+        <v>211</v>
+      </c>
+      <c r="EO5" t="s">
+        <v>211</v>
+      </c>
+      <c r="EP5" t="s">
+        <v>212</v>
+      </c>
+      <c r="EQ5" t="s">
+        <v>211</v>
+      </c>
+      <c r="ER5" t="s">
+        <v>211</v>
+      </c>
+      <c r="ES5" t="s">
+        <v>211</v>
+      </c>
+      <c r="ET5" t="s">
+        <v>211</v>
+      </c>
+      <c r="EU5" t="s">
+        <v>211</v>
+      </c>
+      <c r="EV5" t="s">
+        <v>211</v>
+      </c>
+      <c r="EW5" t="s">
+        <v>197</v>
+      </c>
+      <c r="EX5" t="s">
+        <v>200</v>
+      </c>
+      <c r="EY5" t="s">
+        <v>208</v>
+      </c>
+      <c r="EZ5" t="s">
+        <v>219</v>
+      </c>
+      <c r="FA5" t="s">
+        <v>244</v>
+      </c>
+      <c r="FC5" t="s">
+        <v>245</v>
+      </c>
+      <c r="FD5" t="s">
+        <v>246</v>
+      </c>
+      <c r="FE5" t="s">
+        <v>247</v>
+      </c>
+      <c r="FF5" t="s">
+        <v>187</v>
+      </c>
+      <c r="FG5" t="s">
+        <v>187</v>
+      </c>
+      <c r="FH5" t="s">
+        <v>248</v>
+      </c>
+      <c r="FI5" t="s">
+        <v>213</v>
+      </c>
+      <c r="FJ5" t="s">
+        <v>249</v>
+      </c>
+      <c r="FK5" t="s">
+        <v>250</v>
+      </c>
+      <c r="FL5" t="s">
+        <v>251</v>
+      </c>
+      <c r="FM5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:169">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>179</v>
+      </c>
+      <c r="O6" t="s">
+        <v>182</v>
+      </c>
+      <c r="P6" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>186</v>
+      </c>
+      <c r="R6" t="s">
+        <v>187</v>
+      </c>
+      <c r="S6" t="s">
+        <v>188</v>
+      </c>
+      <c r="T6" t="s">
+        <v>190</v>
+      </c>
+      <c r="U6">
+        <v>5831</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="W6" t="s">
+        <v>186</v>
+      </c>
+      <c r="X6" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD6" t="s">
         <v>199</v>
       </c>
-      <c r="BD5" t="s">
+      <c r="AE6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>207</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>210</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>214</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>187</v>
+      </c>
+      <c r="AZ6" t="s">
         <v>199</v>
       </c>
-      <c r="BE5" t="s">
+      <c r="BA6" t="s">
+        <v>216</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>197</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>197</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>211</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>211</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>221</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>221</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>199</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>198</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>197</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>197</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>211</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>225</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>212</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>226</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>227</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>228</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>229</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>230</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>231</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>232</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>197</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>197</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>199</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>216</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>211</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>211</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>211</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>211</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>211</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>211</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>221</v>
+      </c>
+      <c r="CW6" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>235</v>
+      </c>
+      <c r="CY6">
+        <v>5</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>237</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>238</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>211</v>
+      </c>
+      <c r="DD6" t="s">
+        <v>173</v>
+      </c>
+      <c r="DE6" t="s">
+        <v>203</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>241</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>204</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>243</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>208</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>244</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>211</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>235</v>
+      </c>
+      <c r="DM6">
+        <v>5</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>237</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>238</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>211</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>173</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>203</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>241</v>
+      </c>
+      <c r="DV6" t="s">
+        <v>204</v>
+      </c>
+      <c r="DW6" t="s">
+        <v>243</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>211</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>211</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>211</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>211</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>211</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>211</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>211</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>211</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>197</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>211</v>
+      </c>
+      <c r="EH6" t="s">
+        <v>211</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>214</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>211</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>211</v>
+      </c>
+      <c r="EL6" t="s">
+        <v>211</v>
+      </c>
+      <c r="EM6" t="s">
+        <v>211</v>
+      </c>
+      <c r="EN6" t="s">
+        <v>211</v>
+      </c>
+      <c r="EO6" t="s">
+        <v>211</v>
+      </c>
+      <c r="EP6" t="s">
+        <v>214</v>
+      </c>
+      <c r="EQ6" t="s">
+        <v>211</v>
+      </c>
+      <c r="ER6" t="s">
+        <v>211</v>
+      </c>
+      <c r="ES6" t="s">
+        <v>211</v>
+      </c>
+      <c r="ET6" t="s">
+        <v>211</v>
+      </c>
+      <c r="EU6" t="s">
+        <v>211</v>
+      </c>
+      <c r="EV6" t="s">
+        <v>211</v>
+      </c>
+      <c r="EW6" t="s">
+        <v>197</v>
+      </c>
+      <c r="EX6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:169">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H7" t="s">
+        <v>172</v>
+      </c>
+      <c r="I7" t="s">
+        <v>175</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>178</v>
+      </c>
+      <c r="O7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>186</v>
+      </c>
+      <c r="R7" t="s">
+        <v>187</v>
+      </c>
+      <c r="S7" t="s">
         <v>188</v>
       </c>
-      <c r="BF5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BG5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BH5" t="s">
+      <c r="T7" t="s">
+        <v>190</v>
+      </c>
+      <c r="U7">
+        <v>4893</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="W7" t="s">
+        <v>186</v>
+      </c>
+      <c r="X7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG7" t="s">
         <v>202</v>
       </c>
-      <c r="BI5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BO5" t="s">
+      <c r="AH7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>188</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>217</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>209</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>211</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>188</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>197</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>188</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>197</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>188</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>188</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>216</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>189</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>197</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>188</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>187</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>197</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>197</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>189</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>224</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>211</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>226</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>227</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>228</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>229</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>230</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>231</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>232</v>
+      </c>
+      <c r="CJ7" t="s">
+        <v>197</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>197</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>197</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>197</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>233</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>187</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>211</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>211</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>211</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>211</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>211</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>211</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>216</v>
+      </c>
+      <c r="CW7" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>235</v>
+      </c>
+      <c r="CY7">
+        <v>5</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>237</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>238</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>211</v>
+      </c>
+      <c r="DD7" t="s">
+        <v>172</v>
+      </c>
+      <c r="DE7" t="s">
         <v>202</v>
       </c>
-      <c r="BP5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>188</v>
-      </c>
-      <c r="BW5" t="s">
+      <c r="DF7" t="s">
+        <v>240</v>
+      </c>
+      <c r="DG7" t="s">
+        <v>204</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>243</v>
+      </c>
+      <c r="DI7" t="s">
+        <v>208</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>244</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>211</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>235</v>
+      </c>
+      <c r="DM7">
+        <v>5</v>
+      </c>
+      <c r="DN7" t="s">
+        <v>237</v>
+      </c>
+      <c r="DO7" t="s">
+        <v>238</v>
+      </c>
+      <c r="DP7" t="s">
+        <v>211</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>172</v>
+      </c>
+      <c r="DT7" t="s">
         <v>202</v>
       </c>
-      <c r="BX5" t="s">
-        <v>199</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>179</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>189</v>
-      </c>
-      <c r="CA5" t="s">
+      <c r="DU7" t="s">
+        <v>240</v>
+      </c>
+      <c r="DV7" t="s">
         <v>204</v>
       </c>
-      <c r="CB5" t="s">
-        <v>188</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>188</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>199</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>199</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>208</v>
-      </c>
-      <c r="CO5" t="s">
-        <v>208</v>
-      </c>
-      <c r="CP5" t="s">
-        <v>189</v>
-      </c>
-      <c r="CQ5" t="s">
-        <v>190</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>188</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>200</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>188</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>199</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>211</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>200</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>212</v>
-      </c>
-      <c r="CZ5" t="s">
-        <v>213</v>
-      </c>
-      <c r="DA5" t="s">
-        <v>214</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>215</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>216</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>217</v>
-      </c>
-      <c r="DE5" t="s">
-        <v>218</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>188</v>
-      </c>
-      <c r="DG5" t="s">
-        <v>188</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>188</v>
-      </c>
-      <c r="DI5" t="s">
-        <v>188</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>189</v>
-      </c>
-      <c r="DK5" t="s">
-        <v>204</v>
-      </c>
-      <c r="DL5" t="s">
-        <v>199</v>
-      </c>
-      <c r="DM5" t="s">
-        <v>199</v>
-      </c>
-      <c r="DN5" t="s">
-        <v>199</v>
-      </c>
-      <c r="DO5" t="s">
-        <v>199</v>
-      </c>
-      <c r="DP5" t="s">
-        <v>199</v>
-      </c>
-      <c r="DQ5" t="s">
-        <v>199</v>
-      </c>
-      <c r="DR5" t="s">
-        <v>208</v>
-      </c>
-      <c r="DS5" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="DT5" t="s">
-        <v>220</v>
-      </c>
-      <c r="DU5">
-        <v>5</v>
-      </c>
-      <c r="DV5" t="s">
-        <v>222</v>
-      </c>
-      <c r="DW5" t="s">
-        <v>223</v>
-      </c>
-      <c r="DX5" t="s">
-        <v>199</v>
-      </c>
-      <c r="DZ5" t="s">
-        <v>169</v>
-      </c>
-      <c r="EA5" t="s">
-        <v>193</v>
-      </c>
-      <c r="EB5" t="s">
-        <v>225</v>
-      </c>
-      <c r="EC5" t="s">
-        <v>194</v>
-      </c>
-      <c r="ED5" t="s">
-        <v>227</v>
-      </c>
-      <c r="EE5" t="s">
-        <v>197</v>
-      </c>
-      <c r="EF5" t="s">
-        <v>228</v>
-      </c>
-      <c r="EG5" t="s">
-        <v>199</v>
-      </c>
-      <c r="EH5" t="s">
-        <v>220</v>
-      </c>
-      <c r="EI5">
-        <v>5</v>
-      </c>
-      <c r="EJ5" t="s">
-        <v>222</v>
-      </c>
-      <c r="EK5" t="s">
-        <v>223</v>
-      </c>
-      <c r="EL5" t="s">
-        <v>199</v>
-      </c>
-      <c r="EN5" t="s">
-        <v>169</v>
-      </c>
-      <c r="EP5" t="s">
-        <v>193</v>
-      </c>
-      <c r="EQ5" t="s">
-        <v>225</v>
-      </c>
-      <c r="ER5" t="s">
-        <v>194</v>
-      </c>
-      <c r="ES5" t="s">
-        <v>227</v>
+      <c r="DW7" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -3255,17 +3988,25 @@
     <hyperlink ref="V2" r:id="rId1"/>
     <hyperlink ref="AA2" r:id="rId2"/>
     <hyperlink ref="AI2" r:id="rId3"/>
-    <hyperlink ref="DS2" r:id="rId4"/>
+    <hyperlink ref="CW2" r:id="rId4"/>
     <hyperlink ref="V3" r:id="rId5"/>
     <hyperlink ref="AA3" r:id="rId6"/>
-    <hyperlink ref="DS3" r:id="rId7"/>
-    <hyperlink ref="V4" r:id="rId8"/>
-    <hyperlink ref="AA4" r:id="rId9"/>
-    <hyperlink ref="DS4" r:id="rId10"/>
-    <hyperlink ref="V5" r:id="rId11"/>
-    <hyperlink ref="AA5" r:id="rId12"/>
-    <hyperlink ref="AI5" r:id="rId13"/>
-    <hyperlink ref="DS5" r:id="rId14"/>
+    <hyperlink ref="AI3" r:id="rId7"/>
+    <hyperlink ref="CW3" r:id="rId8"/>
+    <hyperlink ref="V4" r:id="rId9"/>
+    <hyperlink ref="AA4" r:id="rId10"/>
+    <hyperlink ref="CW4" r:id="rId11"/>
+    <hyperlink ref="V5" r:id="rId12"/>
+    <hyperlink ref="AA5" r:id="rId13"/>
+    <hyperlink ref="CW5" r:id="rId14"/>
+    <hyperlink ref="V6" r:id="rId15"/>
+    <hyperlink ref="AA6" r:id="rId16"/>
+    <hyperlink ref="AI6" r:id="rId17"/>
+    <hyperlink ref="CW6" r:id="rId18"/>
+    <hyperlink ref="V7" r:id="rId19"/>
+    <hyperlink ref="AA7" r:id="rId20"/>
+    <hyperlink ref="AI7" r:id="rId21"/>
+    <hyperlink ref="CW7" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="253">
   <si>
     <t>app_id</t>
   </si>
@@ -94,6 +94,177 @@
     <t>form.@xmlns</t>
   </si>
   <si>
+    <t>form.commcare_usercase.case.@case_id</t>
+  </si>
+  <si>
+    <t>form.commcare_usercase.case.@date_modified</t>
+  </si>
+  <si>
+    <t>form.commcare_usercase.case.@user_id</t>
+  </si>
+  <si>
+    <t>form.commcare_usercase.case.@xmlns</t>
+  </si>
+  <si>
+    <t>form.commcare_usercase.case.update.facilityName</t>
+  </si>
+  <si>
+    <t>form.commcare_usercase.case.update.recordingMonth</t>
+  </si>
+  <si>
+    <t>form.commcare_usercase.case.update.savedFacilities</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-location_details.checkifFacilityHasBeenSaved</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-location_details.currentFacilityAlias</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-location_details.facilityName</t>
+  </si>
+  <si>
+    <t>form.copy-1-of-location_details.savedFacilities</t>
+  </si>
+  <si>
+    <t>form.location_details.District</t>
+  </si>
+  <si>
+    <t>form.location_details.DistrictLabelDisplay</t>
+  </si>
+  <si>
+    <t>form.location_details.Province</t>
+  </si>
+  <si>
+    <t>form.location_details.ProvinceLabelDisplay</t>
+  </si>
+  <si>
+    <t>form.location_details.SiteLabelDisplay</t>
+  </si>
+  <si>
+    <t>form.location_details.Site_Name</t>
+  </si>
+  <si>
+    <t>form.location_details.countryID</t>
+  </si>
+  <si>
+    <t>form.location_details.districtName</t>
+  </si>
+  <si>
+    <t>form.location_details.provinceName</t>
+  </si>
+  <si>
+    <t>form.location_details.siteName</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.copy-1-of-mcs_by_age_disaggregations</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc15-19</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc20-24</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc25-29</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc30-34</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc35-39</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc40-44</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc45-49</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc50</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.totalMCs</t>
+  </si>
+  <si>
+    <t>form.meta.@xmlns</t>
+  </si>
+  <si>
+    <t>form.meta.appVersion</t>
+  </si>
+  <si>
+    <t>form.meta.app_build_version</t>
+  </si>
+  <si>
+    <t>form.meta.commcare_version</t>
+  </si>
+  <si>
+    <t>form.meta.deviceID</t>
+  </si>
+  <si>
+    <t>form.meta.drift</t>
+  </si>
+  <si>
+    <t>form.meta.geo_point</t>
+  </si>
+  <si>
+    <t>form.meta.instanceID</t>
+  </si>
+  <si>
+    <t>form.meta.timeEnd</t>
+  </si>
+  <si>
+    <t>form.meta.timeStart</t>
+  </si>
+  <si>
+    <t>form.meta.userID</t>
+  </si>
+  <si>
+    <t>form.meta.username</t>
+  </si>
+  <si>
+    <t>form.recordingPeriodList.recordingMonth</t>
+  </si>
+  <si>
+    <t>form.recordingPeriodList.year</t>
+  </si>
+  <si>
+    <t>metadata.appVersion</t>
+  </si>
+  <si>
+    <t>metadata.app_build_version</t>
+  </si>
+  <si>
+    <t>metadata.commcare_version</t>
+  </si>
+  <si>
+    <t>metadata.deviceID</t>
+  </si>
+  <si>
+    <t>metadata.drift</t>
+  </si>
+  <si>
+    <t>metadata.geo_point</t>
+  </si>
+  <si>
+    <t>metadata.instanceID</t>
+  </si>
+  <si>
+    <t>metadata.location</t>
+  </si>
+  <si>
+    <t>metadata.timeEnd</t>
+  </si>
+  <si>
+    <t>metadata.timeStart</t>
+  </si>
+  <si>
+    <t>metadata.userID</t>
+  </si>
+  <si>
+    <t>metadata.username</t>
+  </si>
+  <si>
     <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.copy-1-of-mcs_by_age_disaggregations</t>
   </si>
   <si>
@@ -103,25 +274,10 @@
     <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu15-19</t>
   </si>
   <si>
-    <t>form.commcare_usercase.case.@case_id</t>
-  </si>
-  <si>
-    <t>form.commcare_usercase.case.@date_modified</t>
-  </si>
-  <si>
-    <t>form.commcare_usercase.case.@user_id</t>
-  </si>
-  <si>
-    <t>form.commcare_usercase.case.@xmlns</t>
-  </si>
-  <si>
-    <t>form.commcare_usercase.case.update.facilityName</t>
-  </si>
-  <si>
-    <t>form.commcare_usercase.case.update.recordingMonth</t>
-  </si>
-  <si>
-    <t>form.commcare_usercase.case.update.savedFacilities</t>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu20-24</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu25-29</t>
   </si>
   <si>
     <t>form.copy-1-of-grpHTS.kpLinkagesList.high_risk_referrals_to_care</t>
@@ -142,18 +298,6 @@
     <t>form.copy-1-of-grpHTS.referrals_to_sti_and_srh_services.total_mcs_referred_for_sti_services</t>
   </si>
   <si>
-    <t>form.copy-1-of-location_details.checkifFacilityHasBeenSaved</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-location_details.currentFacilityAlias</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-location_details.facilityName</t>
-  </si>
-  <si>
-    <t>form.copy-1-of-location_details.savedFacilities</t>
-  </si>
-  <si>
     <t>form.copy-2-of-grpHTS.totalHIVPositiveNC</t>
   </si>
   <si>
@@ -166,6 +310,12 @@
     <t>form.grpHTS.hiv_negativeList.hivNegative15-19</t>
   </si>
   <si>
+    <t>form.grpHTS.hiv_negativeList.hivNegative20-24</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_negativeList.hivNegative25-29</t>
+  </si>
+  <si>
     <t>form.grpHTS.hiv_negativeList.total_surgicalDisposable</t>
   </si>
   <si>
@@ -214,6 +364,12 @@
     <t>form.grpMCBYMethod.surgical_disposable.sgDisposable15-19</t>
   </si>
   <si>
+    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable20-24</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable25-29</t>
+  </si>
+  <si>
     <t>form.grpMCBYMethod.surgical_disposable.total_surgicalDisposable</t>
   </si>
   <si>
@@ -229,151 +385,13 @@
     <t>form.grpMCBYMethod.totalSurgicalReusableMCs</t>
   </si>
   <si>
-    <t>form.location_details.District</t>
-  </si>
-  <si>
-    <t>form.location_details.DistrictLabelDisplay</t>
-  </si>
-  <si>
-    <t>form.location_details.Province</t>
-  </si>
-  <si>
-    <t>form.location_details.ProvinceLabelDisplay</t>
-  </si>
-  <si>
-    <t>form.location_details.SiteLabelDisplay</t>
-  </si>
-  <si>
-    <t>form.location_details.Site_Name</t>
-  </si>
-  <si>
-    <t>form.location_details.countryID</t>
-  </si>
-  <si>
-    <t>form.location_details.districtName</t>
-  </si>
-  <si>
-    <t>form.location_details.provinceName</t>
-  </si>
-  <si>
-    <t>form.location_details.siteName</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.copy-1-of-mcs_by_age_disaggregations</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc15-19</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc20-24</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc25-29</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc30-34</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc35-39</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc40-44</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc45-49</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc50</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.totalMCs</t>
-  </si>
-  <si>
-    <t>form.meta.@xmlns</t>
-  </si>
-  <si>
-    <t>form.meta.appVersion</t>
-  </si>
-  <si>
-    <t>form.meta.app_build_version</t>
-  </si>
-  <si>
-    <t>form.meta.commcare_version</t>
-  </si>
-  <si>
-    <t>form.meta.deviceID</t>
-  </si>
-  <si>
-    <t>form.meta.drift</t>
-  </si>
-  <si>
-    <t>form.meta.geo_point</t>
-  </si>
-  <si>
-    <t>form.meta.instanceID</t>
-  </si>
-  <si>
-    <t>form.meta.timeEnd</t>
-  </si>
-  <si>
-    <t>form.meta.timeStart</t>
-  </si>
-  <si>
-    <t>form.meta.userID</t>
-  </si>
-  <si>
-    <t>form.meta.username</t>
-  </si>
-  <si>
-    <t>form.recordingPeriodList.recordingMonth</t>
-  </si>
-  <si>
-    <t>form.recordingPeriodList.year</t>
-  </si>
-  <si>
     <t>form.totalAES</t>
   </si>
   <si>
-    <t>metadata.appVersion</t>
-  </si>
-  <si>
-    <t>metadata.app_build_version</t>
-  </si>
-  <si>
-    <t>metadata.commcare_version</t>
-  </si>
-  <si>
-    <t>metadata.deviceID</t>
-  </si>
-  <si>
-    <t>metadata.drift</t>
-  </si>
-  <si>
-    <t>metadata.geo_point</t>
-  </si>
-  <si>
-    <t>metadata.instanceID</t>
-  </si>
-  <si>
-    <t>metadata.location</t>
-  </si>
-  <si>
-    <t>metadata.timeEnd</t>
-  </si>
-  <si>
-    <t>metadata.timeStart</t>
-  </si>
-  <si>
-    <t>metadata.userID</t>
-  </si>
-  <si>
-    <t>metadata.username</t>
-  </si>
-  <si>
-    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu20-24</t>
-  </si>
-  <si>
-    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu25-29</t>
+    <t>form.grpHTS.hiv_positiveList.hivPositive20-24</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.hivPositive25-29</t>
   </si>
   <si>
     <t>form.copy-2-of-grpHTS.hiv_negativeList.hivNegativeNC15-19</t>
@@ -454,51 +472,81 @@
     <t>form.copy-2-of-grpHTS.hiv_positiveList.total_surgicalReusable</t>
   </si>
   <si>
-    <t>form.grpHTS.hiv_negativeList.hivNegative20-24</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_negativeList.hivNegative25-29</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable20-24</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable25-29</t>
-  </si>
-  <si>
     <t>4e6668dfd6adb19fe71beb316114b48f</t>
   </si>
   <si>
+    <t>b7db4c3d8b234ee6983235715c3872ea</t>
+  </si>
+  <si>
     <t>a1dc65ee60cb45daadeb2e9ffc178a86</t>
   </si>
   <si>
     <t>zdip</t>
   </si>
   <si>
+    <t>badf0c77-7722-4c77-a8ba-258507e2c85f</t>
+  </si>
+  <si>
+    <t>ee397593-fa04-400b-a098-2517992bba5a</t>
+  </si>
+  <si>
+    <t>4271d5bb-5d22-43b3-9699-6175a93880bb</t>
+  </si>
+  <si>
     <t>b8bc25a7-af9a-4262-b100-603790de6741</t>
   </si>
   <si>
     <t>8df7a905-474c-4932-918b-2fd91e341d3c</t>
   </si>
   <si>
+    <t>2025-03-04T13:38:51.087608Z</t>
+  </si>
+  <si>
+    <t>2025-03-04T13:19:29.182445Z</t>
+  </si>
+  <si>
+    <t>2025-03-04T13:12:01.558358Z</t>
+  </si>
+  <si>
     <t>2025-03-04T11:19:42.936242Z</t>
   </si>
   <si>
     <t>2025-03-04T06:20:35.808415Z</t>
   </si>
   <si>
+    <t>2025-03-04T13:38:28.685864Z</t>
+  </si>
+  <si>
+    <t>2025-03-04T13:19:29.079611Z</t>
+  </si>
+  <si>
+    <t>2025-03-04T13:12:01.443119Z</t>
+  </si>
+  <si>
     <t>2025-03-04T11:19:42.842238Z</t>
   </si>
   <si>
     <t>2025-03-04T06:20:35.663894Z</t>
   </si>
   <si>
+    <t>2025-03-04T13:38:28.753278Z</t>
+  </si>
+  <si>
+    <t>2025-03-04T13:19:29.144731Z</t>
+  </si>
+  <si>
+    <t>2025-03-04T13:12:01.508269Z</t>
+  </si>
+  <si>
     <t>2025-03-04T11:19:42.904370Z</t>
   </si>
   <si>
     <t>2025-03-04T06:20:35.725432Z</t>
   </si>
   <si>
+    <t>77.246.52.176</t>
+  </si>
+  <si>
     <t>77.246.52.50</t>
   </si>
   <si>
@@ -511,12 +559,24 @@
     <t>1</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
     <t>text/xml</t>
   </si>
   <si>
+    <t>https://zdip.zimttech.org/a/zdip/api/form_attachment/v1/badf0c77-7722-4c77-a8ba-258507e2c85f/form.xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip/api/form_attachment/v1/ee397593-fa04-400b-a098-2517992bba5a/form.xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip/api/form_attachment/v1/4271d5bb-5d22-43b3-9699-6175a93880bb/form.xml</t>
+  </si>
+  <si>
     <t>https://zdip.zimttech.org/a/zdip/api/form_attachment/v1/b8bc25a7-af9a-4262-b100-603790de6741/form.xml</t>
   </si>
   <si>
@@ -529,139 +589,190 @@
     <t>http://openrosa.org/formdesigner/2C62E5DB-A039-4F7E-A378-25101817B038</t>
   </si>
   <si>
+    <t>ec7c10778d7d4f0696a7438aca99b0e9</t>
+  </si>
+  <si>
+    <t>40fb34e0adf74da9bf82294de58793ea</t>
+  </si>
+  <si>
+    <t>2025-03-04T13:38:21.667000Z</t>
+  </si>
+  <si>
+    <t>2025-03-04T13:19:27.141000Z</t>
+  </si>
+  <si>
+    <t>2025-03-04T13:11:56.444000Z</t>
+  </si>
+  <si>
+    <t>2025-03-04T11:19:34.768000Z</t>
+  </si>
+  <si>
+    <t>2025-03-04T06:20:35.421000Z</t>
+  </si>
+  <si>
+    <t>a74317c95f3c463c96999e7ea4d19e47</t>
+  </si>
+  <si>
+    <t>94f1daa340ff4174b3a280a2b5c40015</t>
+  </si>
+  <si>
+    <t>http://commcarehq.org/case/transaction/v2</t>
+  </si>
+  <si>
+    <t>Chinhere clinic</t>
+  </si>
+  <si>
+    <t>Murambi</t>
+  </si>
+  <si>
+    <t>Masikati</t>
+  </si>
+  <si>
+    <t>Tengwe Clinic</t>
+  </si>
+  <si>
+    <t>Bakasa</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>Tengwe ClinicFebruary2025MasikatiFebruary2025MurambiFebruary2025Chinhere clinicFebruary2025</t>
+  </si>
+  <si>
+    <t>Tengwe ClinicFebruary2025MasikatiFebruary2025MurambiFebruary2025</t>
+  </si>
+  <si>
+    <t>Tengwe ClinicFebruary2025MasikatiFebruary2025</t>
+  </si>
+  <si>
+    <t>Tengwe ClinicFebruary2025</t>
+  </si>
+  <si>
+    <t>Guruve District HospitalJanuary2025BakasaJanuary2025BrandonJanuary2025GotaJanuary2025CamsasaJanuary2025BirkdaleJanuary2025ChipuriroJanuary2025ChipuriroFebruary2025BakasaFebruary2025</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Chinhere clinicFebruary2025</t>
+  </si>
+  <si>
+    <t>MurambiFebruary2025</t>
+  </si>
+  <si>
+    <t>MasikatiFebruary2025</t>
+  </si>
+  <si>
+    <t>BakasaFebruary2025</t>
+  </si>
+  <si>
+    <t>HURUNGWE</t>
+  </si>
+  <si>
+    <t>GURUVE</t>
+  </si>
+  <si>
+    <t>District :      HURUNGWE</t>
+  </si>
+  <si>
+    <t>District :      GURUVE</t>
+  </si>
+  <si>
+    <t>MASHONALAND WEST</t>
+  </si>
+  <si>
+    <t>MASHONALAND CENTRAL</t>
+  </si>
+  <si>
+    <t>Province :      MASHONALAND WEST</t>
+  </si>
+  <si>
+    <t>Province :      MASHONALAND CENTRAL</t>
+  </si>
+  <si>
+    <t>Site  :      TENGWE - 101886 - CLINIC</t>
+  </si>
+  <si>
+    <t>Site  :      GURUVE - 100553 - DISTRICT HOSPITAL</t>
+  </si>
+  <si>
+    <t>TENGWE - 101886 - CLINIC</t>
+  </si>
+  <si>
+    <t>GURUVE - 100553 - DISTRICT HOSPITAL</t>
+  </si>
+  <si>
+    <t>Zimbabwe</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>ec7c10778d7d4f0696a7438aca99b0e9</t>
-  </si>
-  <si>
-    <t>40fb34e0adf74da9bf82294de58793ea</t>
-  </si>
-  <si>
-    <t>2025-03-04T11:19:34.768000Z</t>
-  </si>
-  <si>
-    <t>2025-03-04T06:20:35.421000Z</t>
-  </si>
-  <si>
-    <t>a74317c95f3c463c96999e7ea4d19e47</t>
-  </si>
-  <si>
-    <t>94f1daa340ff4174b3a280a2b5c40015</t>
-  </si>
-  <si>
-    <t>http://commcarehq.org/case/transaction/v2</t>
-  </si>
-  <si>
-    <t>Tengwe Clinic</t>
-  </si>
-  <si>
-    <t>Bakasa</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>Tengwe ClinicFebruary2025</t>
-  </si>
-  <si>
-    <t>Guruve District HospitalJanuary2025BakasaJanuary2025BrandonJanuary2025GotaJanuary2025CamsasaJanuary2025BirkdaleJanuary2025ChipuriroJanuary2025ChipuriroFebruary2025BakasaFebruary2025</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>http://openrosa.org/jr/xforms</t>
+  </si>
+  <si>
+    <t>CommCare Android, version "2.55.0"(467579). App v10. CommCare Version 2.55.0. Build 467579, built on: 2025-01-15</t>
+  </si>
+  <si>
+    <t>CommCare Android, version "2.55.0"(467579). App v8. CommCare Version 2.55.0. Build 467579, built on: 2025-01-15</t>
+  </si>
+  <si>
+    <t>2.55.0</t>
+  </si>
+  <si>
+    <t>commcare_9d7061d4-2fb6-4b3f-838d-3f38eba90be1</t>
+  </si>
+  <si>
+    <t>commcare_dd89ac76-97fc-4469-a940-3e15381b55b0</t>
+  </si>
+  <si>
+    <t>2025-03-04T13:38:01.312000Z</t>
+  </si>
+  <si>
+    <t>2025-03-04T13:12:14.326000Z</t>
+  </si>
+  <si>
+    <t>2025-03-04T13:05:22.221000Z</t>
+  </si>
+  <si>
+    <t>2025-03-04T10:56:40.042000Z</t>
+  </si>
+  <si>
+    <t>2025-03-04T06:18:21.731000Z</t>
+  </si>
+  <si>
+    <t>cmadziwa</t>
+  </si>
+  <si>
+    <t>tgwarava</t>
+  </si>
+  <si>
+    <t>2025</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>BakasaFebruary2025</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>HURUNGWE</t>
-  </si>
-  <si>
-    <t>GURUVE</t>
-  </si>
-  <si>
-    <t>District :      HURUNGWE</t>
-  </si>
-  <si>
-    <t>District :      GURUVE</t>
-  </si>
-  <si>
-    <t>MASHONALAND WEST</t>
-  </si>
-  <si>
-    <t>MASHONALAND CENTRAL</t>
-  </si>
-  <si>
-    <t>Province :      MASHONALAND WEST</t>
-  </si>
-  <si>
-    <t>Province :      MASHONALAND CENTRAL</t>
-  </si>
-  <si>
-    <t>Site  :      TENGWE - 101886 - CLINIC</t>
-  </si>
-  <si>
-    <t>Site  :      GURUVE - 100553 - DISTRICT HOSPITAL</t>
-  </si>
-  <si>
-    <t>TENGWE - 101886 - CLINIC</t>
-  </si>
-  <si>
-    <t>GURUVE - 100553 - DISTRICT HOSPITAL</t>
-  </si>
-  <si>
-    <t>Zimbabwe</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>http://openrosa.org/jr/xforms</t>
-  </si>
-  <si>
-    <t>CommCare Android, version "2.55.0"(467579). App v8. CommCare Version 2.55.0. Build 467579, built on: 2025-01-15</t>
-  </si>
-  <si>
-    <t>2.55.0</t>
-  </si>
-  <si>
-    <t>commcare_9d7061d4-2fb6-4b3f-838d-3f38eba90be1</t>
-  </si>
-  <si>
-    <t>commcare_dd89ac76-97fc-4469-a940-3e15381b55b0</t>
-  </si>
-  <si>
-    <t>2025-03-04T10:56:40.042000Z</t>
-  </si>
-  <si>
-    <t>2025-03-04T06:18:21.731000Z</t>
-  </si>
-  <si>
-    <t>cmadziwa</t>
-  </si>
-  <si>
-    <t>tgwarava</t>
-  </si>
-  <si>
-    <t>2025</t>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -1032,13 +1143,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EU5"/>
+  <dimension ref="A1:EW10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:151">
+    <row r="1" spans="1:153">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1489,28 +1600,34 @@
       <c r="EU1" s="1" t="s">
         <v>149</v>
       </c>
+      <c r="EV1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="EW1" s="1" t="s">
+        <v>151</v>
+      </c>
     </row>
-    <row r="2" spans="1:151">
+    <row r="2" spans="1:153">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -1519,309 +1636,231 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="O2" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="P2" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="Q2" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="R2" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="S2" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="T2" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="U2">
-        <v>4452</v>
+        <v>2573</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="W2" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="X2" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="Y2" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="Z2" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AB2" t="s">
-        <v>171</v>
+        <v>191</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>193</v>
       </c>
       <c r="AD2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>174</v>
+        <v>198</v>
+      </c>
+      <c r="AE2" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="AF2" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AG2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>180</v>
+        <v>206</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>207</v>
       </c>
       <c r="AI2" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="AJ2" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="AK2" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="AL2" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="AM2" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="AN2" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="AO2" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="AP2" t="s">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="AQ2" t="s">
-        <v>186</v>
+        <v>225</v>
       </c>
       <c r="AR2" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
       <c r="AS2" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="AT2" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="AU2" t="s">
-        <v>184</v>
+        <v>230</v>
       </c>
       <c r="AV2" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="AW2" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="AX2" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="AY2" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="AZ2" t="s">
-        <v>171</v>
+        <v>212</v>
       </c>
       <c r="BA2" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="BB2" t="s">
-        <v>186</v>
+        <v>212</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>212</v>
+      </c>
+      <c r="BG2" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>238</v>
+      </c>
+      <c r="BI2">
+        <v>10</v>
       </c>
       <c r="BJ2" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="BK2" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="BL2" t="s">
-        <v>190</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="BN2" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="BO2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="BP2" t="s">
-        <v>171</v>
+        <v>243</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>198</v>
       </c>
       <c r="BR2" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="BS2" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="BT2" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="BU2" t="s">
-        <v>192</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>194</v>
+        <v>238</v>
+      </c>
+      <c r="BV2">
+        <v>10</v>
       </c>
       <c r="BW2" t="s">
-        <v>196</v>
+        <v>240</v>
       </c>
       <c r="BX2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA2" t="s">
+        <v>156</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>193</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>243</v>
+      </c>
+      <c r="CE2" t="s">
         <v>198</v>
       </c>
-      <c r="BY2" t="s">
-        <v>200</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>202</v>
-      </c>
-      <c r="CA2" t="s">
-        <v>204</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>171</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>171</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>171</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>171</v>
-      </c>
       <c r="CF2" t="s">
-        <v>190</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>186</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>186</v>
-      </c>
-      <c r="CI2" t="s">
-        <v>186</v>
-      </c>
-      <c r="CJ2" t="s">
-        <v>186</v>
-      </c>
-      <c r="CK2" t="s">
-        <v>186</v>
-      </c>
-      <c r="CL2" t="s">
-        <v>186</v>
-      </c>
-      <c r="CM2" t="s">
-        <v>186</v>
-      </c>
-      <c r="CN2" t="s">
-        <v>190</v>
-      </c>
-      <c r="CO2" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="CP2" t="s">
-        <v>207</v>
-      </c>
-      <c r="CQ2">
-        <v>8</v>
-      </c>
-      <c r="CR2" t="s">
-        <v>208</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>209</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>186</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>153</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>176</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>211</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>178</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>213</v>
-      </c>
-      <c r="DA2" t="s">
-        <v>183</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>215</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>186</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>207</v>
-      </c>
-      <c r="DE2">
-        <v>8</v>
-      </c>
-      <c r="DF2" t="s">
-        <v>208</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>209</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>186</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>153</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>176</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>211</v>
-      </c>
-      <c r="DN2" t="s">
-        <v>178</v>
-      </c>
-      <c r="DO2" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:151">
+    <row r="3" spans="1:153">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C3" t="b">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="I3" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -1830,399 +1869,327 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="O3" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="P3" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="Q3" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="R3" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="S3" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="T3" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="U3">
-        <v>6119</v>
+        <v>4704</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="W3" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="X3" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="Y3" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="Z3" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AB3" t="s">
-        <v>171</v>
+        <v>191</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>194</v>
       </c>
       <c r="AD3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>175</v>
+        <v>198</v>
+      </c>
+      <c r="AE3" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="AF3" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="AG3" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH3" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>221</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>230</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ3" t="s">
         <v>180</v>
       </c>
-      <c r="AI3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>187</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>173</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>171</v>
+      <c r="BA3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>212</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>235</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>239</v>
+      </c>
+      <c r="BI3">
+        <v>8</v>
       </c>
       <c r="BJ3" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="BK3" t="s">
-        <v>186</v>
+        <v>241</v>
       </c>
       <c r="BL3" t="s">
-        <v>186</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="BN3" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="BO3" t="s">
-        <v>173</v>
+        <v>194</v>
       </c>
       <c r="BP3" t="s">
-        <v>171</v>
+        <v>244</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>198</v>
       </c>
       <c r="BR3" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="BS3" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="BT3" t="s">
-        <v>186</v>
+        <v>250</v>
       </c>
       <c r="BU3" t="s">
-        <v>193</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>195</v>
+        <v>239</v>
+      </c>
+      <c r="BV3">
+        <v>8</v>
       </c>
       <c r="BW3" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="BX3" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="BY3" t="s">
-        <v>201</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="CA3" t="s">
-        <v>204</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="CC3" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="CD3" t="s">
-        <v>171</v>
+        <v>244</v>
       </c>
       <c r="CE3" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="CF3" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="CG3" t="s">
-        <v>205</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="CI3" t="s">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="CJ3" t="s">
-        <v>186</v>
+        <v>251</v>
       </c>
       <c r="CK3" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="CL3" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="CM3" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="CN3" t="s">
-        <v>191</v>
-      </c>
-      <c r="CO3" s="2" t="s">
-        <v>206</v>
+        <v>212</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>212</v>
       </c>
       <c r="CP3" t="s">
-        <v>207</v>
-      </c>
-      <c r="CQ3">
-        <v>8</v>
+        <v>212</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>212</v>
       </c>
       <c r="CR3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="CS3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="CT3" t="s">
-        <v>186</v>
+        <v>212</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>212</v>
       </c>
       <c r="CV3" t="s">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c r="CW3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="CX3" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="CY3" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="CZ3" t="s">
-        <v>214</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>183</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>215</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>186</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>207</v>
-      </c>
-      <c r="DE3">
-        <v>8</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>208</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="DH3" t="s">
-        <v>186</v>
+        <v>230</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>212</v>
       </c>
       <c r="DJ3" t="s">
-        <v>154</v>
+        <v>231</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>252</v>
       </c>
       <c r="DL3" t="s">
-        <v>177</v>
+        <v>235</v>
       </c>
       <c r="DM3" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="DN3" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
       <c r="DO3" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="DP3" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="DR3" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="DS3" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="DT3" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="DU3" t="s">
-        <v>186</v>
-      </c>
-      <c r="DV3" t="s">
-        <v>186</v>
-      </c>
-      <c r="DW3" t="s">
-        <v>186</v>
-      </c>
-      <c r="DX3" t="s">
-        <v>186</v>
-      </c>
-      <c r="DY3" t="s">
-        <v>186</v>
-      </c>
-      <c r="DZ3" t="s">
-        <v>171</v>
-      </c>
-      <c r="EA3" t="s">
-        <v>164</v>
-      </c>
-      <c r="EB3" t="s">
-        <v>173</v>
-      </c>
-      <c r="EC3" t="s">
-        <v>186</v>
-      </c>
-      <c r="ED3" t="s">
-        <v>186</v>
-      </c>
-      <c r="EE3" t="s">
-        <v>186</v>
-      </c>
-      <c r="EF3" t="s">
-        <v>186</v>
-      </c>
-      <c r="EG3" t="s">
-        <v>186</v>
-      </c>
-      <c r="EH3" t="s">
-        <v>186</v>
-      </c>
-      <c r="EI3" t="s">
-        <v>164</v>
-      </c>
-      <c r="EJ3" t="s">
-        <v>173</v>
-      </c>
-      <c r="EK3" t="s">
-        <v>186</v>
-      </c>
-      <c r="EL3" t="s">
-        <v>186</v>
-      </c>
-      <c r="EM3" t="s">
-        <v>186</v>
-      </c>
-      <c r="EN3" t="s">
-        <v>186</v>
-      </c>
-      <c r="EO3" t="s">
-        <v>186</v>
-      </c>
-      <c r="EP3" t="s">
-        <v>186</v>
-      </c>
-      <c r="EQ3" t="s">
-        <v>171</v>
-      </c>
-      <c r="ER3" t="s">
-        <v>205</v>
-      </c>
-      <c r="ES3" t="s">
-        <v>164</v>
-      </c>
-      <c r="ET3" t="s">
-        <v>205</v>
-      </c>
-      <c r="EU3" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="4" spans="1:151">
+    <row r="4" spans="1:153">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="I4" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -2231,399 +2198,339 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
+        <v>168</v>
+      </c>
+      <c r="O4" t="s">
+        <v>173</v>
+      </c>
+      <c r="P4" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>179</v>
+      </c>
+      <c r="R4" t="s">
+        <v>180</v>
+      </c>
+      <c r="S4" t="s">
+        <v>182</v>
+      </c>
+      <c r="T4" t="s">
+        <v>183</v>
+      </c>
+      <c r="U4">
+        <v>4788</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="W4" t="s">
+        <v>179</v>
+      </c>
+      <c r="X4" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE4" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>180</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>212</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>212</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>212</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>212</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>212</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>235</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>239</v>
+      </c>
+      <c r="BI4">
+        <v>8</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>240</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>241</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN4" t="s">
         <v>158</v>
       </c>
-      <c r="O4" t="s">
-        <v>160</v>
-      </c>
-      <c r="P4" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>163</v>
-      </c>
-      <c r="R4" t="s">
-        <v>164</v>
-      </c>
-      <c r="S4" t="s">
-        <v>165</v>
-      </c>
-      <c r="T4" t="s">
-        <v>166</v>
-      </c>
-      <c r="U4">
-        <v>6119</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="W4" t="s">
-        <v>163</v>
-      </c>
-      <c r="X4" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AH4" s="2" t="s">
+      <c r="BO4" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>245</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>198</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>248</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>206</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>250</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>239</v>
+      </c>
+      <c r="BV4">
+        <v>8</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>240</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>241</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>158</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>195</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>245</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>198</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>248</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>230</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>182</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>233</v>
+      </c>
+      <c r="CK4" t="s">
         <v>180</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="CL4" t="s">
+        <v>212</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>212</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>212</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>212</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>212</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>212</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>212</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>212</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>212</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>212</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>212</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>212</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>230</v>
+      </c>
+      <c r="CY4" t="s">
+        <v>212</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>212</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>212</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>212</v>
+      </c>
+      <c r="DH4" t="s">
+        <v>230</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>212</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>235</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>212</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>235</v>
+      </c>
+      <c r="DM4" t="s">
         <v>182</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>183</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>187</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>189</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>182</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>188</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>164</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>186</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>186</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>191</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>191</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>173</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>171</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>186</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>191</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>186</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>193</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>195</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>197</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>199</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>201</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>203</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>204</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>171</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>173</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>205</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>164</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>186</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>186</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>186</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>186</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>186</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>191</v>
-      </c>
-      <c r="CO4" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>207</v>
-      </c>
-      <c r="CQ4">
-        <v>8</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>208</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>210</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>186</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>154</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>177</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>212</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>179</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>214</v>
-      </c>
-      <c r="DA4" t="s">
-        <v>183</v>
-      </c>
-      <c r="DB4" t="s">
-        <v>215</v>
-      </c>
-      <c r="DC4" t="s">
-        <v>186</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>207</v>
-      </c>
-      <c r="DE4">
-        <v>8</v>
-      </c>
-      <c r="DF4" t="s">
-        <v>208</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>210</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>186</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>154</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>177</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>212</v>
-      </c>
       <c r="DN4" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="DO4" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="DP4" t="s">
-        <v>165</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>164</v>
+        <v>230</v>
       </c>
       <c r="DR4" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="DS4" t="s">
-        <v>186</v>
+        <v>235</v>
       </c>
       <c r="DT4" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="DU4" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="DV4" t="s">
-        <v>186</v>
+        <v>212</v>
       </c>
       <c r="DW4" t="s">
-        <v>186</v>
-      </c>
-      <c r="DX4" t="s">
-        <v>186</v>
-      </c>
-      <c r="DY4" t="s">
-        <v>186</v>
-      </c>
-      <c r="DZ4" t="s">
-        <v>171</v>
-      </c>
-      <c r="EA4" t="s">
-        <v>164</v>
-      </c>
-      <c r="EB4" t="s">
-        <v>173</v>
-      </c>
-      <c r="EC4" t="s">
-        <v>186</v>
-      </c>
-      <c r="ED4" t="s">
-        <v>186</v>
-      </c>
-      <c r="EE4" t="s">
-        <v>186</v>
-      </c>
-      <c r="EF4" t="s">
-        <v>186</v>
-      </c>
-      <c r="EG4" t="s">
-        <v>186</v>
-      </c>
-      <c r="EH4" t="s">
-        <v>186</v>
-      </c>
-      <c r="EI4" t="s">
-        <v>164</v>
-      </c>
-      <c r="EJ4" t="s">
-        <v>173</v>
-      </c>
-      <c r="EK4" t="s">
-        <v>186</v>
-      </c>
-      <c r="EL4" t="s">
-        <v>186</v>
-      </c>
-      <c r="EM4" t="s">
-        <v>186</v>
-      </c>
-      <c r="EN4" t="s">
-        <v>186</v>
-      </c>
-      <c r="EO4" t="s">
-        <v>186</v>
-      </c>
-      <c r="EP4" t="s">
-        <v>186</v>
-      </c>
-      <c r="EQ4" t="s">
-        <v>171</v>
-      </c>
-      <c r="ER4" t="s">
-        <v>205</v>
-      </c>
-      <c r="ES4" t="s">
-        <v>164</v>
-      </c>
-      <c r="ET4" t="s">
-        <v>205</v>
-      </c>
-      <c r="EU4" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:151">
+    <row r="5" spans="1:153">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C5" t="b">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="I5" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -2632,306 +2539,1941 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="O5" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="P5" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="Q5" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="R5" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="S5" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="T5" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="U5">
         <v>4452</v>
       </c>
       <c r="V5" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="W5" t="s">
+        <v>179</v>
+      </c>
+      <c r="X5" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>230</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>232</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>212</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>212</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>212</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>212</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>212</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>212</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>232</v>
+      </c>
+      <c r="BG5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>239</v>
+      </c>
+      <c r="BI5">
+        <v>8</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>240</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>241</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>159</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>198</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>248</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>206</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>250</v>
+      </c>
+      <c r="BU5" t="s">
+        <v>239</v>
+      </c>
+      <c r="BV5">
+        <v>8</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>240</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>241</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>246</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>198</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>248</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>230</v>
+      </c>
+      <c r="CI5" t="s">
+        <v>235</v>
+      </c>
+      <c r="CL5" t="s">
+        <v>212</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>212</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>212</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>212</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>212</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>212</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>212</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>212</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>212</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>212</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>230</v>
+      </c>
+      <c r="CY5" t="s">
+        <v>212</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>212</v>
+      </c>
+      <c r="DH5" t="s">
+        <v>230</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>212</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>232</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>212</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>232</v>
+      </c>
+      <c r="DM5" t="s">
+        <v>232</v>
+      </c>
+      <c r="DP5" t="s">
+        <v>230</v>
+      </c>
+      <c r="DR5" t="s">
+        <v>212</v>
+      </c>
+      <c r="DS5" t="s">
+        <v>232</v>
+      </c>
+      <c r="DT5" t="s">
+        <v>212</v>
+      </c>
+      <c r="DU5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:153">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E6" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>170</v>
+      </c>
+      <c r="O6" t="s">
+        <v>175</v>
+      </c>
+      <c r="P6" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>179</v>
+      </c>
+      <c r="R6" t="s">
+        <v>180</v>
+      </c>
+      <c r="S6" t="s">
+        <v>182</v>
+      </c>
+      <c r="T6" t="s">
+        <v>183</v>
+      </c>
+      <c r="U6">
+        <v>6119</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="W6" t="s">
+        <v>179</v>
+      </c>
+      <c r="X6" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>211</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>218</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>220</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>222</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>226</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>230</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>180</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>212</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>212</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>212</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>212</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>212</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>236</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>239</v>
+      </c>
+      <c r="BI6">
+        <v>8</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>240</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>242</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>160</v>
+      </c>
+      <c r="BO6" t="s">
+        <v>197</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>247</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>199</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>249</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>206</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>250</v>
+      </c>
+      <c r="BU6" t="s">
+        <v>239</v>
+      </c>
+      <c r="BV6">
+        <v>8</v>
+      </c>
+      <c r="BW6" t="s">
+        <v>240</v>
+      </c>
+      <c r="BX6" t="s">
+        <v>242</v>
+      </c>
+      <c r="BY6" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>160</v>
+      </c>
+      <c r="CC6" t="s">
+        <v>197</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>247</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>199</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>249</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>230</v>
+      </c>
+      <c r="CI6" t="s">
+        <v>233</v>
+      </c>
+      <c r="CJ6" t="s">
+        <v>182</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>180</v>
+      </c>
+      <c r="CL6" t="s">
+        <v>212</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>231</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>251</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>212</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>180</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>233</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>251</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>212</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>180</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>233</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>234</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>180</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>230</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>230</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>212</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>212</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>236</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>236</v>
+      </c>
+      <c r="DM6" t="s">
+        <v>233</v>
+      </c>
+      <c r="DN6" t="s">
+        <v>234</v>
+      </c>
+      <c r="DO6" t="s">
+        <v>180</v>
+      </c>
+      <c r="DP6" t="s">
+        <v>230</v>
+      </c>
+      <c r="DR6" t="s">
+        <v>212</v>
+      </c>
+      <c r="DS6" t="s">
+        <v>236</v>
+      </c>
+      <c r="DT6" t="s">
+        <v>212</v>
+      </c>
+      <c r="DU6" t="s">
+        <v>212</v>
+      </c>
+      <c r="DX6" t="s">
+        <v>212</v>
+      </c>
+      <c r="DY6" t="s">
+        <v>212</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>212</v>
+      </c>
+      <c r="EA6" t="s">
+        <v>212</v>
+      </c>
+      <c r="EB6" t="s">
+        <v>212</v>
+      </c>
+      <c r="EC6" t="s">
+        <v>212</v>
+      </c>
+      <c r="ED6" t="s">
+        <v>212</v>
+      </c>
+      <c r="EE6" t="s">
+        <v>212</v>
+      </c>
+      <c r="EF6" t="s">
+        <v>230</v>
+      </c>
+      <c r="EG6" t="s">
+        <v>180</v>
+      </c>
+      <c r="EH6" t="s">
+        <v>233</v>
+      </c>
+      <c r="EI6" t="s">
+        <v>212</v>
+      </c>
+      <c r="EJ6" t="s">
+        <v>212</v>
+      </c>
+      <c r="EK6" t="s">
+        <v>212</v>
+      </c>
+      <c r="EL6" t="s">
+        <v>212</v>
+      </c>
+      <c r="EM6" t="s">
+        <v>212</v>
+      </c>
+      <c r="EN6" t="s">
+        <v>212</v>
+      </c>
+      <c r="EO6" t="s">
+        <v>180</v>
+      </c>
+      <c r="EP6" t="s">
+        <v>233</v>
+      </c>
+      <c r="EQ6" t="s">
+        <v>212</v>
+      </c>
+      <c r="ER6" t="s">
+        <v>212</v>
+      </c>
+      <c r="ES6" t="s">
+        <v>212</v>
+      </c>
+      <c r="ET6" t="s">
+        <v>212</v>
+      </c>
+      <c r="EU6" t="s">
+        <v>212</v>
+      </c>
+      <c r="EV6" t="s">
+        <v>212</v>
+      </c>
+      <c r="EW6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:153">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>169</v>
+      </c>
+      <c r="O7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>179</v>
+      </c>
+      <c r="R7" t="s">
+        <v>180</v>
+      </c>
+      <c r="S7" t="s">
+        <v>182</v>
+      </c>
+      <c r="T7" t="s">
+        <v>183</v>
+      </c>
+      <c r="U7">
+        <v>4452</v>
+      </c>
+      <c r="V7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="W7" t="s">
+        <v>179</v>
+      </c>
+      <c r="X7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE7" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>221</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>230</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>232</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>212</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>212</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>212</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>212</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>212</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>212</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>232</v>
+      </c>
+      <c r="BG7" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>239</v>
+      </c>
+      <c r="BI7">
+        <v>8</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>240</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>241</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>159</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>246</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>198</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>248</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>206</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>250</v>
+      </c>
+      <c r="BU7" t="s">
+        <v>239</v>
+      </c>
+      <c r="BV7">
+        <v>8</v>
+      </c>
+      <c r="BW7" t="s">
+        <v>240</v>
+      </c>
+      <c r="BX7" t="s">
+        <v>241</v>
+      </c>
+      <c r="BY7" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>159</v>
+      </c>
+      <c r="CC7" t="s">
+        <v>196</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>246</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>198</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>248</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>230</v>
+      </c>
+      <c r="CI7" t="s">
+        <v>235</v>
+      </c>
+      <c r="CL7" t="s">
+        <v>212</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>212</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>212</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>212</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>212</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>212</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>212</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>212</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>212</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>212</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>230</v>
+      </c>
+      <c r="CY7" t="s">
+        <v>212</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>212</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>230</v>
+      </c>
+      <c r="DI7" t="s">
+        <v>212</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>232</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>212</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>232</v>
+      </c>
+      <c r="DM7" t="s">
+        <v>232</v>
+      </c>
+      <c r="DP7" t="s">
+        <v>230</v>
+      </c>
+      <c r="DR7" t="s">
+        <v>212</v>
+      </c>
+      <c r="DS7" t="s">
+        <v>232</v>
+      </c>
+      <c r="DT7" t="s">
+        <v>212</v>
+      </c>
+      <c r="DU7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:153">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" t="s">
+        <v>158</v>
+      </c>
+      <c r="I8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>168</v>
+      </c>
+      <c r="O8" t="s">
+        <v>173</v>
+      </c>
+      <c r="P8" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>179</v>
+      </c>
+      <c r="R8" t="s">
+        <v>180</v>
+      </c>
+      <c r="S8" t="s">
+        <v>182</v>
+      </c>
+      <c r="T8" t="s">
+        <v>183</v>
+      </c>
+      <c r="U8">
+        <v>4788</v>
+      </c>
+      <c r="V8" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="W8" t="s">
+        <v>179</v>
+      </c>
+      <c r="X8" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>215</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>203</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>209</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>221</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>230</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>233</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>180</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>212</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>212</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>212</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>212</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>212</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>235</v>
+      </c>
+      <c r="BG8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>239</v>
+      </c>
+      <c r="BI8">
+        <v>8</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>240</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>241</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>158</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>195</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>245</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>198</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>248</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>206</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>250</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>239</v>
+      </c>
+      <c r="BV8">
+        <v>8</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>240</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>241</v>
+      </c>
+      <c r="BY8" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>158</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>195</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>245</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>198</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>248</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>230</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>182</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>233</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>180</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>212</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>212</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>212</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>212</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>212</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>212</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>212</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>212</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>212</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>212</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>212</v>
+      </c>
+      <c r="CW8" t="s">
+        <v>212</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>230</v>
+      </c>
+      <c r="CY8" t="s">
+        <v>212</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>212</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>212</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>212</v>
+      </c>
+      <c r="DH8" t="s">
+        <v>230</v>
+      </c>
+      <c r="DI8" t="s">
+        <v>212</v>
+      </c>
+      <c r="DJ8" t="s">
+        <v>235</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>212</v>
+      </c>
+      <c r="DL8" t="s">
+        <v>235</v>
+      </c>
+      <c r="DM8" t="s">
+        <v>182</v>
+      </c>
+      <c r="DN8" t="s">
+        <v>233</v>
+      </c>
+      <c r="DO8" t="s">
+        <v>180</v>
+      </c>
+      <c r="DP8" t="s">
+        <v>230</v>
+      </c>
+      <c r="DR8" t="s">
+        <v>212</v>
+      </c>
+      <c r="DS8" t="s">
+        <v>235</v>
+      </c>
+      <c r="DT8" t="s">
+        <v>212</v>
+      </c>
+      <c r="DU8" t="s">
+        <v>212</v>
+      </c>
+      <c r="DV8" t="s">
+        <v>212</v>
+      </c>
+      <c r="DW8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:153">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
         <v>167</v>
       </c>
-      <c r="W5" t="s">
-        <v>163</v>
-      </c>
-      <c r="X5" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="O9" t="s">
+        <v>172</v>
+      </c>
+      <c r="P9" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>179</v>
+      </c>
+      <c r="R9" t="s">
+        <v>180</v>
+      </c>
+      <c r="S9" t="s">
+        <v>182</v>
+      </c>
+      <c r="T9" t="s">
+        <v>183</v>
+      </c>
+      <c r="U9">
+        <v>4704</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="W9" t="s">
+        <v>179</v>
+      </c>
+      <c r="X9" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>198</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>208</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>221</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>230</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>230</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>230</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>180</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>212</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>212</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>212</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>212</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>212</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>235</v>
+      </c>
+      <c r="BG9" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>239</v>
+      </c>
+      <c r="BI9">
+        <v>8</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>240</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>241</v>
+      </c>
+      <c r="BL9" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>157</v>
+      </c>
+      <c r="BO9" t="s">
+        <v>194</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>244</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>198</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>248</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>206</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>250</v>
+      </c>
+      <c r="BU9" t="s">
+        <v>239</v>
+      </c>
+      <c r="BV9">
+        <v>8</v>
+      </c>
+      <c r="BW9" t="s">
+        <v>240</v>
+      </c>
+      <c r="BX9" t="s">
+        <v>241</v>
+      </c>
+      <c r="BY9" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>157</v>
+      </c>
+      <c r="CC9" t="s">
+        <v>194</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>244</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>198</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>248</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>230</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>233</v>
+      </c>
+      <c r="CJ9" t="s">
+        <v>251</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>212</v>
+      </c>
+      <c r="CL9" t="s">
+        <v>212</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>212</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>212</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>212</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>212</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>212</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>212</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>212</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>212</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>212</v>
+      </c>
+      <c r="CV9" t="s">
+        <v>231</v>
+      </c>
+      <c r="CW9" t="s">
+        <v>180</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>230</v>
+      </c>
+      <c r="CY9" t="s">
+        <v>212</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>212</v>
+      </c>
+      <c r="DH9" t="s">
+        <v>230</v>
+      </c>
+      <c r="DI9" t="s">
+        <v>212</v>
+      </c>
+      <c r="DJ9" t="s">
+        <v>231</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>252</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>235</v>
+      </c>
+      <c r="DM9" t="s">
+        <v>231</v>
+      </c>
+      <c r="DN9" t="s">
+        <v>231</v>
+      </c>
+      <c r="DO9" t="s">
+        <v>180</v>
+      </c>
+      <c r="DP9" t="s">
+        <v>230</v>
+      </c>
+      <c r="DR9" t="s">
+        <v>212</v>
+      </c>
+      <c r="DS9" t="s">
+        <v>235</v>
+      </c>
+      <c r="DT9" t="s">
+        <v>212</v>
+      </c>
+      <c r="DU9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="10" spans="1:153">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>166</v>
+      </c>
+      <c r="O10" t="s">
         <v>171</v>
       </c>
-      <c r="AD5" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>174</v>
-      </c>
-      <c r="AF5" t="s">
+      <c r="P10" t="s">
         <v>176</v>
       </c>
-      <c r="AG5" t="s">
-        <v>178</v>
-      </c>
-      <c r="AH5" s="2" t="s">
+      <c r="Q10" t="s">
+        <v>179</v>
+      </c>
+      <c r="R10" t="s">
         <v>180</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="S10" t="s">
         <v>181</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="T10" t="s">
         <v>183</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="U10">
+        <v>2573</v>
+      </c>
+      <c r="V10" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AL5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>184</v>
-      </c>
-      <c r="AT5" t="s">
+      <c r="W10" t="s">
+        <v>179</v>
+      </c>
+      <c r="X10" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z10" t="s">
         <v>181</v>
       </c>
-      <c r="AU5" t="s">
-        <v>184</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA5" t="s">
-        <v>186</v>
-      </c>
-      <c r="BB5" t="s">
-        <v>186</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>171</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>186</v>
-      </c>
-      <c r="BL5" t="s">
+      <c r="AA10" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="BM5" t="s">
-        <v>186</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>190</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>190</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>171</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>186</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>190</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>186</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>194</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>196</v>
-      </c>
-      <c r="BX5" t="s">
+      <c r="AB10" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD10" t="s">
         <v>198</v>
       </c>
-      <c r="BY5" t="s">
+      <c r="AE10" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="BZ5" t="s">
-        <v>202</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>204</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>171</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>171</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>171</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>171</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>190</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>186</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>186</v>
-      </c>
-      <c r="CI5" t="s">
-        <v>186</v>
-      </c>
-      <c r="CJ5" t="s">
-        <v>186</v>
-      </c>
-      <c r="CK5" t="s">
-        <v>186</v>
-      </c>
-      <c r="CL5" t="s">
-        <v>186</v>
-      </c>
-      <c r="CM5" t="s">
-        <v>186</v>
-      </c>
-      <c r="CN5" t="s">
-        <v>190</v>
-      </c>
-      <c r="CO5" s="2" t="s">
+      <c r="AF10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG10" t="s">
         <v>206</v>
       </c>
-      <c r="CP5" t="s">
+      <c r="AH10" t="s">
         <v>207</v>
       </c>
-      <c r="CQ5">
-        <v>8</v>
-      </c>
-      <c r="CR5" t="s">
-        <v>208</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>209</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>186</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>153</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>176</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>211</v>
-      </c>
-      <c r="CY5" t="s">
-        <v>178</v>
-      </c>
-      <c r="CZ5" t="s">
+      <c r="AI10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>213</v>
       </c>
-      <c r="DA5" t="s">
-        <v>183</v>
-      </c>
-      <c r="DB5" t="s">
-        <v>215</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>186</v>
-      </c>
-      <c r="DD5" t="s">
+      <c r="AK10" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL10" t="s">
         <v>207</v>
       </c>
-      <c r="DE5">
-        <v>8</v>
-      </c>
-      <c r="DF5" t="s">
-        <v>208</v>
-      </c>
-      <c r="DG5" t="s">
-        <v>209</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>186</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>153</v>
-      </c>
-      <c r="DL5" t="s">
-        <v>176</v>
-      </c>
-      <c r="DM5" t="s">
-        <v>211</v>
-      </c>
-      <c r="DN5" t="s">
-        <v>178</v>
-      </c>
-      <c r="DO5" t="s">
-        <v>213</v>
+      <c r="AM10" t="s">
+        <v>217</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>221</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>223</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>227</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>229</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>230</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>230</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>230</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>230</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>212</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BG10" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>238</v>
+      </c>
+      <c r="BI10">
+        <v>10</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>240</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>241</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>212</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>156</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>243</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>198</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>248</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>206</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>250</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>238</v>
+      </c>
+      <c r="BV10">
+        <v>10</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>240</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>241</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>212</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>156</v>
+      </c>
+      <c r="CC10" t="s">
+        <v>193</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>243</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>198</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="V2" r:id="rId1"/>
     <hyperlink ref="AA2" r:id="rId2"/>
-    <hyperlink ref="AH2" r:id="rId3"/>
-    <hyperlink ref="CO2" r:id="rId4"/>
+    <hyperlink ref="AE2" r:id="rId3"/>
+    <hyperlink ref="BG2" r:id="rId4"/>
     <hyperlink ref="V3" r:id="rId5"/>
     <hyperlink ref="AA3" r:id="rId6"/>
-    <hyperlink ref="AH3" r:id="rId7"/>
-    <hyperlink ref="CO3" r:id="rId8"/>
+    <hyperlink ref="AE3" r:id="rId7"/>
+    <hyperlink ref="BG3" r:id="rId8"/>
     <hyperlink ref="V4" r:id="rId9"/>
     <hyperlink ref="AA4" r:id="rId10"/>
-    <hyperlink ref="AH4" r:id="rId11"/>
-    <hyperlink ref="CO4" r:id="rId12"/>
+    <hyperlink ref="AE4" r:id="rId11"/>
+    <hyperlink ref="BG4" r:id="rId12"/>
     <hyperlink ref="V5" r:id="rId13"/>
     <hyperlink ref="AA5" r:id="rId14"/>
-    <hyperlink ref="AH5" r:id="rId15"/>
-    <hyperlink ref="CO5" r:id="rId16"/>
+    <hyperlink ref="AE5" r:id="rId15"/>
+    <hyperlink ref="BG5" r:id="rId16"/>
+    <hyperlink ref="V6" r:id="rId17"/>
+    <hyperlink ref="AA6" r:id="rId18"/>
+    <hyperlink ref="AE6" r:id="rId19"/>
+    <hyperlink ref="BG6" r:id="rId20"/>
+    <hyperlink ref="V7" r:id="rId21"/>
+    <hyperlink ref="AA7" r:id="rId22"/>
+    <hyperlink ref="AE7" r:id="rId23"/>
+    <hyperlink ref="BG7" r:id="rId24"/>
+    <hyperlink ref="V8" r:id="rId25"/>
+    <hyperlink ref="AA8" r:id="rId26"/>
+    <hyperlink ref="AE8" r:id="rId27"/>
+    <hyperlink ref="BG8" r:id="rId28"/>
+    <hyperlink ref="V9" r:id="rId29"/>
+    <hyperlink ref="AA9" r:id="rId30"/>
+    <hyperlink ref="AE9" r:id="rId31"/>
+    <hyperlink ref="BG9" r:id="rId32"/>
+    <hyperlink ref="V10" r:id="rId33"/>
+    <hyperlink ref="AA10" r:id="rId34"/>
+    <hyperlink ref="AE10" r:id="rId35"/>
+    <hyperlink ref="BG10" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="372">
   <si>
     <t>app_id</t>
   </si>
@@ -103,6 +103,15 @@
     <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu15-19</t>
   </si>
   <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu20-24</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu25-29</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu30-34</t>
+  </si>
+  <si>
     <t>form.commcare_usercase.case.@case_id</t>
   </si>
   <si>
@@ -166,243 +175,234 @@
     <t>form.grpHTS.hiv_negativeList.hivNegative15-19</t>
   </si>
   <si>
+    <t>form.grpHTS.hiv_negativeList.hivNegative20-24</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_negativeList.hivNegative25-29</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_negativeList.hivNegative30-34</t>
+  </si>
+  <si>
     <t>form.grpHTS.hiv_negativeList.total_surgicalDisposable</t>
   </si>
   <si>
+    <t>form.grpHTS.hiv_positiveList.total15-19HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total20-24HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total25-29HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total30-34HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total35-39HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total40-44HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total45-49HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total50HIVTested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_positiveList.total_surgicalReusable</t>
+  </si>
+  <si>
+    <t>form.grpHTS.totalHIVPositive</t>
+  </si>
+  <si>
+    <t>form.grpHTS.totalHIVUntested</t>
+  </si>
+  <si>
+    <t>form.grpHTS.totalhivNegative</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.TotalMCsBYMethod</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable15-19</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable20-24</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable25-29</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable30-34</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.surgical_disposable.total_surgicalDisposable</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.total50ByMethod</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.totalShangringMCs</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.totalSurgicalDisposableMCs</t>
+  </si>
+  <si>
+    <t>form.grpMCBYMethod.totalSurgicalReusableMCs</t>
+  </si>
+  <si>
+    <t>form.location_details.District</t>
+  </si>
+  <si>
+    <t>form.location_details.DistrictLabelDisplay</t>
+  </si>
+  <si>
+    <t>form.location_details.Province</t>
+  </si>
+  <si>
+    <t>form.location_details.ProvinceLabelDisplay</t>
+  </si>
+  <si>
+    <t>form.location_details.SiteLabelDisplay</t>
+  </si>
+  <si>
+    <t>form.location_details.Site_Name</t>
+  </si>
+  <si>
+    <t>form.location_details.countryID</t>
+  </si>
+  <si>
+    <t>form.location_details.districtName</t>
+  </si>
+  <si>
+    <t>form.location_details.provinceName</t>
+  </si>
+  <si>
+    <t>form.location_details.siteName</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.copy-1-of-mcs_by_age_disaggregations</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc15-19</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc20-24</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc25-29</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc30-34</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc35-39</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc40-44</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc45-49</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.mc50</t>
+  </si>
+  <si>
+    <t>form.mc_by_age_disaggregation.totalMCs</t>
+  </si>
+  <si>
+    <t>form.meta.@xmlns</t>
+  </si>
+  <si>
+    <t>form.meta.appVersion</t>
+  </si>
+  <si>
+    <t>form.meta.app_build_version</t>
+  </si>
+  <si>
+    <t>form.meta.commcare_version</t>
+  </si>
+  <si>
+    <t>form.meta.deviceID</t>
+  </si>
+  <si>
+    <t>form.meta.drift</t>
+  </si>
+  <si>
+    <t>form.meta.geo_point</t>
+  </si>
+  <si>
+    <t>form.meta.instanceID</t>
+  </si>
+  <si>
+    <t>form.meta.timeEnd</t>
+  </si>
+  <si>
+    <t>form.meta.timeStart</t>
+  </si>
+  <si>
+    <t>form.meta.userID</t>
+  </si>
+  <si>
+    <t>form.meta.username</t>
+  </si>
+  <si>
+    <t>form.recordingPeriodList.recordingMonth</t>
+  </si>
+  <si>
+    <t>form.recordingPeriodList.year</t>
+  </si>
+  <si>
+    <t>form.totalAES</t>
+  </si>
+  <si>
+    <t>metadata.appVersion</t>
+  </si>
+  <si>
+    <t>metadata.app_build_version</t>
+  </si>
+  <si>
+    <t>metadata.commcare_version</t>
+  </si>
+  <si>
+    <t>metadata.deviceID</t>
+  </si>
+  <si>
+    <t>metadata.drift</t>
+  </si>
+  <si>
+    <t>metadata.geo_point</t>
+  </si>
+  <si>
+    <t>metadata.instanceID</t>
+  </si>
+  <si>
+    <t>metadata.location</t>
+  </si>
+  <si>
+    <t>metadata.timeEnd</t>
+  </si>
+  <si>
+    <t>metadata.timeStart</t>
+  </si>
+  <si>
+    <t>metadata.userID</t>
+  </si>
+  <si>
+    <t>metadata.username</t>
+  </si>
+  <si>
+    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu35-39</t>
+  </si>
+  <si>
+    <t>form.grpHTS.hiv_negativeList.hivNegative35-39</t>
+  </si>
+  <si>
     <t>form.grpHTS.hiv_positiveList.hivPositive15-19</t>
   </si>
   <si>
-    <t>form.grpHTS.hiv_positiveList.total15-19HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total20-24HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total25-29HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total30-34HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total35-39HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total40-44HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total45-49HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total50HIVTested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_positiveList.total_surgicalReusable</t>
-  </si>
-  <si>
-    <t>form.grpHTS.totalHIVPositive</t>
-  </si>
-  <si>
-    <t>form.grpHTS.totalHIVUntested</t>
-  </si>
-  <si>
-    <t>form.grpHTS.totalhivNegative</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.TotalMCsBYMethod</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable15-19</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.surgical_disposable.total_surgicalDisposable</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.total50ByMethod</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.totalShangringMCs</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.totalSurgicalDisposableMCs</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.totalSurgicalReusableMCs</t>
-  </si>
-  <si>
-    <t>form.location_details.District</t>
-  </si>
-  <si>
-    <t>form.location_details.DistrictLabelDisplay</t>
-  </si>
-  <si>
-    <t>form.location_details.Province</t>
-  </si>
-  <si>
-    <t>form.location_details.ProvinceLabelDisplay</t>
-  </si>
-  <si>
-    <t>form.location_details.SiteLabelDisplay</t>
-  </si>
-  <si>
-    <t>form.location_details.Site_Name</t>
-  </si>
-  <si>
-    <t>form.location_details.countryID</t>
-  </si>
-  <si>
-    <t>form.location_details.districtName</t>
-  </si>
-  <si>
-    <t>form.location_details.provinceName</t>
-  </si>
-  <si>
-    <t>form.location_details.siteName</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.copy-1-of-mcs_by_age_disaggregations</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc15-19</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc20-24</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc25-29</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc30-34</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc35-39</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc40-44</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc45-49</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.mc50</t>
-  </si>
-  <si>
-    <t>form.mc_by_age_disaggregation.totalMCs</t>
-  </si>
-  <si>
-    <t>form.meta.@xmlns</t>
-  </si>
-  <si>
-    <t>form.meta.appVersion</t>
-  </si>
-  <si>
-    <t>form.meta.app_build_version</t>
-  </si>
-  <si>
-    <t>form.meta.commcare_version</t>
-  </si>
-  <si>
-    <t>form.meta.deviceID</t>
-  </si>
-  <si>
-    <t>form.meta.drift</t>
-  </si>
-  <si>
-    <t>form.meta.geo_point</t>
-  </si>
-  <si>
-    <t>form.meta.instanceID</t>
-  </si>
-  <si>
-    <t>form.meta.timeEnd</t>
-  </si>
-  <si>
-    <t>form.meta.timeStart</t>
-  </si>
-  <si>
-    <t>form.meta.userID</t>
-  </si>
-  <si>
-    <t>form.meta.username</t>
-  </si>
-  <si>
-    <t>form.recordingPeriodList.recordingMonth</t>
-  </si>
-  <si>
-    <t>form.recordingPeriodList.year</t>
-  </si>
-  <si>
-    <t>form.totalAES</t>
-  </si>
-  <si>
-    <t>metadata.appVersion</t>
-  </si>
-  <si>
-    <t>metadata.app_build_version</t>
-  </si>
-  <si>
-    <t>metadata.commcare_version</t>
-  </si>
-  <si>
-    <t>metadata.deviceID</t>
-  </si>
-  <si>
-    <t>metadata.drift</t>
-  </si>
-  <si>
-    <t>metadata.geo_point</t>
-  </si>
-  <si>
-    <t>metadata.instanceID</t>
-  </si>
-  <si>
-    <t>metadata.location</t>
-  </si>
-  <si>
-    <t>metadata.timeEnd</t>
-  </si>
-  <si>
-    <t>metadata.timeStart</t>
-  </si>
-  <si>
-    <t>metadata.userID</t>
-  </si>
-  <si>
-    <t>metadata.username</t>
-  </si>
-  <si>
-    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu20-24</t>
-  </si>
-  <si>
-    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu25-29</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_negativeList.hivNegative20-24</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_negativeList.hivNegative25-29</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable20-24</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable25-29</t>
-  </si>
-  <si>
-    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu30-34</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_negativeList.hivNegative30-34</t>
-  </si>
-  <si>
-    <t>form.grpMCBYMethod.surgical_disposable.sgDisposable30-34</t>
-  </si>
-  <si>
-    <t>form.client_follow-upGRP.follow-up_by_age_disaggregation.fu35-39</t>
-  </si>
-  <si>
-    <t>form.grpHTS.hiv_negativeList.hivNegative35-39</t>
-  </si>
-  <si>
     <t>form.grpMCBYMethod.surgical_disposable.sgDisposable35-39</t>
   </si>
   <si>
@@ -433,6 +433,12 @@
     <t>zdip</t>
   </si>
   <si>
+    <t>ee210dc7-56c7-41b0-81b0-6e4aceee0156</t>
+  </si>
+  <si>
+    <t>10056c0b-5e9e-4105-bbae-a30ea9659aa8</t>
+  </si>
+  <si>
     <t>079bf279-c46d-4d78-89c9-9e207b97da82</t>
   </si>
   <si>
@@ -481,6 +487,12 @@
     <t>b8bc25a7-af9a-4262-b100-603790de6741</t>
   </si>
   <si>
+    <t>2025-03-14T06:11:10.108571Z</t>
+  </si>
+  <si>
+    <t>2025-03-14T06:10:13.321836Z</t>
+  </si>
+  <si>
     <t>2025-03-07T10:33:20.694670Z</t>
   </si>
   <si>
@@ -529,6 +541,12 @@
     <t>2025-03-04T11:19:42.936242Z</t>
   </si>
   <si>
+    <t>2025-03-14T06:11:09.992889Z</t>
+  </si>
+  <si>
+    <t>2025-03-14T06:08:43.323353Z</t>
+  </si>
+  <si>
     <t>2025-03-07T10:33:20.615279Z</t>
   </si>
   <si>
@@ -577,6 +595,12 @@
     <t>2025-03-04T11:19:42.842238Z</t>
   </si>
   <si>
+    <t>2025-03-14T06:11:10.055490Z</t>
+  </si>
+  <si>
+    <t>2025-03-14T06:08:43.385324Z</t>
+  </si>
+  <si>
     <t>2025-03-07T10:33:20.647870Z</t>
   </si>
   <si>
@@ -625,6 +649,9 @@
     <t>2025-03-04T11:19:42.904370Z</t>
   </si>
   <si>
+    <t>197.221.254.92</t>
+  </si>
+  <si>
     <t>197.221.255.49</t>
   </si>
   <si>
@@ -652,6 +679,12 @@
     <t>text/xml</t>
   </si>
   <si>
+    <t>https://zdip.zimttech.org/a/zdip/api/form_attachment/v1/ee210dc7-56c7-41b0-81b0-6e4aceee0156/form.xml</t>
+  </si>
+  <si>
+    <t>https://zdip.zimttech.org/a/zdip/api/form_attachment/v1/10056c0b-5e9e-4105-bbae-a30ea9659aa8/form.xml</t>
+  </si>
+  <si>
     <t>https://zdip.zimttech.org/a/zdip/api/form_attachment/v1/079bf279-c46d-4d78-89c9-9e207b97da82/form.xml</t>
   </si>
   <si>
@@ -709,12 +742,15 @@
     <t>OK</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>38</t>
   </si>
   <si>
@@ -727,9 +763,6 @@
     <t>24</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -739,12 +772,24 @@
     <t>11</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>c9f68807142c4de392896ff02fc03864</t>
   </si>
   <si>
     <t>ec7c10778d7d4f0696a7438aca99b0e9</t>
   </si>
   <si>
+    <t>2025-03-14T06:11:09.445000Z</t>
+  </si>
+  <si>
+    <t>2025-03-14T06:08:42.935000Z</t>
+  </si>
+  <si>
     <t>2025-03-07T10:33:20.234000Z</t>
   </si>
   <si>
@@ -802,6 +847,9 @@
     <t>http://commcarehq.org/case/transaction/v2</t>
   </si>
   <si>
+    <t>Kasimure Clinic</t>
+  </si>
+  <si>
     <t>Moy Clinic</t>
   </si>
   <si>
@@ -844,6 +892,12 @@
     <t>January</t>
   </si>
   <si>
+    <t>Chirundu ClinicJanuary2025Helywin ClinicJanuary2025Karoi District HospitalJanuary2025Zebra downs ClinicJanuary2025Nyamakate ClinicJanuary2025Moy ClinicJanuary2025Nyangoma ClinicJanuary2025Karuru ClinicJanuary2025Karoi District HospitalFebruary2025Helywin ClinicFebruary2025Zebra downs ClinicFebruary2025Moy ClinicFebruary2025Kasimure ClinicJanuary2025Kasimure ClinicFebruary2025</t>
+  </si>
+  <si>
+    <t>Chirundu ClinicJanuary2025Helywin ClinicJanuary2025Karoi District HospitalJanuary2025Zebra downs ClinicJanuary2025Nyamakate ClinicJanuary2025Moy ClinicJanuary2025Nyangoma ClinicJanuary2025Karuru ClinicJanuary2025Karoi District HospitalFebruary2025Helywin ClinicFebruary2025Zebra downs ClinicFebruary2025Moy ClinicFebruary2025Kasimure ClinicJanuary2025</t>
+  </si>
+  <si>
     <t>Chirundu ClinicJanuary2025Helywin ClinicJanuary2025Karoi District HospitalJanuary2025Zebra downs ClinicJanuary2025Nyamakate ClinicJanuary2025Moy ClinicJanuary2025Nyangoma ClinicJanuary2025Karuru ClinicJanuary2025Karoi District HospitalFebruary2025Helywin ClinicFebruary2025Zebra downs ClinicFebruary2025Moy ClinicFebruary2025</t>
   </si>
   <si>
@@ -892,7 +946,10 @@
     <t>Tengwe ClinicFebruary2025</t>
   </si>
   <si>
-    <t>0</t>
+    <t>Kasimure ClinicFebruary2025</t>
+  </si>
+  <si>
+    <t>Kasimure ClinicJanuary2025</t>
   </si>
   <si>
     <t>Moy ClinicFebruary2025</t>
@@ -949,18 +1006,15 @@
     <t>12</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>37</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>45</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
@@ -1013,6 +1067,12 @@
   </si>
   <si>
     <t>commcare_9d7061d4-2fb6-4b3f-838d-3f38eba90be1</t>
+  </si>
+  <si>
+    <t>2025-03-14T06:08:58.209000Z</t>
+  </si>
+  <si>
+    <t>2025-03-14T06:05:54.392000Z</t>
   </si>
   <si>
     <t>2025-03-07T10:32:21.182000Z</t>
@@ -1440,7 +1500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EF17"/>
+  <dimension ref="A1:EF19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1873,7 +1933,7 @@
         <v>139</v>
       </c>
       <c r="I2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -1882,286 +1942,307 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="O2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="P2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="R2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="S2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T2" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="U2">
-        <v>5059</v>
+        <v>5415</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="W2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="X2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="Y2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Z2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="AB2" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AD2" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="AE2" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AF2" t="s">
-        <v>243</v>
+        <v>217</v>
       </c>
       <c r="AG2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>261</v>
+        <v>217</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>254</v>
       </c>
       <c r="AI2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AJ2" t="s">
         <v>274</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AK2" s="2" t="s">
         <v>276</v>
       </c>
       <c r="AL2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AM2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AN2" t="s">
         <v>292</v>
       </c>
       <c r="AO2" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AP2" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AQ2" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AR2" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AS2" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="AT2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AU2" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="AV2" t="s">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="AW2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="AX2" t="s">
         <v>292</v>
       </c>
       <c r="AY2" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="AZ2" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="BA2" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="BB2" t="s">
-        <v>208</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>232</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>208</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>231</v>
+        <v>242</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>217</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>241</v>
       </c>
       <c r="BO2" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="BP2" t="s">
-        <v>230</v>
+        <v>253</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>253</v>
       </c>
       <c r="BR2" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="BS2" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="BT2" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="BU2" t="s">
-        <v>318</v>
+        <v>247</v>
       </c>
       <c r="BV2" t="s">
-        <v>319</v>
+        <v>217</v>
       </c>
       <c r="BW2" t="s">
-        <v>320</v>
+        <v>217</v>
       </c>
       <c r="BX2" t="s">
-        <v>321</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="BZ2" t="s">
-        <v>324</v>
+        <v>253</v>
       </c>
       <c r="CA2" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="CB2" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="CC2" t="s">
-        <v>230</v>
+        <v>336</v>
       </c>
       <c r="CD2" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="CE2" t="s">
-        <v>230</v>
+        <v>338</v>
       </c>
       <c r="CF2" t="s">
-        <v>231</v>
+        <v>339</v>
       </c>
       <c r="CG2" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="CH2" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="CI2" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="CJ2" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CK2" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CL2" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CM2" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CN2" t="s">
-        <v>231</v>
-      </c>
-      <c r="CO2" s="2" t="s">
-        <v>327</v>
+        <v>242</v>
+      </c>
+      <c r="CO2" t="s">
+        <v>247</v>
       </c>
       <c r="CP2" t="s">
-        <v>328</v>
-      </c>
-      <c r="CQ2">
+        <v>217</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>217</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>253</v>
+      </c>
+      <c r="CS2" t="s">
+        <v>253</v>
+      </c>
+      <c r="CT2" t="s">
+        <v>253</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>253</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>252</v>
+      </c>
+      <c r="CW2" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="CX2" t="s">
+        <v>346</v>
+      </c>
+      <c r="CY2">
         <v>10</v>
       </c>
-      <c r="CR2" t="s">
-        <v>330</v>
-      </c>
-      <c r="CS2" t="s">
-        <v>331</v>
-      </c>
-      <c r="CT2" t="s">
-        <v>292</v>
-      </c>
-      <c r="CV2" t="s">
+      <c r="CZ2" t="s">
+        <v>348</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>349</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>253</v>
+      </c>
+      <c r="DD2" t="s">
         <v>139</v>
       </c>
-      <c r="CW2" t="s">
-        <v>243</v>
-      </c>
-      <c r="CX2" t="s">
-        <v>333</v>
-      </c>
-      <c r="CY2" t="s">
-        <v>259</v>
-      </c>
-      <c r="CZ2" t="s">
-        <v>349</v>
-      </c>
-      <c r="DA2" t="s">
+      <c r="DE2" t="s">
+        <v>256</v>
+      </c>
+      <c r="DF2" t="s">
+        <v>351</v>
+      </c>
+      <c r="DG2" t="s">
         <v>274</v>
       </c>
-      <c r="DB2" t="s">
-        <v>351</v>
-      </c>
-      <c r="DC2" t="s">
-        <v>292</v>
-      </c>
-      <c r="DD2" t="s">
-        <v>328</v>
-      </c>
-      <c r="DE2">
+      <c r="DH2" t="s">
+        <v>369</v>
+      </c>
+      <c r="DI2" t="s">
+        <v>290</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>371</v>
+      </c>
+      <c r="DK2" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL2" t="s">
+        <v>346</v>
+      </c>
+      <c r="DM2">
         <v>10</v>
       </c>
-      <c r="DF2" t="s">
-        <v>330</v>
-      </c>
-      <c r="DG2" t="s">
-        <v>331</v>
-      </c>
-      <c r="DH2" t="s">
-        <v>292</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>139</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>243</v>
-      </c>
-      <c r="DM2" t="s">
-        <v>333</v>
-      </c>
       <c r="DN2" t="s">
-        <v>259</v>
+        <v>348</v>
       </c>
       <c r="DO2" t="s">
         <v>349</v>
+      </c>
+      <c r="DP2" t="s">
+        <v>253</v>
+      </c>
+      <c r="DR2" t="s">
+        <v>139</v>
+      </c>
+      <c r="DT2" t="s">
+        <v>256</v>
+      </c>
+      <c r="DU2" t="s">
+        <v>351</v>
+      </c>
+      <c r="DV2" t="s">
+        <v>274</v>
+      </c>
+      <c r="DW2" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:136">
@@ -2184,7 +2265,7 @@
         <v>140</v>
       </c>
       <c r="I3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -2193,304 +2274,322 @@
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="O3" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q3" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="R3" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="S3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="U3">
-        <v>5238</v>
+        <v>5519</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="W3" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="X3" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="Y3" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Z3" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="AB3" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AD3" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="AE3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AG3" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH3" s="2" t="s">
-        <v>261</v>
+        <v>217</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>254</v>
       </c>
       <c r="AI3" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AJ3" t="s">
         <v>274</v>
       </c>
-      <c r="AK3" t="s">
+      <c r="AK3" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL3" t="s">
         <v>277</v>
       </c>
-      <c r="AL3" t="s">
-        <v>292</v>
-      </c>
       <c r="AM3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AO3" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AP3" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AQ3" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AR3" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AS3" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="AT3" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="AU3" t="s">
+        <v>253</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>311</v>
+      </c>
+      <c r="AW3" t="s">
         <v>277</v>
       </c>
-      <c r="AV3" t="s">
-        <v>292</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>292</v>
-      </c>
       <c r="AX3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AY3" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="AZ3" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="BA3" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="BB3" t="s">
-        <v>239</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>235</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>210</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>240</v>
+        <v>250</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>244</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>247</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>250</v>
       </c>
       <c r="BO3" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="BP3" t="s">
-        <v>230</v>
+        <v>253</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>247</v>
       </c>
       <c r="BR3" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="BS3" t="s">
-        <v>240</v>
+        <v>331</v>
       </c>
       <c r="BT3" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="BU3" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="BV3" t="s">
-        <v>319</v>
+        <v>247</v>
       </c>
       <c r="BW3" t="s">
-        <v>320</v>
+        <v>217</v>
       </c>
       <c r="BX3" t="s">
-        <v>321</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="BZ3" t="s">
-        <v>324</v>
+        <v>253</v>
       </c>
       <c r="CA3" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="CB3" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="CC3" t="s">
-        <v>230</v>
+        <v>336</v>
       </c>
       <c r="CD3" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="CE3" t="s">
-        <v>230</v>
+        <v>338</v>
       </c>
       <c r="CF3" t="s">
-        <v>232</v>
+        <v>339</v>
       </c>
       <c r="CG3" t="s">
-        <v>235</v>
+        <v>340</v>
       </c>
       <c r="CH3" t="s">
-        <v>235</v>
+        <v>342</v>
       </c>
       <c r="CI3" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="CJ3" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CK3" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CL3" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CM3" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CN3" t="s">
-        <v>240</v>
-      </c>
-      <c r="CO3" s="2" t="s">
-        <v>327</v>
+        <v>243</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>244</v>
       </c>
       <c r="CP3" t="s">
-        <v>328</v>
-      </c>
-      <c r="CQ3">
+        <v>247</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>217</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>217</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>253</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>253</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>253</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>331</v>
+      </c>
+      <c r="CW3" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>346</v>
+      </c>
+      <c r="CY3">
         <v>10</v>
       </c>
-      <c r="CR3" t="s">
-        <v>330</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>331</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>292</v>
-      </c>
-      <c r="CV3" t="s">
+      <c r="CZ3" t="s">
+        <v>348</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>349</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>253</v>
+      </c>
+      <c r="DD3" t="s">
         <v>140</v>
       </c>
-      <c r="CW3" t="s">
-        <v>244</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>334</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>259</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>349</v>
-      </c>
-      <c r="DA3" t="s">
+      <c r="DE3" t="s">
+        <v>257</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>352</v>
+      </c>
+      <c r="DG3" t="s">
         <v>274</v>
       </c>
-      <c r="DB3" t="s">
-        <v>351</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>292</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>328</v>
-      </c>
-      <c r="DE3">
+      <c r="DH3" t="s">
+        <v>369</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>291</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>371</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>346</v>
+      </c>
+      <c r="DM3">
         <v>10</v>
       </c>
-      <c r="DF3" t="s">
-        <v>330</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>331</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>292</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>140</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>244</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>334</v>
-      </c>
       <c r="DN3" t="s">
-        <v>259</v>
+        <v>348</v>
       </c>
       <c r="DO3" t="s">
         <v>349</v>
       </c>
       <c r="DP3" t="s">
-        <v>235</v>
-      </c>
-      <c r="DQ3" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="DR3" t="s">
-        <v>235</v>
-      </c>
-      <c r="DS3" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="DT3" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="DU3" t="s">
-        <v>235</v>
+        <v>352</v>
+      </c>
+      <c r="DV3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DW3" t="s">
+        <v>369</v>
+      </c>
+      <c r="DX3" t="s">
+        <v>217</v>
+      </c>
+      <c r="DY3" t="s">
+        <v>217</v>
+      </c>
+      <c r="DZ3" t="s">
+        <v>253</v>
+      </c>
+      <c r="EA3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:136">
@@ -2513,7 +2612,7 @@
         <v>141</v>
       </c>
       <c r="I4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -2522,304 +2621,286 @@
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O4" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="P4" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q4" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="R4" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="S4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T4" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="U4">
-        <v>5163</v>
+        <v>5059</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="W4" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="X4" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="Y4" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Z4" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="AB4" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AD4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>261</v>
+        <v>244</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>254</v>
       </c>
       <c r="AI4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AJ4" t="s">
         <v>274</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AK4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL4" t="s">
         <v>278</v>
       </c>
-      <c r="AL4" t="s">
-        <v>292</v>
-      </c>
       <c r="AM4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AN4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AO4" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AP4" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AQ4" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AR4" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AS4" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="AT4" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="AU4" t="s">
+        <v>253</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>312</v>
+      </c>
+      <c r="AW4" t="s">
         <v>278</v>
       </c>
-      <c r="AV4" t="s">
-        <v>292</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>292</v>
-      </c>
       <c r="AX4" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="AY4" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AZ4" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="BA4" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="BB4" t="s">
-        <v>292</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL4" t="s">
-        <v>232</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>237</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>311</v>
+        <v>217</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>217</v>
       </c>
       <c r="BO4" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="BP4" t="s">
-        <v>230</v>
+        <v>253</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>243</v>
       </c>
       <c r="BR4" t="s">
-        <v>292</v>
+        <v>217</v>
       </c>
       <c r="BS4" t="s">
-        <v>311</v>
+        <v>244</v>
       </c>
       <c r="BT4" t="s">
-        <v>292</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>318</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>319</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>320</v>
+        <v>244</v>
       </c>
       <c r="BX4" t="s">
-        <v>321</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="BZ4" t="s">
-        <v>324</v>
+        <v>253</v>
       </c>
       <c r="CA4" t="s">
-        <v>326</v>
+        <v>244</v>
       </c>
       <c r="CB4" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="CC4" t="s">
-        <v>230</v>
+        <v>336</v>
       </c>
       <c r="CD4" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="CE4" t="s">
-        <v>230</v>
+        <v>338</v>
       </c>
       <c r="CF4" t="s">
-        <v>232</v>
+        <v>339</v>
       </c>
       <c r="CG4" t="s">
-        <v>235</v>
+        <v>340</v>
       </c>
       <c r="CH4" t="s">
-        <v>208</v>
+        <v>342</v>
       </c>
       <c r="CI4" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="CJ4" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CK4" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CL4" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CM4" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CN4" t="s">
-        <v>311</v>
-      </c>
-      <c r="CO4" s="2" t="s">
-        <v>327</v>
+        <v>244</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>253</v>
       </c>
       <c r="CP4" t="s">
-        <v>328</v>
-      </c>
-      <c r="CQ4">
+        <v>253</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>253</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>253</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>253</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>253</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>253</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>244</v>
+      </c>
+      <c r="CW4" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>346</v>
+      </c>
+      <c r="CY4">
         <v>10</v>
       </c>
-      <c r="CR4" t="s">
-        <v>330</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>331</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>292</v>
-      </c>
-      <c r="CV4" t="s">
+      <c r="CZ4" t="s">
+        <v>348</v>
+      </c>
+      <c r="DA4" t="s">
+        <v>349</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>253</v>
+      </c>
+      <c r="DD4" t="s">
         <v>141</v>
       </c>
-      <c r="CW4" t="s">
-        <v>245</v>
-      </c>
-      <c r="CX4" t="s">
-        <v>335</v>
-      </c>
-      <c r="CY4" t="s">
-        <v>259</v>
-      </c>
-      <c r="CZ4" t="s">
-        <v>349</v>
-      </c>
-      <c r="DA4" t="s">
+      <c r="DE4" t="s">
+        <v>258</v>
+      </c>
+      <c r="DF4" t="s">
+        <v>353</v>
+      </c>
+      <c r="DG4" t="s">
         <v>274</v>
       </c>
-      <c r="DB4" t="s">
-        <v>351</v>
-      </c>
-      <c r="DC4" t="s">
-        <v>292</v>
-      </c>
-      <c r="DD4" t="s">
-        <v>328</v>
-      </c>
-      <c r="DE4">
+      <c r="DH4" t="s">
+        <v>369</v>
+      </c>
+      <c r="DI4" t="s">
+        <v>290</v>
+      </c>
+      <c r="DJ4" t="s">
+        <v>371</v>
+      </c>
+      <c r="DK4" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL4" t="s">
+        <v>346</v>
+      </c>
+      <c r="DM4">
         <v>10</v>
       </c>
-      <c r="DF4" t="s">
-        <v>330</v>
-      </c>
-      <c r="DG4" t="s">
-        <v>331</v>
-      </c>
-      <c r="DH4" t="s">
-        <v>292</v>
-      </c>
-      <c r="DJ4" t="s">
-        <v>141</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>245</v>
-      </c>
-      <c r="DM4" t="s">
-        <v>335</v>
-      </c>
       <c r="DN4" t="s">
-        <v>259</v>
+        <v>348</v>
       </c>
       <c r="DO4" t="s">
         <v>349</v>
       </c>
       <c r="DP4" t="s">
-        <v>235</v>
-      </c>
-      <c r="DQ4" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="DR4" t="s">
-        <v>235</v>
-      </c>
-      <c r="DS4" t="s">
-        <v>208</v>
+        <v>141</v>
       </c>
       <c r="DT4" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="DU4" t="s">
-        <v>208</v>
+        <v>353</v>
+      </c>
+      <c r="DV4" t="s">
+        <v>274</v>
+      </c>
+      <c r="DW4" t="s">
+        <v>369</v>
+      </c>
+      <c r="DZ4" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:136">
@@ -2842,7 +2923,7 @@
         <v>142</v>
       </c>
       <c r="I5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -2851,313 +2932,304 @@
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="O5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="P5" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q5" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="R5" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="S5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T5" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="U5">
-        <v>5244</v>
+        <v>5238</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="W5" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="X5" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="Y5" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Z5" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="AB5" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AD5" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="AE5" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AF5" t="s">
-        <v>246</v>
-      </c>
-      <c r="AG5" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI5" t="s">
         <v>259</v>
-      </c>
-      <c r="AH5" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>265</v>
       </c>
       <c r="AJ5" t="s">
         <v>274</v>
       </c>
-      <c r="AK5" t="s">
+      <c r="AK5" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL5" t="s">
         <v>279</v>
       </c>
-      <c r="AL5" t="s">
-        <v>292</v>
-      </c>
       <c r="AM5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AN5" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AO5" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AP5" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AQ5" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AR5" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AS5" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="AT5" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="AU5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>313</v>
+      </c>
+      <c r="AW5" t="s">
         <v>279</v>
       </c>
-      <c r="AV5" t="s">
-        <v>292</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>292</v>
-      </c>
       <c r="AX5" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AY5" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="AZ5" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="BA5" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="BB5" t="s">
-        <v>231</v>
-      </c>
-      <c r="BJ5" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>307</v>
-      </c>
-      <c r="BM5" t="s">
-        <v>309</v>
-      </c>
-      <c r="BN5" t="s">
-        <v>313</v>
+        <v>250</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>247</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>250</v>
       </c>
       <c r="BO5" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="BP5" t="s">
-        <v>230</v>
+        <v>253</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>247</v>
       </c>
       <c r="BR5" t="s">
-        <v>292</v>
+        <v>219</v>
       </c>
       <c r="BS5" t="s">
-        <v>313</v>
+        <v>251</v>
       </c>
       <c r="BT5" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="BU5" t="s">
-        <v>318</v>
+        <v>247</v>
       </c>
       <c r="BV5" t="s">
-        <v>319</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>320</v>
+        <v>247</v>
       </c>
       <c r="BX5" t="s">
-        <v>321</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="BZ5" t="s">
-        <v>324</v>
+        <v>253</v>
       </c>
       <c r="CA5" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="CB5" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="CC5" t="s">
-        <v>230</v>
+        <v>336</v>
       </c>
       <c r="CD5" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="CE5" t="s">
-        <v>230</v>
+        <v>338</v>
       </c>
       <c r="CF5" t="s">
-        <v>233</v>
+        <v>339</v>
       </c>
       <c r="CG5" t="s">
-        <v>235</v>
+        <v>340</v>
       </c>
       <c r="CH5" t="s">
-        <v>235</v>
+        <v>342</v>
       </c>
       <c r="CI5" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="CJ5" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CK5" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CL5" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CM5" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CN5" t="s">
-        <v>313</v>
-      </c>
-      <c r="CO5" s="2" t="s">
-        <v>327</v>
+        <v>243</v>
+      </c>
+      <c r="CO5" t="s">
+        <v>247</v>
       </c>
       <c r="CP5" t="s">
-        <v>328</v>
-      </c>
-      <c r="CQ5">
+        <v>247</v>
+      </c>
+      <c r="CQ5" t="s">
+        <v>253</v>
+      </c>
+      <c r="CR5" t="s">
+        <v>253</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>253</v>
+      </c>
+      <c r="CT5" t="s">
+        <v>253</v>
+      </c>
+      <c r="CU5" t="s">
+        <v>253</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>251</v>
+      </c>
+      <c r="CW5" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>346</v>
+      </c>
+      <c r="CY5">
         <v>10</v>
       </c>
-      <c r="CR5" t="s">
-        <v>330</v>
-      </c>
-      <c r="CS5" t="s">
-        <v>331</v>
-      </c>
-      <c r="CT5" t="s">
-        <v>292</v>
-      </c>
-      <c r="CV5" t="s">
+      <c r="CZ5" t="s">
+        <v>348</v>
+      </c>
+      <c r="DA5" t="s">
+        <v>349</v>
+      </c>
+      <c r="DB5" t="s">
+        <v>253</v>
+      </c>
+      <c r="DD5" t="s">
         <v>142</v>
       </c>
-      <c r="CW5" t="s">
-        <v>246</v>
-      </c>
-      <c r="CX5" t="s">
-        <v>336</v>
-      </c>
-      <c r="CY5" t="s">
+      <c r="DE5" t="s">
         <v>259</v>
       </c>
-      <c r="CZ5" t="s">
-        <v>349</v>
-      </c>
-      <c r="DA5" t="s">
+      <c r="DF5" t="s">
+        <v>354</v>
+      </c>
+      <c r="DG5" t="s">
         <v>274</v>
       </c>
-      <c r="DB5" t="s">
-        <v>351</v>
-      </c>
-      <c r="DC5" t="s">
-        <v>292</v>
-      </c>
-      <c r="DD5" t="s">
-        <v>328</v>
-      </c>
-      <c r="DE5">
+      <c r="DH5" t="s">
+        <v>369</v>
+      </c>
+      <c r="DI5" t="s">
+        <v>290</v>
+      </c>
+      <c r="DJ5" t="s">
+        <v>371</v>
+      </c>
+      <c r="DK5" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL5" t="s">
+        <v>346</v>
+      </c>
+      <c r="DM5">
         <v>10</v>
       </c>
-      <c r="DF5" t="s">
-        <v>330</v>
-      </c>
-      <c r="DG5" t="s">
-        <v>331</v>
-      </c>
-      <c r="DH5" t="s">
-        <v>292</v>
-      </c>
-      <c r="DJ5" t="s">
-        <v>142</v>
-      </c>
-      <c r="DL5" t="s">
-        <v>246</v>
-      </c>
-      <c r="DM5" t="s">
-        <v>336</v>
-      </c>
       <c r="DN5" t="s">
-        <v>259</v>
+        <v>348</v>
       </c>
       <c r="DO5" t="s">
         <v>349</v>
       </c>
       <c r="DP5" t="s">
-        <v>235</v>
-      </c>
-      <c r="DQ5" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="DR5" t="s">
-        <v>235</v>
-      </c>
-      <c r="DS5" t="s">
-        <v>235</v>
+        <v>142</v>
       </c>
       <c r="DT5" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="DU5" t="s">
-        <v>235</v>
+        <v>354</v>
       </c>
       <c r="DV5" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="DW5" t="s">
-        <v>208</v>
-      </c>
-      <c r="DX5" t="s">
-        <v>208</v>
+        <v>369</v>
+      </c>
+      <c r="DZ5" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:136">
@@ -3180,7 +3252,7 @@
         <v>143</v>
       </c>
       <c r="I6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -3189,313 +3261,304 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="O6" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="P6" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q6" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="R6" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="S6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T6" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="U6">
-        <v>5137</v>
+        <v>5163</v>
       </c>
       <c r="V6" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="W6" t="s">
         <v>216</v>
       </c>
-      <c r="W6" t="s">
-        <v>207</v>
-      </c>
       <c r="X6" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="Y6" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Z6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="AB6" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AD6" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="AE6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AF6" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>260</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>314</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>280</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>296</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>253</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>253</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>253</v>
+      </c>
+      <c r="BC6" t="s">
         <v>247</v>
       </c>
-      <c r="AG6" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH6" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>266</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>275</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AP6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AR6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AS6" t="s">
-        <v>297</v>
-      </c>
-      <c r="AT6" t="s">
-        <v>266</v>
-      </c>
-      <c r="AU6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AV6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AW6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AX6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AY6" t="s">
-        <v>208</v>
-      </c>
-      <c r="AZ6" t="s">
-        <v>230</v>
-      </c>
-      <c r="BA6" t="s">
-        <v>292</v>
-      </c>
-      <c r="BB6" t="s">
-        <v>208</v>
-      </c>
-      <c r="BJ6" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK6" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL6" t="s">
-        <v>231</v>
-      </c>
-      <c r="BM6" t="s">
-        <v>209</v>
-      </c>
-      <c r="BN6" t="s">
-        <v>314</v>
+      <c r="BD6" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>253</v>
       </c>
       <c r="BO6" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="BP6" t="s">
-        <v>230</v>
+        <v>253</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>243</v>
       </c>
       <c r="BR6" t="s">
-        <v>292</v>
+        <v>242</v>
       </c>
       <c r="BS6" t="s">
-        <v>314</v>
+        <v>252</v>
       </c>
       <c r="BT6" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="BU6" t="s">
-        <v>318</v>
+        <v>247</v>
       </c>
       <c r="BV6" t="s">
-        <v>319</v>
-      </c>
-      <c r="BW6" t="s">
-        <v>320</v>
+        <v>217</v>
       </c>
       <c r="BX6" t="s">
-        <v>321</v>
-      </c>
-      <c r="BY6" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="BZ6" t="s">
-        <v>324</v>
+        <v>253</v>
       </c>
       <c r="CA6" t="s">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="CB6" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="CC6" t="s">
-        <v>230</v>
+        <v>336</v>
       </c>
       <c r="CD6" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="CE6" t="s">
-        <v>230</v>
+        <v>338</v>
       </c>
       <c r="CF6" t="s">
-        <v>234</v>
+        <v>339</v>
       </c>
       <c r="CG6" t="s">
-        <v>232</v>
+        <v>340</v>
       </c>
       <c r="CH6" t="s">
-        <v>235</v>
+        <v>342</v>
       </c>
       <c r="CI6" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="CJ6" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CK6" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CL6" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CM6" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CN6" t="s">
-        <v>314</v>
-      </c>
-      <c r="CO6" s="2" t="s">
-        <v>327</v>
+        <v>243</v>
+      </c>
+      <c r="CO6" t="s">
+        <v>247</v>
       </c>
       <c r="CP6" t="s">
-        <v>328</v>
-      </c>
-      <c r="CQ6">
+        <v>217</v>
+      </c>
+      <c r="CQ6" t="s">
+        <v>253</v>
+      </c>
+      <c r="CR6" t="s">
+        <v>253</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>253</v>
+      </c>
+      <c r="CT6" t="s">
+        <v>253</v>
+      </c>
+      <c r="CU6" t="s">
+        <v>253</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>252</v>
+      </c>
+      <c r="CW6" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>346</v>
+      </c>
+      <c r="CY6">
         <v>10</v>
       </c>
-      <c r="CR6" t="s">
-        <v>330</v>
-      </c>
-      <c r="CS6" t="s">
-        <v>331</v>
-      </c>
-      <c r="CT6" t="s">
-        <v>292</v>
-      </c>
-      <c r="CV6" t="s">
+      <c r="CZ6" t="s">
+        <v>348</v>
+      </c>
+      <c r="DA6" t="s">
+        <v>349</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>253</v>
+      </c>
+      <c r="DD6" t="s">
         <v>143</v>
       </c>
-      <c r="CW6" t="s">
-        <v>247</v>
-      </c>
-      <c r="CX6" t="s">
-        <v>337</v>
-      </c>
-      <c r="CY6" t="s">
-        <v>259</v>
-      </c>
-      <c r="CZ6" t="s">
-        <v>349</v>
-      </c>
-      <c r="DA6" t="s">
-        <v>275</v>
-      </c>
-      <c r="DB6" t="s">
-        <v>351</v>
-      </c>
-      <c r="DC6" t="s">
-        <v>292</v>
-      </c>
-      <c r="DD6" t="s">
-        <v>328</v>
-      </c>
-      <c r="DE6">
+      <c r="DE6" t="s">
+        <v>260</v>
+      </c>
+      <c r="DF6" t="s">
+        <v>355</v>
+      </c>
+      <c r="DG6" t="s">
+        <v>274</v>
+      </c>
+      <c r="DH6" t="s">
+        <v>369</v>
+      </c>
+      <c r="DI6" t="s">
+        <v>290</v>
+      </c>
+      <c r="DJ6" t="s">
+        <v>371</v>
+      </c>
+      <c r="DK6" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL6" t="s">
+        <v>346</v>
+      </c>
+      <c r="DM6">
         <v>10</v>
       </c>
-      <c r="DF6" t="s">
-        <v>330</v>
-      </c>
-      <c r="DG6" t="s">
-        <v>331</v>
-      </c>
-      <c r="DH6" t="s">
-        <v>292</v>
-      </c>
-      <c r="DJ6" t="s">
-        <v>143</v>
-      </c>
-      <c r="DL6" t="s">
-        <v>247</v>
-      </c>
-      <c r="DM6" t="s">
-        <v>337</v>
-      </c>
       <c r="DN6" t="s">
-        <v>259</v>
+        <v>348</v>
       </c>
       <c r="DO6" t="s">
         <v>349</v>
       </c>
       <c r="DP6" t="s">
-        <v>232</v>
-      </c>
-      <c r="DQ6" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="DR6" t="s">
-        <v>232</v>
-      </c>
-      <c r="DS6" t="s">
-        <v>235</v>
+        <v>143</v>
       </c>
       <c r="DT6" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="DU6" t="s">
-        <v>235</v>
+        <v>355</v>
       </c>
       <c r="DV6" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="DW6" t="s">
-        <v>208</v>
-      </c>
-      <c r="DX6" t="s">
-        <v>208</v>
+        <v>369</v>
+      </c>
+      <c r="DZ6" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:136">
@@ -3518,7 +3581,7 @@
         <v>144</v>
       </c>
       <c r="I7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -3527,304 +3590,313 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="O7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="P7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="R7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="S7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="U7">
-        <v>4996</v>
+        <v>5244</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="W7" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="X7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="Y7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Z7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="AB7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AD7" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="AE7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AF7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AG7" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH7" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI7" t="s">
         <v>261</v>
       </c>
-      <c r="AI7" t="s">
-        <v>267</v>
-      </c>
       <c r="AJ7" t="s">
-        <v>275</v>
-      </c>
-      <c r="AK7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK7" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL7" t="s">
         <v>281</v>
       </c>
-      <c r="AL7" t="s">
-        <v>292</v>
-      </c>
       <c r="AM7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AN7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="AO7" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AP7" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AQ7" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AR7" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AS7" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="AT7" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="AU7" t="s">
+        <v>253</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>315</v>
+      </c>
+      <c r="AW7" t="s">
         <v>281</v>
       </c>
-      <c r="AV7" t="s">
-        <v>292</v>
-      </c>
-      <c r="AW7" t="s">
-        <v>292</v>
-      </c>
       <c r="AX7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="AY7" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="AZ7" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="BA7" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="BB7" t="s">
-        <v>235</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>232</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>232</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>209</v>
+        <v>244</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>247</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>244</v>
       </c>
       <c r="BO7" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="BP7" t="s">
-        <v>230</v>
+        <v>253</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>326</v>
       </c>
       <c r="BR7" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="BS7" t="s">
-        <v>209</v>
+        <v>332</v>
       </c>
       <c r="BT7" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="BU7" t="s">
-        <v>318</v>
+        <v>247</v>
       </c>
       <c r="BV7" t="s">
-        <v>319</v>
+        <v>247</v>
       </c>
       <c r="BW7" t="s">
-        <v>320</v>
+        <v>217</v>
       </c>
       <c r="BX7" t="s">
-        <v>321</v>
-      </c>
-      <c r="BY7" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="BZ7" t="s">
-        <v>324</v>
+        <v>253</v>
       </c>
       <c r="CA7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="CB7" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="CC7" t="s">
-        <v>230</v>
+        <v>336</v>
       </c>
       <c r="CD7" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="CE7" t="s">
-        <v>230</v>
+        <v>338</v>
       </c>
       <c r="CF7" t="s">
-        <v>210</v>
+        <v>339</v>
       </c>
       <c r="CG7" t="s">
-        <v>208</v>
+        <v>340</v>
       </c>
       <c r="CH7" t="s">
-        <v>208</v>
+        <v>342</v>
       </c>
       <c r="CI7" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="CJ7" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CK7" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CL7" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CM7" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CN7" t="s">
-        <v>209</v>
-      </c>
-      <c r="CO7" s="2" t="s">
-        <v>327</v>
+        <v>245</v>
+      </c>
+      <c r="CO7" t="s">
+        <v>247</v>
       </c>
       <c r="CP7" t="s">
-        <v>328</v>
-      </c>
-      <c r="CQ7">
+        <v>247</v>
+      </c>
+      <c r="CQ7" t="s">
+        <v>217</v>
+      </c>
+      <c r="CR7" t="s">
+        <v>253</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>253</v>
+      </c>
+      <c r="CT7" t="s">
+        <v>253</v>
+      </c>
+      <c r="CU7" t="s">
+        <v>253</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>332</v>
+      </c>
+      <c r="CW7" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>346</v>
+      </c>
+      <c r="CY7">
         <v>10</v>
       </c>
-      <c r="CR7" t="s">
-        <v>330</v>
-      </c>
-      <c r="CS7" t="s">
-        <v>331</v>
-      </c>
-      <c r="CT7" t="s">
-        <v>292</v>
-      </c>
-      <c r="CV7" t="s">
+      <c r="CZ7" t="s">
+        <v>348</v>
+      </c>
+      <c r="DA7" t="s">
+        <v>349</v>
+      </c>
+      <c r="DB7" t="s">
+        <v>253</v>
+      </c>
+      <c r="DD7" t="s">
         <v>144</v>
       </c>
-      <c r="CW7" t="s">
-        <v>248</v>
-      </c>
-      <c r="CX7" t="s">
-        <v>338</v>
-      </c>
-      <c r="CY7" t="s">
-        <v>259</v>
-      </c>
-      <c r="CZ7" t="s">
-        <v>349</v>
-      </c>
-      <c r="DA7" t="s">
-        <v>275</v>
-      </c>
-      <c r="DB7" t="s">
-        <v>351</v>
-      </c>
-      <c r="DC7" t="s">
-        <v>292</v>
-      </c>
-      <c r="DD7" t="s">
-        <v>328</v>
-      </c>
-      <c r="DE7">
+      <c r="DE7" t="s">
+        <v>261</v>
+      </c>
+      <c r="DF7" t="s">
+        <v>356</v>
+      </c>
+      <c r="DG7" t="s">
+        <v>274</v>
+      </c>
+      <c r="DH7" t="s">
+        <v>369</v>
+      </c>
+      <c r="DI7" t="s">
+        <v>290</v>
+      </c>
+      <c r="DJ7" t="s">
+        <v>371</v>
+      </c>
+      <c r="DK7" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL7" t="s">
+        <v>346</v>
+      </c>
+      <c r="DM7">
         <v>10</v>
       </c>
-      <c r="DF7" t="s">
-        <v>330</v>
-      </c>
-      <c r="DG7" t="s">
-        <v>331</v>
-      </c>
-      <c r="DH7" t="s">
-        <v>292</v>
-      </c>
-      <c r="DJ7" t="s">
-        <v>144</v>
-      </c>
-      <c r="DL7" t="s">
-        <v>248</v>
-      </c>
-      <c r="DM7" t="s">
-        <v>338</v>
-      </c>
       <c r="DN7" t="s">
-        <v>259</v>
+        <v>348</v>
       </c>
       <c r="DO7" t="s">
         <v>349</v>
       </c>
       <c r="DP7" t="s">
-        <v>208</v>
-      </c>
-      <c r="DQ7" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="DR7" t="s">
-        <v>208</v>
-      </c>
-      <c r="DS7" t="s">
-        <v>208</v>
+        <v>144</v>
       </c>
       <c r="DT7" t="s">
-        <v>208</v>
+        <v>261</v>
       </c>
       <c r="DU7" t="s">
-        <v>208</v>
+        <v>356</v>
+      </c>
+      <c r="DV7" t="s">
+        <v>274</v>
+      </c>
+      <c r="DW7" t="s">
+        <v>369</v>
+      </c>
+      <c r="DZ7" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:136">
@@ -3847,7 +3919,7 @@
         <v>145</v>
       </c>
       <c r="I8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -3856,313 +3928,313 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="O8" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="P8" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q8" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="R8" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="S8" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T8" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="U8">
-        <v>5028</v>
+        <v>5137</v>
       </c>
       <c r="V8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="W8" t="s">
+        <v>216</v>
+      </c>
+      <c r="X8" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z8" t="s">
         <v>218</v>
       </c>
-      <c r="W8" t="s">
-        <v>207</v>
-      </c>
-      <c r="X8" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>209</v>
-      </c>
       <c r="AA8" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="AB8" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AD8" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="AE8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AF8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AG8" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>261</v>
+        <v>217</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>254</v>
       </c>
       <c r="AI8" t="s">
         <v>262</v>
       </c>
       <c r="AJ8" t="s">
-        <v>275</v>
-      </c>
-      <c r="AK8" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL8" t="s">
         <v>282</v>
       </c>
-      <c r="AL8" t="s">
-        <v>292</v>
-      </c>
       <c r="AM8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN8" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="AO8" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AP8" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AQ8" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AR8" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AS8" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="AT8" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>253</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>316</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>253</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>253</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>217</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>243</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>247</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>217</v>
+      </c>
+      <c r="BO8" t="s">
+        <v>241</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>253</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>244</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>218</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>331</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>246</v>
+      </c>
+      <c r="BU8" t="s">
+        <v>243</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>247</v>
+      </c>
+      <c r="BW8" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX8" t="s">
+        <v>241</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>331</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>253</v>
+      </c>
+      <c r="CC8" t="s">
+        <v>336</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>337</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>338</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>339</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>340</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>342</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>344</v>
+      </c>
+      <c r="CJ8" t="s">
+        <v>241</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>241</v>
+      </c>
+      <c r="CL8" t="s">
+        <v>241</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>241</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>246</v>
+      </c>
+      <c r="CO8" t="s">
+        <v>243</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>247</v>
+      </c>
+      <c r="CQ8" t="s">
+        <v>217</v>
+      </c>
+      <c r="CR8" t="s">
+        <v>253</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>253</v>
+      </c>
+      <c r="CT8" t="s">
+        <v>253</v>
+      </c>
+      <c r="CU8" t="s">
+        <v>253</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>331</v>
+      </c>
+      <c r="CW8" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>346</v>
+      </c>
+      <c r="CY8">
+        <v>10</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>348</v>
+      </c>
+      <c r="DA8" t="s">
+        <v>349</v>
+      </c>
+      <c r="DB8" t="s">
+        <v>253</v>
+      </c>
+      <c r="DD8" t="s">
+        <v>145</v>
+      </c>
+      <c r="DE8" t="s">
         <v>262</v>
       </c>
-      <c r="AU8" t="s">
-        <v>282</v>
-      </c>
-      <c r="AV8" t="s">
-        <v>292</v>
-      </c>
-      <c r="AW8" t="s">
-        <v>292</v>
-      </c>
-      <c r="AX8" t="s">
-        <v>292</v>
-      </c>
-      <c r="AY8" t="s">
-        <v>208</v>
-      </c>
-      <c r="AZ8" t="s">
-        <v>230</v>
-      </c>
-      <c r="BA8" t="s">
-        <v>292</v>
-      </c>
-      <c r="BB8" t="s">
-        <v>208</v>
-      </c>
-      <c r="BJ8" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK8" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL8" t="s">
-        <v>234</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>310</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>315</v>
-      </c>
-      <c r="BO8" t="s">
-        <v>210</v>
-      </c>
-      <c r="BP8" t="s">
-        <v>230</v>
-      </c>
-      <c r="BR8" t="s">
-        <v>292</v>
-      </c>
-      <c r="BS8" t="s">
-        <v>315</v>
-      </c>
-      <c r="BT8" t="s">
-        <v>292</v>
-      </c>
-      <c r="BU8" t="s">
-        <v>318</v>
-      </c>
-      <c r="BV8" t="s">
-        <v>319</v>
-      </c>
-      <c r="BW8" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX8" t="s">
-        <v>321</v>
-      </c>
-      <c r="BY8" t="s">
-        <v>322</v>
-      </c>
-      <c r="BZ8" t="s">
-        <v>324</v>
-      </c>
-      <c r="CA8" t="s">
-        <v>326</v>
-      </c>
-      <c r="CB8" t="s">
-        <v>230</v>
-      </c>
-      <c r="CC8" t="s">
-        <v>230</v>
-      </c>
-      <c r="CD8" t="s">
-        <v>230</v>
-      </c>
-      <c r="CE8" t="s">
-        <v>230</v>
-      </c>
-      <c r="CF8" t="s">
-        <v>210</v>
-      </c>
-      <c r="CG8" t="s">
-        <v>231</v>
-      </c>
-      <c r="CH8" t="s">
-        <v>237</v>
-      </c>
-      <c r="CI8" t="s">
-        <v>208</v>
-      </c>
-      <c r="CJ8" t="s">
-        <v>292</v>
-      </c>
-      <c r="CK8" t="s">
-        <v>292</v>
-      </c>
-      <c r="CL8" t="s">
-        <v>292</v>
-      </c>
-      <c r="CM8" t="s">
-        <v>292</v>
-      </c>
-      <c r="CN8" t="s">
-        <v>315</v>
-      </c>
-      <c r="CO8" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="CP8" t="s">
-        <v>328</v>
-      </c>
-      <c r="CQ8">
+      <c r="DF8" t="s">
+        <v>357</v>
+      </c>
+      <c r="DG8" t="s">
+        <v>274</v>
+      </c>
+      <c r="DH8" t="s">
+        <v>369</v>
+      </c>
+      <c r="DI8" t="s">
+        <v>291</v>
+      </c>
+      <c r="DJ8" t="s">
+        <v>371</v>
+      </c>
+      <c r="DK8" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL8" t="s">
+        <v>346</v>
+      </c>
+      <c r="DM8">
         <v>10</v>
       </c>
-      <c r="CR8" t="s">
-        <v>330</v>
-      </c>
-      <c r="CS8" t="s">
-        <v>331</v>
-      </c>
-      <c r="CT8" t="s">
-        <v>292</v>
-      </c>
-      <c r="CV8" t="s">
-        <v>145</v>
-      </c>
-      <c r="CW8" t="s">
-        <v>249</v>
-      </c>
-      <c r="CX8" t="s">
-        <v>339</v>
-      </c>
-      <c r="CY8" t="s">
-        <v>259</v>
-      </c>
-      <c r="CZ8" t="s">
-        <v>349</v>
-      </c>
-      <c r="DA8" t="s">
-        <v>275</v>
-      </c>
-      <c r="DB8" t="s">
-        <v>351</v>
-      </c>
-      <c r="DC8" t="s">
-        <v>292</v>
-      </c>
-      <c r="DD8" t="s">
-        <v>328</v>
-      </c>
-      <c r="DE8">
-        <v>10</v>
-      </c>
-      <c r="DF8" t="s">
-        <v>330</v>
-      </c>
-      <c r="DG8" t="s">
-        <v>331</v>
-      </c>
-      <c r="DH8" t="s">
-        <v>292</v>
-      </c>
-      <c r="DJ8" t="s">
-        <v>145</v>
-      </c>
-      <c r="DL8" t="s">
-        <v>249</v>
-      </c>
-      <c r="DM8" t="s">
-        <v>339</v>
-      </c>
       <c r="DN8" t="s">
-        <v>259</v>
+        <v>348</v>
       </c>
       <c r="DO8" t="s">
         <v>349</v>
       </c>
       <c r="DP8" t="s">
-        <v>231</v>
-      </c>
-      <c r="DQ8" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="DR8" t="s">
-        <v>231</v>
-      </c>
-      <c r="DS8" t="s">
-        <v>237</v>
+        <v>145</v>
       </c>
       <c r="DT8" t="s">
-        <v>231</v>
+        <v>262</v>
       </c>
       <c r="DU8" t="s">
-        <v>237</v>
+        <v>357</v>
       </c>
       <c r="DV8" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="DW8" t="s">
-        <v>208</v>
-      </c>
-      <c r="DX8" t="s">
-        <v>208</v>
+        <v>369</v>
+      </c>
+      <c r="DZ8" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:136">
@@ -4185,7 +4257,7 @@
         <v>146</v>
       </c>
       <c r="I9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -4194,304 +4266,304 @@
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="O9" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="P9" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q9" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="R9" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="S9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T9" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="U9">
-        <v>4905</v>
+        <v>4996</v>
       </c>
       <c r="V9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="W9" t="s">
+        <v>216</v>
+      </c>
+      <c r="X9" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA9" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD9" t="s">
         <v>219</v>
       </c>
-      <c r="W9" t="s">
-        <v>207</v>
-      </c>
-      <c r="X9" t="s">
-        <v>228</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>209</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>230</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>231</v>
-      </c>
       <c r="AE9" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="AF9" t="s">
-        <v>250</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH9" s="2" t="s">
-        <v>261</v>
+        <v>217</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>254</v>
       </c>
       <c r="AI9" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="AJ9" t="s">
-        <v>275</v>
-      </c>
-      <c r="AK9" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK9" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL9" t="s">
         <v>283</v>
       </c>
-      <c r="AL9" t="s">
-        <v>292</v>
-      </c>
       <c r="AM9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN9" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="AO9" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AP9" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AQ9" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AR9" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AS9" t="s">
-        <v>300</v>
+        <v>253</v>
       </c>
       <c r="AT9" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="AU9" t="s">
+        <v>253</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>317</v>
+      </c>
+      <c r="AW9" t="s">
         <v>283</v>
       </c>
-      <c r="AV9" t="s">
-        <v>292</v>
-      </c>
-      <c r="AW9" t="s">
-        <v>292</v>
-      </c>
       <c r="AX9" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="AY9" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AZ9" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="BA9" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="BB9" t="s">
-        <v>292</v>
-      </c>
-      <c r="BJ9" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK9" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL9" t="s">
-        <v>231</v>
-      </c>
-      <c r="BM9" t="s">
-        <v>237</v>
-      </c>
-      <c r="BN9" t="s">
-        <v>209</v>
+        <v>247</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>217</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG9" t="s">
+        <v>247</v>
       </c>
       <c r="BO9" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="BP9" t="s">
-        <v>230</v>
+        <v>253</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>243</v>
       </c>
       <c r="BR9" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="BS9" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="BT9" t="s">
-        <v>292</v>
+        <v>219</v>
       </c>
       <c r="BU9" t="s">
-        <v>318</v>
+        <v>217</v>
       </c>
       <c r="BV9" t="s">
-        <v>319</v>
-      </c>
-      <c r="BW9" t="s">
-        <v>320</v>
+        <v>217</v>
       </c>
       <c r="BX9" t="s">
-        <v>321</v>
-      </c>
-      <c r="BY9" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="BZ9" t="s">
-        <v>324</v>
+        <v>253</v>
       </c>
       <c r="CA9" t="s">
-        <v>326</v>
+        <v>218</v>
       </c>
       <c r="CB9" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="CC9" t="s">
-        <v>230</v>
+        <v>336</v>
       </c>
       <c r="CD9" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="CE9" t="s">
-        <v>230</v>
+        <v>338</v>
       </c>
       <c r="CF9" t="s">
-        <v>231</v>
+        <v>339</v>
       </c>
       <c r="CG9" t="s">
-        <v>239</v>
+        <v>340</v>
       </c>
       <c r="CH9" t="s">
-        <v>239</v>
+        <v>342</v>
       </c>
       <c r="CI9" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="CJ9" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CK9" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CL9" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CM9" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CN9" t="s">
-        <v>209</v>
-      </c>
-      <c r="CO9" s="2" t="s">
-        <v>327</v>
+        <v>219</v>
+      </c>
+      <c r="CO9" t="s">
+        <v>217</v>
       </c>
       <c r="CP9" t="s">
-        <v>328</v>
-      </c>
-      <c r="CQ9">
+        <v>217</v>
+      </c>
+      <c r="CQ9" t="s">
+        <v>253</v>
+      </c>
+      <c r="CR9" t="s">
+        <v>253</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>253</v>
+      </c>
+      <c r="CT9" t="s">
+        <v>253</v>
+      </c>
+      <c r="CU9" t="s">
+        <v>253</v>
+      </c>
+      <c r="CV9" t="s">
+        <v>218</v>
+      </c>
+      <c r="CW9" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>346</v>
+      </c>
+      <c r="CY9">
         <v>10</v>
       </c>
-      <c r="CR9" t="s">
-        <v>330</v>
-      </c>
-      <c r="CS9" t="s">
-        <v>331</v>
-      </c>
-      <c r="CT9" t="s">
-        <v>292</v>
-      </c>
-      <c r="CV9" t="s">
+      <c r="CZ9" t="s">
+        <v>348</v>
+      </c>
+      <c r="DA9" t="s">
+        <v>349</v>
+      </c>
+      <c r="DB9" t="s">
+        <v>253</v>
+      </c>
+      <c r="DD9" t="s">
         <v>146</v>
       </c>
-      <c r="CW9" t="s">
-        <v>250</v>
-      </c>
-      <c r="CX9" t="s">
-        <v>340</v>
-      </c>
-      <c r="CY9" t="s">
-        <v>259</v>
-      </c>
-      <c r="CZ9" t="s">
-        <v>349</v>
-      </c>
-      <c r="DA9" t="s">
-        <v>275</v>
-      </c>
-      <c r="DB9" t="s">
-        <v>351</v>
-      </c>
-      <c r="DC9" t="s">
-        <v>292</v>
-      </c>
-      <c r="DD9" t="s">
-        <v>328</v>
-      </c>
-      <c r="DE9">
+      <c r="DE9" t="s">
+        <v>263</v>
+      </c>
+      <c r="DF9" t="s">
+        <v>358</v>
+      </c>
+      <c r="DG9" t="s">
+        <v>274</v>
+      </c>
+      <c r="DH9" t="s">
+        <v>369</v>
+      </c>
+      <c r="DI9" t="s">
+        <v>291</v>
+      </c>
+      <c r="DJ9" t="s">
+        <v>371</v>
+      </c>
+      <c r="DK9" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL9" t="s">
+        <v>346</v>
+      </c>
+      <c r="DM9">
         <v>10</v>
       </c>
-      <c r="DF9" t="s">
-        <v>330</v>
-      </c>
-      <c r="DG9" t="s">
-        <v>331</v>
-      </c>
-      <c r="DH9" t="s">
-        <v>292</v>
-      </c>
-      <c r="DJ9" t="s">
-        <v>146</v>
-      </c>
-      <c r="DL9" t="s">
-        <v>250</v>
-      </c>
-      <c r="DM9" t="s">
-        <v>340</v>
-      </c>
       <c r="DN9" t="s">
-        <v>259</v>
+        <v>348</v>
       </c>
       <c r="DO9" t="s">
         <v>349</v>
       </c>
       <c r="DP9" t="s">
-        <v>239</v>
-      </c>
-      <c r="DQ9" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="DR9" t="s">
-        <v>239</v>
-      </c>
-      <c r="DS9" t="s">
-        <v>239</v>
+        <v>146</v>
       </c>
       <c r="DT9" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="DU9" t="s">
-        <v>239</v>
+        <v>358</v>
+      </c>
+      <c r="DV9" t="s">
+        <v>274</v>
+      </c>
+      <c r="DW9" t="s">
+        <v>369</v>
+      </c>
+      <c r="DZ9" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:136">
@@ -4514,7 +4586,7 @@
         <v>147</v>
       </c>
       <c r="I10" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -4523,304 +4595,313 @@
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O10" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q10" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="R10" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="S10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T10" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="U10">
-        <v>4854</v>
+        <v>5028</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="W10" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="X10" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="Y10" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Z10" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="AB10" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AD10" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="AE10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF10" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="AG10" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>261</v>
+        <v>217</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>254</v>
       </c>
       <c r="AI10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AJ10" t="s">
-        <v>275</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>284</v>
+        <v>274</v>
+      </c>
+      <c r="AK10" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="AL10" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="AM10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN10" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AO10" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AP10" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AQ10" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AR10" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AS10" t="s">
-        <v>301</v>
+        <v>253</v>
       </c>
       <c r="AT10" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="AU10" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="AV10" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="AW10" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="AX10" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AY10" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="AZ10" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="BA10" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="BB10" t="s">
-        <v>208</v>
-      </c>
-      <c r="BJ10" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>239</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>231</v>
-      </c>
-      <c r="BN10" t="s">
-        <v>210</v>
+        <v>217</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>244</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>242</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>217</v>
       </c>
       <c r="BO10" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="BP10" t="s">
-        <v>230</v>
+        <v>253</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>246</v>
       </c>
       <c r="BR10" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="BS10" t="s">
-        <v>210</v>
+        <v>333</v>
       </c>
       <c r="BT10" t="s">
-        <v>292</v>
+        <v>219</v>
       </c>
       <c r="BU10" t="s">
-        <v>318</v>
+        <v>244</v>
       </c>
       <c r="BV10" t="s">
-        <v>319</v>
+        <v>242</v>
       </c>
       <c r="BW10" t="s">
-        <v>320</v>
+        <v>217</v>
       </c>
       <c r="BX10" t="s">
-        <v>321</v>
-      </c>
-      <c r="BY10" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="BZ10" t="s">
-        <v>324</v>
+        <v>253</v>
       </c>
       <c r="CA10" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="CB10" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="CC10" t="s">
-        <v>230</v>
+        <v>336</v>
       </c>
       <c r="CD10" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="CE10" t="s">
-        <v>230</v>
+        <v>338</v>
       </c>
       <c r="CF10" t="s">
-        <v>235</v>
+        <v>339</v>
       </c>
       <c r="CG10" t="s">
-        <v>237</v>
+        <v>340</v>
       </c>
       <c r="CH10" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="CI10" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="CJ10" t="s">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c r="CK10" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CL10" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CM10" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CN10" t="s">
-        <v>210</v>
-      </c>
-      <c r="CO10" s="2" t="s">
-        <v>327</v>
+        <v>219</v>
+      </c>
+      <c r="CO10" t="s">
+        <v>244</v>
       </c>
       <c r="CP10" t="s">
-        <v>328</v>
-      </c>
-      <c r="CQ10">
+        <v>242</v>
+      </c>
+      <c r="CQ10" t="s">
+        <v>217</v>
+      </c>
+      <c r="CR10" t="s">
+        <v>253</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>253</v>
+      </c>
+      <c r="CT10" t="s">
+        <v>253</v>
+      </c>
+      <c r="CU10" t="s">
+        <v>253</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>333</v>
+      </c>
+      <c r="CW10" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>346</v>
+      </c>
+      <c r="CY10">
         <v>10</v>
       </c>
-      <c r="CR10" t="s">
-        <v>330</v>
-      </c>
-      <c r="CS10" t="s">
-        <v>331</v>
-      </c>
-      <c r="CT10" t="s">
-        <v>292</v>
-      </c>
-      <c r="CV10" t="s">
+      <c r="CZ10" t="s">
+        <v>348</v>
+      </c>
+      <c r="DA10" t="s">
+        <v>349</v>
+      </c>
+      <c r="DB10" t="s">
+        <v>253</v>
+      </c>
+      <c r="DD10" t="s">
         <v>147</v>
       </c>
-      <c r="CW10" t="s">
-        <v>251</v>
-      </c>
-      <c r="CX10" t="s">
-        <v>341</v>
-      </c>
-      <c r="CY10" t="s">
-        <v>259</v>
-      </c>
-      <c r="CZ10" t="s">
-        <v>349</v>
-      </c>
-      <c r="DA10" t="s">
-        <v>275</v>
-      </c>
-      <c r="DB10" t="s">
-        <v>351</v>
-      </c>
-      <c r="DC10" t="s">
-        <v>292</v>
-      </c>
-      <c r="DD10" t="s">
-        <v>328</v>
-      </c>
-      <c r="DE10">
+      <c r="DE10" t="s">
+        <v>264</v>
+      </c>
+      <c r="DF10" t="s">
+        <v>359</v>
+      </c>
+      <c r="DG10" t="s">
+        <v>274</v>
+      </c>
+      <c r="DH10" t="s">
+        <v>369</v>
+      </c>
+      <c r="DI10" t="s">
+        <v>291</v>
+      </c>
+      <c r="DJ10" t="s">
+        <v>371</v>
+      </c>
+      <c r="DK10" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL10" t="s">
+        <v>346</v>
+      </c>
+      <c r="DM10">
         <v>10</v>
       </c>
-      <c r="DF10" t="s">
-        <v>330</v>
-      </c>
-      <c r="DG10" t="s">
-        <v>331</v>
-      </c>
-      <c r="DH10" t="s">
-        <v>292</v>
-      </c>
-      <c r="DJ10" t="s">
-        <v>147</v>
-      </c>
-      <c r="DL10" t="s">
-        <v>251</v>
-      </c>
-      <c r="DM10" t="s">
-        <v>341</v>
-      </c>
       <c r="DN10" t="s">
-        <v>259</v>
+        <v>348</v>
       </c>
       <c r="DO10" t="s">
         <v>349</v>
       </c>
       <c r="DP10" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="DR10" t="s">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c r="DT10" t="s">
-        <v>237</v>
-      </c>
-      <c r="DY10" t="s">
-        <v>208</v>
+        <v>264</v>
+      </c>
+      <c r="DU10" t="s">
+        <v>359</v>
+      </c>
+      <c r="DV10" t="s">
+        <v>274</v>
+      </c>
+      <c r="DW10" t="s">
+        <v>369</v>
       </c>
       <c r="DZ10" t="s">
-        <v>208</v>
-      </c>
-      <c r="EA10" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:136">
@@ -4843,7 +4924,7 @@
         <v>148</v>
       </c>
       <c r="I11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -4852,313 +4933,304 @@
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="O11" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q11" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="R11" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="S11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T11" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="U11">
-        <v>4917</v>
+        <v>4905</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="W11" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="X11" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="Y11" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Z11" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="AB11" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AD11" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="AE11" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="AF11" t="s">
-        <v>252</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH11" s="2" t="s">
-        <v>261</v>
+        <v>250</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>254</v>
       </c>
       <c r="AI11" t="s">
         <v>265</v>
       </c>
       <c r="AJ11" t="s">
-        <v>275</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>285</v>
+        <v>274</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="AL11" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AM11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN11" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="AO11" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AP11" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AQ11" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AR11" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AS11" t="s">
-        <v>302</v>
+        <v>253</v>
       </c>
       <c r="AT11" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>253</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>319</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>284</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>301</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>253</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>253</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>253</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>250</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>250</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>253</v>
+      </c>
+      <c r="BO11" t="s">
+        <v>241</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>253</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>244</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>242</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>218</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>244</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>250</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>250</v>
+      </c>
+      <c r="BX11" t="s">
+        <v>241</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>218</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>253</v>
+      </c>
+      <c r="CC11" t="s">
+        <v>336</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>337</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>338</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>339</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>340</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>342</v>
+      </c>
+      <c r="CI11" t="s">
+        <v>344</v>
+      </c>
+      <c r="CJ11" t="s">
+        <v>241</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>241</v>
+      </c>
+      <c r="CL11" t="s">
+        <v>241</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>241</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>244</v>
+      </c>
+      <c r="CO11" t="s">
+        <v>250</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>250</v>
+      </c>
+      <c r="CQ11" t="s">
+        <v>253</v>
+      </c>
+      <c r="CR11" t="s">
+        <v>253</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>253</v>
+      </c>
+      <c r="CT11" t="s">
+        <v>253</v>
+      </c>
+      <c r="CU11" t="s">
+        <v>253</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>218</v>
+      </c>
+      <c r="CW11" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="CX11" t="s">
+        <v>346</v>
+      </c>
+      <c r="CY11">
+        <v>10</v>
+      </c>
+      <c r="CZ11" t="s">
+        <v>348</v>
+      </c>
+      <c r="DA11" t="s">
+        <v>349</v>
+      </c>
+      <c r="DB11" t="s">
+        <v>253</v>
+      </c>
+      <c r="DD11" t="s">
+        <v>148</v>
+      </c>
+      <c r="DE11" t="s">
         <v>265</v>
       </c>
-      <c r="AU11" t="s">
-        <v>285</v>
-      </c>
-      <c r="AV11" t="s">
-        <v>292</v>
-      </c>
-      <c r="AW11" t="s">
-        <v>292</v>
-      </c>
-      <c r="AX11" t="s">
-        <v>292</v>
-      </c>
-      <c r="AY11" t="s">
-        <v>239</v>
-      </c>
-      <c r="AZ11" t="s">
-        <v>230</v>
-      </c>
-      <c r="BA11" t="s">
-        <v>292</v>
-      </c>
-      <c r="BB11" t="s">
-        <v>239</v>
-      </c>
-      <c r="BJ11" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK11" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL11" t="s">
-        <v>308</v>
-      </c>
-      <c r="BM11" t="s">
-        <v>240</v>
-      </c>
-      <c r="BN11" t="s">
-        <v>316</v>
-      </c>
-      <c r="BO11" t="s">
-        <v>236</v>
-      </c>
-      <c r="BP11" t="s">
-        <v>230</v>
-      </c>
-      <c r="BR11" t="s">
-        <v>292</v>
-      </c>
-      <c r="BS11" t="s">
-        <v>316</v>
-      </c>
-      <c r="BT11" t="s">
-        <v>292</v>
-      </c>
-      <c r="BU11" t="s">
-        <v>318</v>
-      </c>
-      <c r="BV11" t="s">
-        <v>319</v>
-      </c>
-      <c r="BW11" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX11" t="s">
-        <v>321</v>
-      </c>
-      <c r="BY11" t="s">
-        <v>322</v>
-      </c>
-      <c r="BZ11" t="s">
-        <v>324</v>
-      </c>
-      <c r="CA11" t="s">
-        <v>326</v>
-      </c>
-      <c r="CB11" t="s">
-        <v>230</v>
-      </c>
-      <c r="CC11" t="s">
-        <v>230</v>
-      </c>
-      <c r="CD11" t="s">
-        <v>230</v>
-      </c>
-      <c r="CE11" t="s">
-        <v>230</v>
-      </c>
-      <c r="CF11" t="s">
-        <v>236</v>
-      </c>
-      <c r="CG11" t="s">
-        <v>235</v>
-      </c>
-      <c r="CH11" t="s">
-        <v>237</v>
-      </c>
-      <c r="CI11" t="s">
-        <v>239</v>
-      </c>
-      <c r="CJ11" t="s">
-        <v>292</v>
-      </c>
-      <c r="CK11" t="s">
-        <v>292</v>
-      </c>
-      <c r="CL11" t="s">
-        <v>292</v>
-      </c>
-      <c r="CM11" t="s">
-        <v>292</v>
-      </c>
-      <c r="CN11" t="s">
-        <v>316</v>
-      </c>
-      <c r="CO11" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="CP11" t="s">
-        <v>328</v>
-      </c>
-      <c r="CQ11">
+      <c r="DF11" t="s">
+        <v>360</v>
+      </c>
+      <c r="DG11" t="s">
+        <v>274</v>
+      </c>
+      <c r="DH11" t="s">
+        <v>369</v>
+      </c>
+      <c r="DI11" t="s">
+        <v>291</v>
+      </c>
+      <c r="DJ11" t="s">
+        <v>371</v>
+      </c>
+      <c r="DK11" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL11" t="s">
+        <v>346</v>
+      </c>
+      <c r="DM11">
         <v>10</v>
       </c>
-      <c r="CR11" t="s">
-        <v>330</v>
-      </c>
-      <c r="CS11" t="s">
-        <v>331</v>
-      </c>
-      <c r="CT11" t="s">
-        <v>292</v>
-      </c>
-      <c r="CV11" t="s">
-        <v>148</v>
-      </c>
-      <c r="CW11" t="s">
-        <v>252</v>
-      </c>
-      <c r="CX11" t="s">
-        <v>342</v>
-      </c>
-      <c r="CY11" t="s">
-        <v>259</v>
-      </c>
-      <c r="CZ11" t="s">
-        <v>349</v>
-      </c>
-      <c r="DA11" t="s">
-        <v>275</v>
-      </c>
-      <c r="DB11" t="s">
-        <v>351</v>
-      </c>
-      <c r="DC11" t="s">
-        <v>292</v>
-      </c>
-      <c r="DD11" t="s">
-        <v>328</v>
-      </c>
-      <c r="DE11">
-        <v>10</v>
-      </c>
-      <c r="DF11" t="s">
-        <v>330</v>
-      </c>
-      <c r="DG11" t="s">
-        <v>331</v>
-      </c>
-      <c r="DH11" t="s">
-        <v>292</v>
-      </c>
-      <c r="DJ11" t="s">
-        <v>148</v>
-      </c>
-      <c r="DL11" t="s">
-        <v>252</v>
-      </c>
-      <c r="DM11" t="s">
-        <v>342</v>
-      </c>
       <c r="DN11" t="s">
-        <v>259</v>
+        <v>348</v>
       </c>
       <c r="DO11" t="s">
         <v>349</v>
       </c>
       <c r="DP11" t="s">
-        <v>235</v>
-      </c>
-      <c r="DQ11" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="DR11" t="s">
-        <v>235</v>
-      </c>
-      <c r="DS11" t="s">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c r="DT11" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="DU11" t="s">
-        <v>237</v>
+        <v>360</v>
       </c>
       <c r="DV11" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="DW11" t="s">
-        <v>239</v>
-      </c>
-      <c r="DX11" t="s">
-        <v>239</v>
+        <v>369</v>
+      </c>
+      <c r="DZ11" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:136">
@@ -5181,7 +5253,7 @@
         <v>149</v>
       </c>
       <c r="I12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J12" t="b">
         <v>1</v>
@@ -5190,313 +5262,304 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="O12" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q12" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="R12" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="S12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T12" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="U12">
-        <v>4817</v>
+        <v>4854</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="W12" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="X12" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="Y12" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Z12" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="AB12" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AD12" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="AE12" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>253</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH12" s="2" t="s">
-        <v>261</v>
+        <v>242</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>254</v>
       </c>
       <c r="AI12" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AJ12" t="s">
-        <v>275</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>286</v>
+        <v>274</v>
+      </c>
+      <c r="AK12" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="AL12" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="AM12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN12" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="AO12" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AP12" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AQ12" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AR12" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AS12" t="s">
-        <v>303</v>
+        <v>253</v>
       </c>
       <c r="AT12" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="AU12" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
       <c r="AV12" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="AW12" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="AX12" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="AY12" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="AZ12" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="BA12" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="BB12" t="s">
-        <v>235</v>
-      </c>
-      <c r="BJ12" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK12" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL12" t="s">
-        <v>208</v>
-      </c>
-      <c r="BM12" t="s">
-        <v>311</v>
-      </c>
-      <c r="BN12" t="s">
-        <v>209</v>
+        <v>217</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>242</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>217</v>
       </c>
       <c r="BO12" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="BP12" t="s">
-        <v>230</v>
+        <v>253</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>250</v>
       </c>
       <c r="BR12" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="BS12" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="BT12" t="s">
-        <v>292</v>
+        <v>247</v>
       </c>
       <c r="BU12" t="s">
-        <v>318</v>
-      </c>
-      <c r="BV12" t="s">
-        <v>319</v>
-      </c>
-      <c r="BW12" t="s">
-        <v>320</v>
+        <v>242</v>
       </c>
       <c r="BX12" t="s">
-        <v>321</v>
-      </c>
-      <c r="BY12" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="BZ12" t="s">
-        <v>324</v>
+        <v>253</v>
       </c>
       <c r="CA12" t="s">
-        <v>326</v>
+        <v>219</v>
       </c>
       <c r="CB12" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="CC12" t="s">
-        <v>230</v>
+        <v>336</v>
       </c>
       <c r="CD12" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="CE12" t="s">
-        <v>230</v>
+        <v>338</v>
       </c>
       <c r="CF12" t="s">
-        <v>237</v>
+        <v>339</v>
       </c>
       <c r="CG12" t="s">
-        <v>235</v>
+        <v>340</v>
       </c>
       <c r="CH12" t="s">
-        <v>239</v>
+        <v>342</v>
       </c>
       <c r="CI12" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="CJ12" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CK12" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CL12" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CM12" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CN12" t="s">
-        <v>209</v>
-      </c>
-      <c r="CO12" s="2" t="s">
-        <v>327</v>
+        <v>247</v>
+      </c>
+      <c r="CO12" t="s">
+        <v>242</v>
       </c>
       <c r="CP12" t="s">
-        <v>328</v>
-      </c>
-      <c r="CQ12">
+        <v>253</v>
+      </c>
+      <c r="CQ12" t="s">
+        <v>253</v>
+      </c>
+      <c r="CR12" t="s">
+        <v>217</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>253</v>
+      </c>
+      <c r="CT12" t="s">
+        <v>253</v>
+      </c>
+      <c r="CU12" t="s">
+        <v>253</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>219</v>
+      </c>
+      <c r="CW12" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="CX12" t="s">
+        <v>346</v>
+      </c>
+      <c r="CY12">
         <v>10</v>
       </c>
-      <c r="CR12" t="s">
-        <v>330</v>
-      </c>
-      <c r="CS12" t="s">
-        <v>331</v>
-      </c>
-      <c r="CT12" t="s">
-        <v>292</v>
-      </c>
-      <c r="CV12" t="s">
+      <c r="CZ12" t="s">
+        <v>348</v>
+      </c>
+      <c r="DA12" t="s">
+        <v>349</v>
+      </c>
+      <c r="DB12" t="s">
+        <v>253</v>
+      </c>
+      <c r="DD12" t="s">
         <v>149</v>
       </c>
-      <c r="CW12" t="s">
-        <v>253</v>
-      </c>
-      <c r="CX12" t="s">
-        <v>343</v>
-      </c>
-      <c r="CY12" t="s">
-        <v>259</v>
-      </c>
-      <c r="CZ12" t="s">
-        <v>349</v>
-      </c>
-      <c r="DA12" t="s">
-        <v>275</v>
-      </c>
-      <c r="DB12" t="s">
-        <v>351</v>
-      </c>
-      <c r="DC12" t="s">
-        <v>292</v>
-      </c>
-      <c r="DD12" t="s">
-        <v>328</v>
-      </c>
-      <c r="DE12">
+      <c r="DE12" t="s">
+        <v>266</v>
+      </c>
+      <c r="DF12" t="s">
+        <v>361</v>
+      </c>
+      <c r="DG12" t="s">
+        <v>274</v>
+      </c>
+      <c r="DH12" t="s">
+        <v>369</v>
+      </c>
+      <c r="DI12" t="s">
+        <v>291</v>
+      </c>
+      <c r="DJ12" t="s">
+        <v>371</v>
+      </c>
+      <c r="DK12" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL12" t="s">
+        <v>346</v>
+      </c>
+      <c r="DM12">
         <v>10</v>
       </c>
-      <c r="DF12" t="s">
-        <v>330</v>
-      </c>
-      <c r="DG12" t="s">
-        <v>331</v>
-      </c>
-      <c r="DH12" t="s">
-        <v>292</v>
-      </c>
-      <c r="DJ12" t="s">
-        <v>149</v>
-      </c>
-      <c r="DL12" t="s">
-        <v>253</v>
-      </c>
-      <c r="DM12" t="s">
-        <v>343</v>
-      </c>
       <c r="DN12" t="s">
-        <v>259</v>
+        <v>348</v>
       </c>
       <c r="DO12" t="s">
         <v>349</v>
       </c>
       <c r="DP12" t="s">
-        <v>235</v>
-      </c>
-      <c r="DQ12" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="DR12" t="s">
-        <v>235</v>
-      </c>
-      <c r="DS12" t="s">
-        <v>239</v>
+        <v>149</v>
       </c>
       <c r="DT12" t="s">
-        <v>235</v>
+        <v>266</v>
       </c>
       <c r="DU12" t="s">
-        <v>239</v>
+        <v>361</v>
       </c>
       <c r="DV12" t="s">
-        <v>208</v>
+        <v>274</v>
       </c>
       <c r="DW12" t="s">
-        <v>208</v>
+        <v>369</v>
       </c>
       <c r="DX12" t="s">
-        <v>208</v>
+        <v>217</v>
+      </c>
+      <c r="DY12" t="s">
+        <v>217</v>
+      </c>
+      <c r="DZ12" t="s">
+        <v>253</v>
+      </c>
+      <c r="EA12" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:136">
@@ -5519,7 +5582,7 @@
         <v>150</v>
       </c>
       <c r="I13" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J13" t="b">
         <v>1</v>
@@ -5528,331 +5591,313 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="O13" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="P13" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="Q13" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="R13" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="S13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T13" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="U13">
-        <v>4970</v>
+        <v>4917</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="W13" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="X13" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="Y13" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Z13" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="AB13" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AD13" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="AE13" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="AF13" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>250</v>
+      </c>
+      <c r="AH13" t="s">
         <v>254</v>
       </c>
-      <c r="AG13" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH13" s="2" t="s">
-        <v>261</v>
-      </c>
       <c r="AI13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ13" t="s">
-        <v>275</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>287</v>
+        <v>274</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="AL13" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="AM13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN13" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="AO13" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AP13" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AQ13" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AR13" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AS13" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="AT13" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="AU13" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="AV13" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="AW13" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="AX13" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="AY13" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="AZ13" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="BA13" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="BB13" t="s">
-        <v>210</v>
-      </c>
-      <c r="BJ13" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK13" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL13" t="s">
-        <v>234</v>
-      </c>
-      <c r="BM13" t="s">
-        <v>312</v>
-      </c>
-      <c r="BN13" t="s">
-        <v>317</v>
+        <v>250</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>242</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>250</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>250</v>
       </c>
       <c r="BO13" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="BP13" t="s">
-        <v>230</v>
+        <v>253</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>327</v>
       </c>
       <c r="BR13" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="BS13" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="BT13" t="s">
-        <v>292</v>
+        <v>248</v>
       </c>
       <c r="BU13" t="s">
-        <v>318</v>
+        <v>247</v>
       </c>
       <c r="BV13" t="s">
-        <v>319</v>
+        <v>242</v>
       </c>
       <c r="BW13" t="s">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="BX13" t="s">
-        <v>321</v>
-      </c>
-      <c r="BY13" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="BZ13" t="s">
-        <v>324</v>
+        <v>253</v>
       </c>
       <c r="CA13" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="CB13" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="CC13" t="s">
-        <v>230</v>
+        <v>336</v>
       </c>
       <c r="CD13" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="CE13" t="s">
-        <v>230</v>
+        <v>338</v>
       </c>
       <c r="CF13" t="s">
-        <v>238</v>
+        <v>339</v>
       </c>
       <c r="CG13" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="CH13" t="s">
-        <v>232</v>
+        <v>342</v>
       </c>
       <c r="CI13" t="s">
-        <v>232</v>
+        <v>344</v>
       </c>
       <c r="CJ13" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="CK13" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="CL13" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CM13" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CN13" t="s">
-        <v>317</v>
-      </c>
-      <c r="CO13" s="2" t="s">
-        <v>327</v>
+        <v>248</v>
+      </c>
+      <c r="CO13" t="s">
+        <v>247</v>
       </c>
       <c r="CP13" t="s">
-        <v>328</v>
-      </c>
-      <c r="CQ13">
+        <v>242</v>
+      </c>
+      <c r="CQ13" t="s">
+        <v>250</v>
+      </c>
+      <c r="CR13" t="s">
+        <v>253</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>253</v>
+      </c>
+      <c r="CT13" t="s">
+        <v>253</v>
+      </c>
+      <c r="CU13" t="s">
+        <v>253</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>334</v>
+      </c>
+      <c r="CW13" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>346</v>
+      </c>
+      <c r="CY13">
         <v>10</v>
       </c>
-      <c r="CR13" t="s">
-        <v>330</v>
-      </c>
-      <c r="CS13" t="s">
-        <v>331</v>
-      </c>
-      <c r="CT13" t="s">
-        <v>292</v>
-      </c>
-      <c r="CV13" t="s">
+      <c r="CZ13" t="s">
+        <v>348</v>
+      </c>
+      <c r="DA13" t="s">
+        <v>349</v>
+      </c>
+      <c r="DB13" t="s">
+        <v>253</v>
+      </c>
+      <c r="DD13" t="s">
         <v>150</v>
       </c>
-      <c r="CW13" t="s">
-        <v>254</v>
-      </c>
-      <c r="CX13" t="s">
-        <v>344</v>
-      </c>
-      <c r="CY13" t="s">
-        <v>259</v>
-      </c>
-      <c r="CZ13" t="s">
-        <v>349</v>
-      </c>
-      <c r="DA13" t="s">
-        <v>275</v>
-      </c>
-      <c r="DB13" t="s">
-        <v>351</v>
-      </c>
-      <c r="DC13" t="s">
-        <v>292</v>
-      </c>
-      <c r="DD13" t="s">
-        <v>328</v>
-      </c>
-      <c r="DE13">
+      <c r="DE13" t="s">
+        <v>267</v>
+      </c>
+      <c r="DF13" t="s">
+        <v>362</v>
+      </c>
+      <c r="DG13" t="s">
+        <v>274</v>
+      </c>
+      <c r="DH13" t="s">
+        <v>369</v>
+      </c>
+      <c r="DI13" t="s">
+        <v>291</v>
+      </c>
+      <c r="DJ13" t="s">
+        <v>371</v>
+      </c>
+      <c r="DK13" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL13" t="s">
+        <v>346</v>
+      </c>
+      <c r="DM13">
         <v>10</v>
       </c>
-      <c r="DF13" t="s">
-        <v>330</v>
-      </c>
-      <c r="DG13" t="s">
-        <v>331</v>
-      </c>
-      <c r="DH13" t="s">
-        <v>292</v>
-      </c>
-      <c r="DJ13" t="s">
-        <v>150</v>
-      </c>
-      <c r="DL13" t="s">
-        <v>254</v>
-      </c>
-      <c r="DM13" t="s">
-        <v>344</v>
-      </c>
       <c r="DN13" t="s">
-        <v>259</v>
+        <v>348</v>
       </c>
       <c r="DO13" t="s">
         <v>349</v>
       </c>
       <c r="DP13" t="s">
-        <v>311</v>
-      </c>
-      <c r="DQ13" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
       <c r="DR13" t="s">
-        <v>311</v>
-      </c>
-      <c r="DS13" t="s">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="DT13" t="s">
-        <v>311</v>
+        <v>267</v>
       </c>
       <c r="DU13" t="s">
-        <v>232</v>
+        <v>362</v>
       </c>
       <c r="DV13" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="DW13" t="s">
-        <v>232</v>
-      </c>
-      <c r="DX13" t="s">
-        <v>232</v>
-      </c>
-      <c r="DY13" t="s">
-        <v>231</v>
+        <v>369</v>
       </c>
       <c r="DZ13" t="s">
-        <v>231</v>
-      </c>
-      <c r="EA13" t="s">
-        <v>231</v>
-      </c>
-      <c r="EB13" t="s">
-        <v>237</v>
-      </c>
-      <c r="EC13" t="s">
-        <v>237</v>
-      </c>
-      <c r="ED13" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:136">
@@ -5875,7 +5920,7 @@
         <v>151</v>
       </c>
       <c r="I14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J14" t="b">
         <v>1</v>
@@ -5884,208 +5929,313 @@
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O14" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="P14" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q14" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="R14" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="S14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="T14" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="U14">
-        <v>2573</v>
+        <v>4817</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="W14" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="X14" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="Y14" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Z14" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>242</v>
       </c>
       <c r="AE14" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AF14" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AG14" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH14" s="2" t="s">
-        <v>261</v>
+        <v>217</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>254</v>
       </c>
       <c r="AI14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AJ14" t="s">
         <v>274</v>
       </c>
-      <c r="AK14" t="s">
-        <v>288</v>
+      <c r="AK14" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>280</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>291</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>304</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>253</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>253</v>
       </c>
       <c r="AR14" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AS14" t="s">
+        <v>253</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>253</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>322</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>280</v>
+      </c>
+      <c r="AX14" t="s">
         <v>304</v>
       </c>
-      <c r="AT14" t="s">
-        <v>270</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>288</v>
+      <c r="AY14" t="s">
+        <v>253</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>253</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>247</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>247</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>250</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>247</v>
+      </c>
+      <c r="BO14" t="s">
+        <v>241</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>253</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>217</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>252</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>218</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>242</v>
       </c>
       <c r="BU14" t="s">
-        <v>318</v>
+        <v>247</v>
       </c>
       <c r="BV14" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="BW14" t="s">
-        <v>320</v>
+        <v>217</v>
       </c>
       <c r="BX14" t="s">
-        <v>321</v>
-      </c>
-      <c r="BY14" t="s">
-        <v>323</v>
+        <v>241</v>
       </c>
       <c r="BZ14" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="CA14" t="s">
-        <v>326</v>
+        <v>218</v>
       </c>
       <c r="CB14" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="CC14" t="s">
-        <v>230</v>
+        <v>336</v>
       </c>
       <c r="CD14" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="CE14" t="s">
-        <v>230</v>
+        <v>338</v>
       </c>
       <c r="CF14" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="CG14" t="s">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="CH14" t="s">
-        <v>292</v>
+        <v>342</v>
       </c>
       <c r="CI14" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="CJ14" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CK14" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CL14" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CM14" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CN14" t="s">
-        <v>292</v>
-      </c>
-      <c r="CO14" s="2" t="s">
-        <v>327</v>
+        <v>242</v>
+      </c>
+      <c r="CO14" t="s">
+        <v>247</v>
       </c>
       <c r="CP14" t="s">
-        <v>328</v>
-      </c>
-      <c r="CQ14">
+        <v>250</v>
+      </c>
+      <c r="CQ14" t="s">
+        <v>217</v>
+      </c>
+      <c r="CR14" t="s">
+        <v>253</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>253</v>
+      </c>
+      <c r="CT14" t="s">
+        <v>253</v>
+      </c>
+      <c r="CU14" t="s">
+        <v>253</v>
+      </c>
+      <c r="CV14" t="s">
+        <v>218</v>
+      </c>
+      <c r="CW14" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>346</v>
+      </c>
+      <c r="CY14">
         <v>10</v>
       </c>
-      <c r="CR14" t="s">
-        <v>330</v>
-      </c>
-      <c r="CS14" t="s">
-        <v>332</v>
-      </c>
-      <c r="CT14" t="s">
-        <v>292</v>
-      </c>
-      <c r="CV14" t="s">
+      <c r="CZ14" t="s">
+        <v>348</v>
+      </c>
+      <c r="DA14" t="s">
+        <v>349</v>
+      </c>
+      <c r="DB14" t="s">
+        <v>253</v>
+      </c>
+      <c r="DD14" t="s">
         <v>151</v>
       </c>
-      <c r="CW14" t="s">
-        <v>255</v>
-      </c>
-      <c r="CX14" t="s">
-        <v>345</v>
-      </c>
-      <c r="CY14" t="s">
-        <v>260</v>
-      </c>
-      <c r="CZ14" t="s">
-        <v>350</v>
-      </c>
-      <c r="DA14" t="s">
+      <c r="DE14" t="s">
+        <v>268</v>
+      </c>
+      <c r="DF14" t="s">
+        <v>363</v>
+      </c>
+      <c r="DG14" t="s">
         <v>274</v>
       </c>
-      <c r="DB14" t="s">
-        <v>351</v>
-      </c>
-      <c r="DD14" t="s">
-        <v>328</v>
-      </c>
-      <c r="DE14">
+      <c r="DH14" t="s">
+        <v>369</v>
+      </c>
+      <c r="DI14" t="s">
+        <v>291</v>
+      </c>
+      <c r="DJ14" t="s">
+        <v>371</v>
+      </c>
+      <c r="DK14" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL14" t="s">
+        <v>346</v>
+      </c>
+      <c r="DM14">
         <v>10</v>
       </c>
-      <c r="DF14" t="s">
-        <v>330</v>
-      </c>
-      <c r="DG14" t="s">
-        <v>332</v>
-      </c>
-      <c r="DH14" t="s">
-        <v>292</v>
-      </c>
-      <c r="DJ14" t="s">
+      <c r="DN14" t="s">
+        <v>348</v>
+      </c>
+      <c r="DO14" t="s">
+        <v>349</v>
+      </c>
+      <c r="DP14" t="s">
+        <v>253</v>
+      </c>
+      <c r="DR14" t="s">
         <v>151</v>
       </c>
-      <c r="DL14" t="s">
-        <v>255</v>
-      </c>
-      <c r="DM14" t="s">
-        <v>345</v>
-      </c>
-      <c r="DN14" t="s">
-        <v>260</v>
-      </c>
-      <c r="DO14" t="s">
-        <v>350</v>
+      <c r="DT14" t="s">
+        <v>268</v>
+      </c>
+      <c r="DU14" t="s">
+        <v>363</v>
+      </c>
+      <c r="DV14" t="s">
+        <v>274</v>
+      </c>
+      <c r="DW14" t="s">
+        <v>369</v>
+      </c>
+      <c r="DZ14" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:136">
@@ -6099,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s">
         <v>138</v>
@@ -6108,7 +6258,7 @@
         <v>152</v>
       </c>
       <c r="I15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="J15" t="b">
         <v>1</v>
@@ -6117,304 +6267,331 @@
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="O15" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P15" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q15" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="R15" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="S15" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="T15" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="U15">
-        <v>4704</v>
+        <v>4970</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="W15" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="X15" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="Y15" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Z15" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="AB15" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AD15" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="AE15" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="AF15" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="AG15" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH15" s="2" t="s">
-        <v>261</v>
+        <v>243</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>254</v>
       </c>
       <c r="AI15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ15" t="s">
         <v>274</v>
       </c>
-      <c r="AK15" t="s">
-        <v>289</v>
+      <c r="AK15" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="AL15" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AM15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AN15" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="AO15" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AP15" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AQ15" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AR15" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AS15" t="s">
+        <v>253</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>253</v>
+      </c>
+      <c r="AV15" t="s">
         <v>305</v>
       </c>
-      <c r="AT15" t="s">
-        <v>271</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>289</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>292</v>
-      </c>
       <c r="AW15" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="AX15" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="AY15" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AZ15" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="BA15" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="BB15" t="s">
-        <v>292</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>232</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>231</v>
-      </c>
-      <c r="BN15" t="s">
-        <v>240</v>
+        <v>219</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>252</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>243</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>243</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>219</v>
       </c>
       <c r="BO15" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="BP15" t="s">
-        <v>230</v>
+        <v>253</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>246</v>
       </c>
       <c r="BR15" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="BS15" t="s">
-        <v>240</v>
+        <v>335</v>
       </c>
       <c r="BT15" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="BU15" t="s">
-        <v>318</v>
+        <v>252</v>
       </c>
       <c r="BV15" t="s">
-        <v>319</v>
+        <v>243</v>
       </c>
       <c r="BW15" t="s">
-        <v>320</v>
+        <v>243</v>
       </c>
       <c r="BX15" t="s">
-        <v>321</v>
-      </c>
-      <c r="BY15" t="s">
-        <v>323</v>
+        <v>241</v>
       </c>
       <c r="BZ15" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="CA15" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="CB15" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="CC15" t="s">
-        <v>230</v>
+        <v>336</v>
       </c>
       <c r="CD15" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="CE15" t="s">
-        <v>230</v>
+        <v>338</v>
       </c>
       <c r="CF15" t="s">
-        <v>232</v>
+        <v>339</v>
       </c>
       <c r="CG15" t="s">
-        <v>232</v>
+        <v>340</v>
       </c>
       <c r="CH15" t="s">
-        <v>208</v>
+        <v>342</v>
       </c>
       <c r="CI15" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="CJ15" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CK15" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CL15" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CM15" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CN15" t="s">
-        <v>240</v>
-      </c>
-      <c r="CO15" s="2" t="s">
-        <v>327</v>
+        <v>249</v>
+      </c>
+      <c r="CO15" t="s">
+        <v>252</v>
       </c>
       <c r="CP15" t="s">
-        <v>329</v>
-      </c>
-      <c r="CQ15">
-        <v>8</v>
+        <v>243</v>
+      </c>
+      <c r="CQ15" t="s">
+        <v>243</v>
       </c>
       <c r="CR15" t="s">
-        <v>330</v>
+        <v>244</v>
       </c>
       <c r="CS15" t="s">
-        <v>332</v>
+        <v>242</v>
       </c>
       <c r="CT15" t="s">
-        <v>292</v>
+        <v>253</v>
+      </c>
+      <c r="CU15" t="s">
+        <v>253</v>
       </c>
       <c r="CV15" t="s">
-        <v>152</v>
-      </c>
-      <c r="CW15" t="s">
-        <v>256</v>
+        <v>335</v>
+      </c>
+      <c r="CW15" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="CX15" t="s">
         <v>346</v>
       </c>
-      <c r="CY15" t="s">
-        <v>260</v>
+      <c r="CY15">
+        <v>10</v>
       </c>
       <c r="CZ15" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="DA15" t="s">
+        <v>349</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>253</v>
+      </c>
+      <c r="DD15" t="s">
+        <v>152</v>
+      </c>
+      <c r="DE15" t="s">
+        <v>269</v>
+      </c>
+      <c r="DF15" t="s">
+        <v>364</v>
+      </c>
+      <c r="DG15" t="s">
         <v>274</v>
       </c>
-      <c r="DB15" t="s">
-        <v>351</v>
-      </c>
-      <c r="DC15" t="s">
-        <v>292</v>
-      </c>
-      <c r="DD15" t="s">
-        <v>329</v>
-      </c>
-      <c r="DE15">
-        <v>8</v>
-      </c>
-      <c r="DF15" t="s">
-        <v>330</v>
-      </c>
-      <c r="DG15" t="s">
-        <v>332</v>
-      </c>
       <c r="DH15" t="s">
-        <v>292</v>
+        <v>369</v>
+      </c>
+      <c r="DI15" t="s">
+        <v>291</v>
       </c>
       <c r="DJ15" t="s">
+        <v>371</v>
+      </c>
+      <c r="DK15" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL15" t="s">
+        <v>346</v>
+      </c>
+      <c r="DM15">
+        <v>10</v>
+      </c>
+      <c r="DN15" t="s">
+        <v>348</v>
+      </c>
+      <c r="DO15" t="s">
+        <v>349</v>
+      </c>
+      <c r="DP15" t="s">
+        <v>253</v>
+      </c>
+      <c r="DR15" t="s">
         <v>152</v>
       </c>
-      <c r="DL15" t="s">
-        <v>256</v>
-      </c>
-      <c r="DM15" t="s">
-        <v>346</v>
-      </c>
-      <c r="DN15" t="s">
-        <v>260</v>
-      </c>
-      <c r="DO15" t="s">
-        <v>350</v>
-      </c>
-      <c r="DP15" t="s">
-        <v>235</v>
-      </c>
-      <c r="DQ15" t="s">
-        <v>292</v>
-      </c>
-      <c r="DR15" t="s">
-        <v>232</v>
-      </c>
-      <c r="DS15" t="s">
-        <v>208</v>
-      </c>
       <c r="DT15" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="DU15" t="s">
-        <v>208</v>
+        <v>364</v>
+      </c>
+      <c r="DV15" t="s">
+        <v>274</v>
+      </c>
+      <c r="DW15" t="s">
+        <v>369</v>
+      </c>
+      <c r="DX15" t="s">
+        <v>244</v>
+      </c>
+      <c r="DY15" t="s">
+        <v>244</v>
+      </c>
+      <c r="DZ15" t="s">
+        <v>253</v>
+      </c>
+      <c r="EA15" t="s">
+        <v>244</v>
+      </c>
+      <c r="EB15" t="s">
+        <v>242</v>
+      </c>
+      <c r="EC15" t="s">
+        <v>242</v>
+      </c>
+      <c r="ED15" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:136">
@@ -6428,7 +6605,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E16" t="s">
         <v>138</v>
@@ -6437,7 +6614,7 @@
         <v>153</v>
       </c>
       <c r="I16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J16" t="b">
         <v>1</v>
@@ -6446,319 +6623,211 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="O16" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="P16" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="Q16" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="R16" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="S16" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="T16" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="U16">
-        <v>4788</v>
+        <v>2573</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="W16" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="X16" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="Y16" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Z16" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>230</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>210</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>242</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>257</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH16" s="2" t="s">
-        <v>261</v>
+        <v>240</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>255</v>
       </c>
       <c r="AI16" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ16" t="s">
-        <v>274</v>
-      </c>
-      <c r="AK16" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>286</v>
+      </c>
+      <c r="AM16" t="s">
         <v>290</v>
       </c>
-      <c r="AL16" t="s">
-        <v>292</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>292</v>
-      </c>
       <c r="AN16" t="s">
-        <v>292</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>292</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>292</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>292</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>292</v>
-      </c>
-      <c r="AS16" t="s">
         <v>306</v>
       </c>
-      <c r="AT16" t="s">
-        <v>272</v>
-      </c>
       <c r="AU16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>323</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>286</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>306</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>336</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>337</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>338</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>339</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>341</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>343</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>344</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>241</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>241</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>241</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>241</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>253</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>253</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>253</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>253</v>
+      </c>
+      <c r="CR16" t="s">
+        <v>253</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>253</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>253</v>
+      </c>
+      <c r="CU16" t="s">
+        <v>253</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>253</v>
+      </c>
+      <c r="CW16" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>346</v>
+      </c>
+      <c r="CY16">
+        <v>10</v>
+      </c>
+      <c r="CZ16" t="s">
+        <v>348</v>
+      </c>
+      <c r="DA16" t="s">
+        <v>350</v>
+      </c>
+      <c r="DB16" t="s">
+        <v>253</v>
+      </c>
+      <c r="DD16" t="s">
+        <v>153</v>
+      </c>
+      <c r="DE16" t="s">
+        <v>270</v>
+      </c>
+      <c r="DF16" t="s">
+        <v>365</v>
+      </c>
+      <c r="DG16" t="s">
+        <v>275</v>
+      </c>
+      <c r="DH16" t="s">
+        <v>370</v>
+      </c>
+      <c r="DI16" t="s">
         <v>290</v>
       </c>
-      <c r="AV16" t="s">
-        <v>292</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>292</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>292</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>292</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>230</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>292</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>292</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>292</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>292</v>
-      </c>
-      <c r="BJ16" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>240</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>292</v>
-      </c>
-      <c r="BN16" t="s">
-        <v>240</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>210</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>230</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>292</v>
-      </c>
-      <c r="BS16" t="s">
-        <v>240</v>
-      </c>
-      <c r="BT16" t="s">
-        <v>292</v>
-      </c>
-      <c r="BU16" t="s">
-        <v>318</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>319</v>
-      </c>
-      <c r="BW16" t="s">
-        <v>320</v>
-      </c>
-      <c r="BX16" t="s">
-        <v>321</v>
-      </c>
-      <c r="BY16" t="s">
-        <v>323</v>
-      </c>
-      <c r="BZ16" t="s">
-        <v>325</v>
-      </c>
-      <c r="CA16" t="s">
-        <v>326</v>
-      </c>
-      <c r="CB16" t="s">
-        <v>230</v>
-      </c>
-      <c r="CC16" t="s">
-        <v>230</v>
-      </c>
-      <c r="CD16" t="s">
-        <v>230</v>
-      </c>
-      <c r="CE16" t="s">
-        <v>230</v>
-      </c>
-      <c r="CF16" t="s">
-        <v>210</v>
-      </c>
-      <c r="CG16" t="s">
-        <v>239</v>
-      </c>
-      <c r="CH16" t="s">
-        <v>208</v>
-      </c>
-      <c r="CI16" t="s">
-        <v>292</v>
-      </c>
-      <c r="CJ16" t="s">
-        <v>292</v>
-      </c>
-      <c r="CK16" t="s">
-        <v>292</v>
-      </c>
-      <c r="CL16" t="s">
-        <v>292</v>
-      </c>
-      <c r="CM16" t="s">
-        <v>292</v>
-      </c>
-      <c r="CN16" t="s">
-        <v>240</v>
-      </c>
-      <c r="CO16" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="CP16" t="s">
-        <v>329</v>
-      </c>
-      <c r="CQ16">
-        <v>8</v>
-      </c>
-      <c r="CR16" t="s">
-        <v>330</v>
-      </c>
-      <c r="CS16" t="s">
-        <v>332</v>
-      </c>
-      <c r="CT16" t="s">
-        <v>292</v>
-      </c>
-      <c r="CV16" t="s">
-        <v>153</v>
-      </c>
-      <c r="CW16" t="s">
-        <v>257</v>
-      </c>
-      <c r="CX16" t="s">
-        <v>347</v>
-      </c>
-      <c r="CY16" t="s">
-        <v>260</v>
-      </c>
-      <c r="CZ16" t="s">
-        <v>350</v>
-      </c>
-      <c r="DA16" t="s">
-        <v>274</v>
-      </c>
-      <c r="DB16" t="s">
-        <v>351</v>
-      </c>
-      <c r="DC16" t="s">
-        <v>292</v>
-      </c>
-      <c r="DD16" t="s">
-        <v>329</v>
-      </c>
-      <c r="DE16">
-        <v>8</v>
-      </c>
-      <c r="DF16" t="s">
-        <v>330</v>
-      </c>
-      <c r="DG16" t="s">
-        <v>332</v>
-      </c>
-      <c r="DH16" t="s">
-        <v>292</v>
-      </c>
       <c r="DJ16" t="s">
-        <v>153</v>
+        <v>371</v>
       </c>
       <c r="DL16" t="s">
-        <v>257</v>
-      </c>
-      <c r="DM16" t="s">
-        <v>347</v>
+        <v>346</v>
+      </c>
+      <c r="DM16">
+        <v>10</v>
       </c>
       <c r="DN16" t="s">
-        <v>260</v>
+        <v>348</v>
       </c>
       <c r="DO16" t="s">
         <v>350</v>
       </c>
       <c r="DP16" t="s">
-        <v>239</v>
-      </c>
-      <c r="DQ16" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="DR16" t="s">
-        <v>292</v>
-      </c>
-      <c r="DS16" t="s">
-        <v>292</v>
+        <v>153</v>
       </c>
       <c r="DT16" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="DU16" t="s">
-        <v>208</v>
-      </c>
-      <c r="EE16" t="s">
-        <v>292</v>
-      </c>
-      <c r="EF16" t="s">
-        <v>292</v>
+        <v>365</v>
+      </c>
+      <c r="DV16" t="s">
+        <v>275</v>
+      </c>
+      <c r="DW16" t="s">
+        <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:119">
+    <row r="17" spans="1:136">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6778,7 +6847,7 @@
         <v>154</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J17" t="b">
         <v>1</v>
@@ -6787,354 +6856,1032 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="P17" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Q17" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="R17" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="S17" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="T17" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="U17">
-        <v>4452</v>
+        <v>4704</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="W17" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="X17" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="Y17" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Z17" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="AB17" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="AD17" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AE17" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AF17" t="s">
-        <v>258</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>260</v>
-      </c>
-      <c r="AH17" s="2" t="s">
-        <v>261</v>
+        <v>253</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>255</v>
       </c>
       <c r="AI17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AJ17" t="s">
-        <v>274</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>291</v>
+        <v>275</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>276</v>
       </c>
       <c r="AL17" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AM17" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="AN17" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="AO17" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AP17" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AQ17" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AR17" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AS17" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="AT17" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="AU17" t="s">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="AV17" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="AW17" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="AX17" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="AY17" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="AZ17" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="BA17" t="s">
-        <v>292</v>
+        <v>253</v>
       </c>
       <c r="BB17" t="s">
-        <v>292</v>
-      </c>
-      <c r="BJ17" t="s">
-        <v>230</v>
-      </c>
-      <c r="BK17" t="s">
-        <v>292</v>
-      </c>
-      <c r="BL17" t="s">
-        <v>238</v>
-      </c>
-      <c r="BM17" t="s">
-        <v>292</v>
-      </c>
-      <c r="BN17" t="s">
-        <v>238</v>
+        <v>253</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>243</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>217</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG17" t="s">
+        <v>253</v>
       </c>
       <c r="BO17" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="BP17" t="s">
-        <v>230</v>
+        <v>253</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>243</v>
       </c>
       <c r="BR17" t="s">
-        <v>292</v>
+        <v>244</v>
       </c>
       <c r="BS17" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="BT17" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="BU17" t="s">
-        <v>318</v>
+        <v>243</v>
       </c>
       <c r="BV17" t="s">
-        <v>319</v>
-      </c>
-      <c r="BW17" t="s">
-        <v>320</v>
+        <v>217</v>
       </c>
       <c r="BX17" t="s">
-        <v>321</v>
-      </c>
-      <c r="BY17" t="s">
-        <v>323</v>
+        <v>241</v>
       </c>
       <c r="BZ17" t="s">
-        <v>325</v>
+        <v>253</v>
       </c>
       <c r="CA17" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="CB17" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="CC17" t="s">
-        <v>230</v>
+        <v>336</v>
       </c>
       <c r="CD17" t="s">
-        <v>230</v>
+        <v>337</v>
       </c>
       <c r="CE17" t="s">
-        <v>230</v>
+        <v>338</v>
       </c>
       <c r="CF17" t="s">
-        <v>238</v>
+        <v>339</v>
       </c>
       <c r="CG17" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="CH17" t="s">
-        <v>292</v>
+        <v>343</v>
       </c>
       <c r="CI17" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="CJ17" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CK17" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CL17" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CM17" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="CN17" t="s">
-        <v>238</v>
-      </c>
-      <c r="CO17" s="2" t="s">
-        <v>327</v>
+        <v>243</v>
+      </c>
+      <c r="CO17" t="s">
+        <v>243</v>
       </c>
       <c r="CP17" t="s">
-        <v>329</v>
-      </c>
-      <c r="CQ17">
+        <v>217</v>
+      </c>
+      <c r="CQ17" t="s">
+        <v>253</v>
+      </c>
+      <c r="CR17" t="s">
+        <v>253</v>
+      </c>
+      <c r="CS17" t="s">
+        <v>253</v>
+      </c>
+      <c r="CT17" t="s">
+        <v>253</v>
+      </c>
+      <c r="CU17" t="s">
+        <v>253</v>
+      </c>
+      <c r="CV17" t="s">
+        <v>251</v>
+      </c>
+      <c r="CW17" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="CX17" t="s">
+        <v>347</v>
+      </c>
+      <c r="CY17">
         <v>8</v>
       </c>
-      <c r="CR17" t="s">
-        <v>330</v>
-      </c>
-      <c r="CS17" t="s">
-        <v>332</v>
-      </c>
-      <c r="CT17" t="s">
-        <v>292</v>
-      </c>
-      <c r="CV17" t="s">
+      <c r="CZ17" t="s">
+        <v>348</v>
+      </c>
+      <c r="DA17" t="s">
+        <v>350</v>
+      </c>
+      <c r="DB17" t="s">
+        <v>253</v>
+      </c>
+      <c r="DD17" t="s">
         <v>154</v>
       </c>
-      <c r="CW17" t="s">
-        <v>258</v>
-      </c>
-      <c r="CX17" t="s">
+      <c r="DE17" t="s">
+        <v>271</v>
+      </c>
+      <c r="DF17" t="s">
+        <v>366</v>
+      </c>
+      <c r="DG17" t="s">
+        <v>275</v>
+      </c>
+      <c r="DH17" t="s">
+        <v>370</v>
+      </c>
+      <c r="DI17" t="s">
+        <v>290</v>
+      </c>
+      <c r="DJ17" t="s">
+        <v>371</v>
+      </c>
+      <c r="DK17" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL17" t="s">
+        <v>347</v>
+      </c>
+      <c r="DM17">
+        <v>8</v>
+      </c>
+      <c r="DN17" t="s">
         <v>348</v>
-      </c>
-      <c r="CY17" t="s">
-        <v>260</v>
-      </c>
-      <c r="CZ17" t="s">
-        <v>350</v>
-      </c>
-      <c r="DA17" t="s">
-        <v>274</v>
-      </c>
-      <c r="DB17" t="s">
-        <v>351</v>
-      </c>
-      <c r="DC17" t="s">
-        <v>292</v>
-      </c>
-      <c r="DD17" t="s">
-        <v>329</v>
-      </c>
-      <c r="DE17">
-        <v>8</v>
-      </c>
-      <c r="DF17" t="s">
-        <v>330</v>
-      </c>
-      <c r="DG17" t="s">
-        <v>332</v>
-      </c>
-      <c r="DH17" t="s">
-        <v>292</v>
-      </c>
-      <c r="DJ17" t="s">
-        <v>154</v>
-      </c>
-      <c r="DL17" t="s">
-        <v>258</v>
-      </c>
-      <c r="DM17" t="s">
-        <v>348</v>
-      </c>
-      <c r="DN17" t="s">
-        <v>260</v>
       </c>
       <c r="DO17" t="s">
         <v>350</v>
+      </c>
+      <c r="DP17" t="s">
+        <v>253</v>
+      </c>
+      <c r="DR17" t="s">
+        <v>154</v>
+      </c>
+      <c r="DT17" t="s">
+        <v>271</v>
+      </c>
+      <c r="DU17" t="s">
+        <v>366</v>
+      </c>
+      <c r="DV17" t="s">
+        <v>275</v>
+      </c>
+      <c r="DW17" t="s">
+        <v>370</v>
+      </c>
+      <c r="DZ17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:136">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" t="s">
+        <v>155</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>191</v>
+      </c>
+      <c r="O18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P18" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>216</v>
+      </c>
+      <c r="R18" t="s">
+        <v>217</v>
+      </c>
+      <c r="S18" t="s">
+        <v>219</v>
+      </c>
+      <c r="T18" t="s">
+        <v>220</v>
+      </c>
+      <c r="U18">
+        <v>4788</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="W18" t="s">
+        <v>216</v>
+      </c>
+      <c r="X18" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>272</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>308</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>253</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>253</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>253</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>253</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>253</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>325</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>288</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>308</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>253</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>253</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>253</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>253</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>253</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>253</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>253</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>253</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>241</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>253</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>251</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>253</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>251</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>219</v>
+      </c>
+      <c r="BU18" t="s">
+        <v>250</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>217</v>
+      </c>
+      <c r="BX18" t="s">
+        <v>241</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>251</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>253</v>
+      </c>
+      <c r="CC18" t="s">
+        <v>336</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>337</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>338</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>339</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>341</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>343</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>344</v>
+      </c>
+      <c r="CJ18" t="s">
+        <v>241</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>241</v>
+      </c>
+      <c r="CL18" t="s">
+        <v>241</v>
+      </c>
+      <c r="CM18" t="s">
+        <v>241</v>
+      </c>
+      <c r="CN18" t="s">
+        <v>219</v>
+      </c>
+      <c r="CO18" t="s">
+        <v>250</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>217</v>
+      </c>
+      <c r="CQ18" t="s">
+        <v>253</v>
+      </c>
+      <c r="CR18" t="s">
+        <v>253</v>
+      </c>
+      <c r="CS18" t="s">
+        <v>253</v>
+      </c>
+      <c r="CT18" t="s">
+        <v>253</v>
+      </c>
+      <c r="CU18" t="s">
+        <v>253</v>
+      </c>
+      <c r="CV18" t="s">
+        <v>251</v>
+      </c>
+      <c r="CW18" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="CX18" t="s">
+        <v>347</v>
+      </c>
+      <c r="CY18">
+        <v>8</v>
+      </c>
+      <c r="CZ18" t="s">
+        <v>348</v>
+      </c>
+      <c r="DA18" t="s">
+        <v>350</v>
+      </c>
+      <c r="DB18" t="s">
+        <v>253</v>
+      </c>
+      <c r="DD18" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE18" t="s">
+        <v>272</v>
+      </c>
+      <c r="DF18" t="s">
+        <v>367</v>
+      </c>
+      <c r="DG18" t="s">
+        <v>275</v>
+      </c>
+      <c r="DH18" t="s">
+        <v>370</v>
+      </c>
+      <c r="DI18" t="s">
+        <v>290</v>
+      </c>
+      <c r="DJ18" t="s">
+        <v>371</v>
+      </c>
+      <c r="DK18" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL18" t="s">
+        <v>347</v>
+      </c>
+      <c r="DM18">
+        <v>8</v>
+      </c>
+      <c r="DN18" t="s">
+        <v>348</v>
+      </c>
+      <c r="DO18" t="s">
+        <v>350</v>
+      </c>
+      <c r="DP18" t="s">
+        <v>253</v>
+      </c>
+      <c r="DR18" t="s">
+        <v>155</v>
+      </c>
+      <c r="DT18" t="s">
+        <v>272</v>
+      </c>
+      <c r="DU18" t="s">
+        <v>367</v>
+      </c>
+      <c r="DV18" t="s">
+        <v>275</v>
+      </c>
+      <c r="DW18" t="s">
+        <v>370</v>
+      </c>
+      <c r="DZ18" t="s">
+        <v>253</v>
+      </c>
+      <c r="EE18" t="s">
+        <v>253</v>
+      </c>
+      <c r="EF18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:136">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" t="s">
+        <v>156</v>
+      </c>
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>192</v>
+      </c>
+      <c r="O19" t="s">
+        <v>210</v>
+      </c>
+      <c r="P19" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>216</v>
+      </c>
+      <c r="R19" t="s">
+        <v>217</v>
+      </c>
+      <c r="S19" t="s">
+        <v>219</v>
+      </c>
+      <c r="T19" t="s">
+        <v>220</v>
+      </c>
+      <c r="U19">
+        <v>4452</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="W19" t="s">
+        <v>216</v>
+      </c>
+      <c r="X19" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA19" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>241</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>255</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>275</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>289</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>290</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>309</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>253</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>253</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>253</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>253</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>253</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>253</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>309</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>289</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>309</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>253</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>253</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>253</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>253</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>241</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>253</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>249</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>253</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>249</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>249</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>241</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>253</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>249</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>253</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>336</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>337</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>338</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>339</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>341</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>343</v>
+      </c>
+      <c r="CI19" t="s">
+        <v>344</v>
+      </c>
+      <c r="CJ19" t="s">
+        <v>241</v>
+      </c>
+      <c r="CK19" t="s">
+        <v>241</v>
+      </c>
+      <c r="CL19" t="s">
+        <v>241</v>
+      </c>
+      <c r="CM19" t="s">
+        <v>241</v>
+      </c>
+      <c r="CN19" t="s">
+        <v>249</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>253</v>
+      </c>
+      <c r="CP19" t="s">
+        <v>253</v>
+      </c>
+      <c r="CQ19" t="s">
+        <v>253</v>
+      </c>
+      <c r="CR19" t="s">
+        <v>253</v>
+      </c>
+      <c r="CS19" t="s">
+        <v>253</v>
+      </c>
+      <c r="CT19" t="s">
+        <v>253</v>
+      </c>
+      <c r="CU19" t="s">
+        <v>253</v>
+      </c>
+      <c r="CV19" t="s">
+        <v>249</v>
+      </c>
+      <c r="CW19" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="CX19" t="s">
+        <v>347</v>
+      </c>
+      <c r="CY19">
+        <v>8</v>
+      </c>
+      <c r="CZ19" t="s">
+        <v>348</v>
+      </c>
+      <c r="DA19" t="s">
+        <v>350</v>
+      </c>
+      <c r="DB19" t="s">
+        <v>253</v>
+      </c>
+      <c r="DD19" t="s">
+        <v>156</v>
+      </c>
+      <c r="DE19" t="s">
+        <v>273</v>
+      </c>
+      <c r="DF19" t="s">
+        <v>368</v>
+      </c>
+      <c r="DG19" t="s">
+        <v>275</v>
+      </c>
+      <c r="DH19" t="s">
+        <v>370</v>
+      </c>
+      <c r="DI19" t="s">
+        <v>290</v>
+      </c>
+      <c r="DJ19" t="s">
+        <v>371</v>
+      </c>
+      <c r="DK19" t="s">
+        <v>253</v>
+      </c>
+      <c r="DL19" t="s">
+        <v>347</v>
+      </c>
+      <c r="DM19">
+        <v>8</v>
+      </c>
+      <c r="DN19" t="s">
+        <v>348</v>
+      </c>
+      <c r="DO19" t="s">
+        <v>350</v>
+      </c>
+      <c r="DP19" t="s">
+        <v>253</v>
+      </c>
+      <c r="DR19" t="s">
+        <v>156</v>
+      </c>
+      <c r="DT19" t="s">
+        <v>273</v>
+      </c>
+      <c r="DU19" t="s">
+        <v>368</v>
+      </c>
+      <c r="DV19" t="s">
+        <v>275</v>
+      </c>
+      <c r="DW19" t="s">
+        <v>370</v>
+      </c>
+      <c r="DZ19" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="V2" r:id="rId1"/>
     <hyperlink ref="AA2" r:id="rId2"/>
-    <hyperlink ref="AH2" r:id="rId3"/>
-    <hyperlink ref="CO2" r:id="rId4"/>
+    <hyperlink ref="AK2" r:id="rId3"/>
+    <hyperlink ref="CW2" r:id="rId4"/>
     <hyperlink ref="V3" r:id="rId5"/>
     <hyperlink ref="AA3" r:id="rId6"/>
-    <hyperlink ref="AH3" r:id="rId7"/>
-    <hyperlink ref="CO3" r:id="rId8"/>
+    <hyperlink ref="AK3" r:id="rId7"/>
+    <hyperlink ref="CW3" r:id="rId8"/>
     <hyperlink ref="V4" r:id="rId9"/>
     <hyperlink ref="AA4" r:id="rId10"/>
-    <hyperlink ref="AH4" r:id="rId11"/>
-    <hyperlink ref="CO4" r:id="rId12"/>
+    <hyperlink ref="AK4" r:id="rId11"/>
+    <hyperlink ref="CW4" r:id="rId12"/>
     <hyperlink ref="V5" r:id="rId13"/>
     <hyperlink ref="AA5" r:id="rId14"/>
-    <hyperlink ref="AH5" r:id="rId15"/>
-    <hyperlink ref="CO5" r:id="rId16"/>
+    <hyperlink ref="AK5" r:id="rId15"/>
+    <hyperlink ref="CW5" r:id="rId16"/>
     <hyperlink ref="V6" r:id="rId17"/>
     <hyperlink ref="AA6" r:id="rId18"/>
-    <hyperlink ref="AH6" r:id="rId19"/>
-    <hyperlink ref="CO6" r:id="rId20"/>
+    <hyperlink ref="AK6" r:id="rId19"/>
+    <hyperlink ref="CW6" r:id="rId20"/>
     <hyperlink ref="V7" r:id="rId21"/>
     <hyperlink ref="AA7" r:id="rId22"/>
-    <hyperlink ref="AH7" r:id="rId23"/>
-    <hyperlink ref="CO7" r:id="rId24"/>
+    <hyperlink ref="AK7" r:id="rId23"/>
+    <hyperlink ref="CW7" r:id="rId24"/>
     <hyperlink ref="V8" r:id="rId25"/>
     <hyperlink ref="AA8" r:id="rId26"/>
-    <hyperlink ref="AH8" r:id="rId27"/>
-    <hyperlink ref="CO8" r:id="rId28"/>
+    <hyperlink ref="AK8" r:id="rId27"/>
+    <hyperlink ref="CW8" r:id="rId28"/>
     <hyperlink ref="V9" r:id="rId29"/>
     <hyperlink ref="AA9" r:id="rId30"/>
-    <hyperlink ref="AH9" r:id="rId31"/>
-    <hyperlink ref="CO9" r:id="rId32"/>
+    <hyperlink ref="AK9" r:id="rId31"/>
+    <hyperlink ref="CW9" r:id="rId32"/>
     <hyperlink ref="V10" r:id="rId33"/>
     <hyperlink ref="AA10" r:id="rId34"/>
-    <hyperlink ref="AH10" r:id="rId35"/>
-    <hyperlink ref="CO10" r:id="rId36"/>
+    <hyperlink ref="AK10" r:id="rId35"/>
+    <hyperlink ref="CW10" r:id="rId36"/>
     <hyperlink ref="V11" r:id="rId37"/>
     <hyperlink ref="AA11" r:id="rId38"/>
-    <hyperlink ref="AH11" r:id="rId39"/>
-    <hyperlink ref="CO11" r:id="rId40"/>
+    <hyperlink ref="AK11" r:id="rId39"/>
+    <hyperlink ref="CW11" r:id="rId40"/>
     <hyperlink ref="V12" r:id="rId41"/>
     <hyperlink ref="AA12" r:id="rId42"/>
-    <hyperlink ref="AH12" r:id="rId43"/>
-    <hyperlink ref="CO12" r:id="rId44"/>
+    <hyperlink ref="AK12" r:id="rId43"/>
+    <hyperlink ref="CW12" r:id="rId44"/>
     <hyperlink ref="V13" r:id="rId45"/>
     <hyperlink ref="AA13" r:id="rId46"/>
-    <hyperlink ref="AH13" r:id="rId47"/>
-    <hyperlink ref="CO13" r:id="rId48"/>
+    <hyperlink ref="AK13" r:id="rId47"/>
+    <hyperlink ref="CW13" r:id="rId48"/>
     <hyperlink ref="V14" r:id="rId49"/>
     <hyperlink ref="AA14" r:id="rId50"/>
-    <hyperlink ref="AH14" r:id="rId51"/>
-    <hyperlink ref="CO14" r:id="rId52"/>
+    <hyperlink ref="AK14" r:id="rId51"/>
+    <hyperlink ref="CW14" r:id="rId52"/>
     <hyperlink ref="V15" r:id="rId53"/>
     <hyperlink ref="AA15" r:id="rId54"/>
-    <hyperlink ref="AH15" r:id="rId55"/>
-    <hyperlink ref="CO15" r:id="rId56"/>
+    <hyperlink ref="AK15" r:id="rId55"/>
+    <hyperlink ref="CW15" r:id="rId56"/>
     <hyperlink ref="V16" r:id="rId57"/>
     <hyperlink ref="AA16" r:id="rId58"/>
-    <hyperlink ref="AH16" r:id="rId59"/>
-    <hyperlink ref="CO16" r:id="rId60"/>
+    <hyperlink ref="AK16" r:id="rId59"/>
+    <hyperlink ref="CW16" r:id="rId60"/>
     <hyperlink ref="V17" r:id="rId61"/>
     <hyperlink ref="AA17" r:id="rId62"/>
-    <hyperlink ref="AH17" r:id="rId63"/>
-    <hyperlink ref="CO17" r:id="rId64"/>
+    <hyperlink ref="AK17" r:id="rId63"/>
+    <hyperlink ref="CW17" r:id="rId64"/>
+    <hyperlink ref="V18" r:id="rId65"/>
+    <hyperlink ref="AA18" r:id="rId66"/>
+    <hyperlink ref="AK18" r:id="rId67"/>
+    <hyperlink ref="CW18" r:id="rId68"/>
+    <hyperlink ref="V19" r:id="rId69"/>
+    <hyperlink ref="AA19" r:id="rId70"/>
+    <hyperlink ref="AK19" r:id="rId71"/>
+    <hyperlink ref="CW19" r:id="rId72"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
